--- a/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="82">
   <si>
     <t>Chromosome</t>
   </si>
@@ -223,6 +223,9 @@
     <t>w22881</t>
   </si>
   <si>
+    <t>173550</t>
+  </si>
+  <si>
     <t>181558</t>
   </si>
   <si>
@@ -230,6 +233,9 @@
   </si>
   <si>
     <t>W27694</t>
+  </si>
+  <si>
+    <t>183873</t>
   </si>
   <si>
     <t>190325</t>
@@ -611,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C830"/>
+  <dimension ref="A1:C834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2151,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2162,7 +2168,7 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2173,7 +2179,7 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2184,7 +2190,7 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2195,7 +2201,7 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2206,7 +2212,7 @@
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2217,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2228,7 +2234,7 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2239,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2250,7 +2256,7 @@
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2261,7 +2267,7 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2272,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2283,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2294,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2305,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2316,7 +2322,7 @@
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2327,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2338,7 +2344,7 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2349,7 +2355,7 @@
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2360,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2371,7 +2377,7 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2382,7 +2388,7 @@
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2393,7 +2399,7 @@
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2404,7 +2410,7 @@
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2415,7 +2421,7 @@
         <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2426,7 +2432,7 @@
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2437,7 +2443,7 @@
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2448,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2459,7 +2465,7 @@
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2470,7 +2476,7 @@
         <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2481,7 +2487,7 @@
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2492,7 +2498,7 @@
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2503,7 +2509,7 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2514,7 +2520,7 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2522,10 +2528,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2536,7 +2542,7 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2547,7 +2553,7 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2558,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2569,7 +2575,7 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2580,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2591,7 +2597,7 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2602,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2613,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2624,7 +2630,7 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2635,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2646,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2657,7 +2663,7 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2668,7 +2674,7 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2679,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2690,7 +2696,7 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2701,7 +2707,7 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2712,7 +2718,7 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2723,7 +2729,7 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2734,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2745,7 +2751,7 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2756,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2767,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2778,7 +2784,7 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2789,7 +2795,7 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2800,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2811,7 +2817,7 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2822,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2833,7 +2839,7 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2844,7 +2850,7 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2855,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2866,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2877,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2888,7 +2894,7 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2896,10 +2902,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2910,7 +2916,7 @@
         <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2921,7 +2927,7 @@
         <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2932,7 +2938,7 @@
         <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2943,7 +2949,7 @@
         <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2954,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2965,7 +2971,7 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2976,7 +2982,7 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2987,7 +2993,7 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -2998,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3009,7 +3015,7 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3020,7 +3026,7 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3031,7 +3037,7 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3042,7 +3048,7 @@
         <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3053,7 +3059,7 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3064,7 +3070,7 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3075,7 +3081,7 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3086,7 +3092,7 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3097,7 +3103,7 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3108,7 +3114,7 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3119,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3130,7 +3136,7 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3141,7 +3147,7 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3152,7 +3158,7 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3163,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3174,7 +3180,7 @@
         <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3185,7 +3191,7 @@
         <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3196,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3207,7 +3213,7 @@
         <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3218,7 +3224,7 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3229,7 +3235,7 @@
         <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3240,7 +3246,7 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3251,7 +3257,7 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3262,7 +3268,7 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3270,10 +3276,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3284,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="C243" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3295,7 +3301,7 @@
         <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3306,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3317,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3328,7 +3334,7 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3339,7 +3345,7 @@
         <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3350,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3361,7 +3367,7 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3372,7 +3378,7 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3383,7 +3389,7 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3394,7 +3400,7 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3405,7 +3411,7 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3416,7 +3422,7 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3427,7 +3433,7 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3438,7 +3444,7 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3449,7 +3455,7 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3460,7 +3466,7 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3471,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3482,7 +3488,7 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3493,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3504,7 +3510,7 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3515,7 +3521,7 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3526,7 +3532,7 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3537,7 +3543,7 @@
         <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3548,7 +3554,7 @@
         <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3559,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3570,7 +3576,7 @@
         <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3581,7 +3587,7 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3592,7 +3598,7 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3603,7 +3609,7 @@
         <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3614,7 +3620,7 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3625,7 +3631,7 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3636,7 +3642,7 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3644,10 +3650,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3658,7 +3664,7 @@
         <v>10</v>
       </c>
       <c r="C277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3669,7 +3675,7 @@
         <v>10</v>
       </c>
       <c r="C278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3680,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3691,7 +3697,7 @@
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3702,7 +3708,7 @@
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3713,7 +3719,7 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3724,7 +3730,7 @@
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3735,7 +3741,7 @@
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3746,7 +3752,7 @@
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3757,7 +3763,7 @@
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3768,7 +3774,7 @@
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3779,7 +3785,7 @@
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3790,7 +3796,7 @@
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3801,7 +3807,7 @@
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3812,7 +3818,7 @@
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3823,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3834,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3845,7 +3851,7 @@
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3856,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3867,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3878,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3889,7 +3895,7 @@
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3900,7 +3906,7 @@
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3911,7 +3917,7 @@
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3922,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3933,7 +3939,7 @@
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3955,7 +3961,7 @@
         <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3966,7 +3972,7 @@
         <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3977,7 +3983,7 @@
         <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3988,7 +3994,7 @@
         <v>10</v>
       </c>
       <c r="C307" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -3999,7 +4005,7 @@
         <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4010,7 +4016,7 @@
         <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4021,7 +4027,7 @@
         <v>10</v>
       </c>
       <c r="C310" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4029,10 +4035,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4043,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="C312" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4054,7 +4060,7 @@
         <v>11</v>
       </c>
       <c r="C313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4065,7 +4071,7 @@
         <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4076,7 +4082,7 @@
         <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4087,7 +4093,7 @@
         <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4098,7 +4104,7 @@
         <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4109,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4120,7 +4126,7 @@
         <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4131,7 +4137,7 @@
         <v>11</v>
       </c>
       <c r="C320" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4142,7 +4148,7 @@
         <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4153,7 +4159,7 @@
         <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4164,7 +4170,7 @@
         <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4175,7 +4181,7 @@
         <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4186,7 +4192,7 @@
         <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4197,7 +4203,7 @@
         <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4208,7 +4214,7 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4219,7 +4225,7 @@
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4230,7 +4236,7 @@
         <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4241,7 +4247,7 @@
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4252,7 +4258,7 @@
         <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4263,7 +4269,7 @@
         <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4274,7 +4280,7 @@
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4285,7 +4291,7 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4296,7 +4302,7 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4307,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4318,7 +4324,7 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4329,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4340,7 +4346,7 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4351,7 +4357,7 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4362,7 +4368,7 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4373,7 +4379,7 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4384,7 +4390,7 @@
         <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4395,7 +4401,7 @@
         <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4403,10 +4409,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C345" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4417,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4428,7 +4434,7 @@
         <v>12</v>
       </c>
       <c r="C347" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4439,7 +4445,7 @@
         <v>12</v>
       </c>
       <c r="C348" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4450,7 +4456,7 @@
         <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4461,7 +4467,7 @@
         <v>12</v>
       </c>
       <c r="C350" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4472,7 +4478,7 @@
         <v>12</v>
       </c>
       <c r="C351" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4483,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4494,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4505,7 +4511,7 @@
         <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4516,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4527,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="C356" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4538,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4549,7 +4555,7 @@
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4560,7 +4566,7 @@
         <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4571,7 +4577,7 @@
         <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4582,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4593,7 +4599,7 @@
         <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4604,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4615,7 +4621,7 @@
         <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4626,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4637,7 +4643,7 @@
         <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4648,7 +4654,7 @@
         <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4659,7 +4665,7 @@
         <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4670,7 +4676,7 @@
         <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4681,7 +4687,7 @@
         <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4692,7 +4698,7 @@
         <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4703,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4714,7 +4720,7 @@
         <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4725,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4736,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4747,7 +4753,7 @@
         <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4758,7 +4764,7 @@
         <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4769,7 +4775,7 @@
         <v>12</v>
       </c>
       <c r="C378" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4777,10 +4783,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4791,7 +4797,7 @@
         <v>13</v>
       </c>
       <c r="C380" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4802,7 +4808,7 @@
         <v>13</v>
       </c>
       <c r="C381" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4813,7 +4819,7 @@
         <v>13</v>
       </c>
       <c r="C382" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4824,7 +4830,7 @@
         <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4835,7 +4841,7 @@
         <v>13</v>
       </c>
       <c r="C384" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4846,7 +4852,7 @@
         <v>13</v>
       </c>
       <c r="C385" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4857,7 +4863,7 @@
         <v>13</v>
       </c>
       <c r="C386" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4868,7 +4874,7 @@
         <v>13</v>
       </c>
       <c r="C387" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4879,7 +4885,7 @@
         <v>13</v>
       </c>
       <c r="C388" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4890,7 +4896,7 @@
         <v>13</v>
       </c>
       <c r="C389" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4901,7 +4907,7 @@
         <v>13</v>
       </c>
       <c r="C390" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4912,7 +4918,7 @@
         <v>13</v>
       </c>
       <c r="C391" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4923,7 +4929,7 @@
         <v>13</v>
       </c>
       <c r="C392" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4934,7 +4940,7 @@
         <v>13</v>
       </c>
       <c r="C393" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4945,7 +4951,7 @@
         <v>13</v>
       </c>
       <c r="C394" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4956,7 +4962,7 @@
         <v>13</v>
       </c>
       <c r="C395" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4967,7 +4973,7 @@
         <v>13</v>
       </c>
       <c r="C396" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4978,7 +4984,7 @@
         <v>13</v>
       </c>
       <c r="C397" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4989,7 +4995,7 @@
         <v>13</v>
       </c>
       <c r="C398" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -5000,7 +5006,7 @@
         <v>13</v>
       </c>
       <c r="C399" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -5011,7 +5017,7 @@
         <v>13</v>
       </c>
       <c r="C400" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5022,7 +5028,7 @@
         <v>13</v>
       </c>
       <c r="C401" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5033,7 +5039,7 @@
         <v>13</v>
       </c>
       <c r="C402" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5044,7 +5050,7 @@
         <v>13</v>
       </c>
       <c r="C403" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5055,7 +5061,7 @@
         <v>13</v>
       </c>
       <c r="C404" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5066,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="C405" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5077,7 +5083,7 @@
         <v>13</v>
       </c>
       <c r="C406" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5088,7 +5094,7 @@
         <v>13</v>
       </c>
       <c r="C407" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5099,7 +5105,7 @@
         <v>13</v>
       </c>
       <c r="C408" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5110,7 +5116,7 @@
         <v>13</v>
       </c>
       <c r="C409" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5121,7 +5127,7 @@
         <v>13</v>
       </c>
       <c r="C410" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5132,7 +5138,7 @@
         <v>13</v>
       </c>
       <c r="C411" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5143,7 +5149,7 @@
         <v>13</v>
       </c>
       <c r="C412" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5151,10 +5157,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C413" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5165,7 +5171,7 @@
         <v>14</v>
       </c>
       <c r="C414" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5176,7 +5182,7 @@
         <v>14</v>
       </c>
       <c r="C415" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5187,7 +5193,7 @@
         <v>14</v>
       </c>
       <c r="C416" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5198,7 +5204,7 @@
         <v>14</v>
       </c>
       <c r="C417" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5209,7 +5215,7 @@
         <v>14</v>
       </c>
       <c r="C418" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5220,7 +5226,7 @@
         <v>14</v>
       </c>
       <c r="C419" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5231,7 +5237,7 @@
         <v>14</v>
       </c>
       <c r="C420" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5242,7 +5248,7 @@
         <v>14</v>
       </c>
       <c r="C421" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5253,7 +5259,7 @@
         <v>14</v>
       </c>
       <c r="C422" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5264,7 +5270,7 @@
         <v>14</v>
       </c>
       <c r="C423" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5275,7 +5281,7 @@
         <v>14</v>
       </c>
       <c r="C424" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5286,7 +5292,7 @@
         <v>14</v>
       </c>
       <c r="C425" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5297,7 +5303,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5308,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="C427" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5319,7 +5325,7 @@
         <v>14</v>
       </c>
       <c r="C428" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5330,7 +5336,7 @@
         <v>14</v>
       </c>
       <c r="C429" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5341,7 +5347,7 @@
         <v>14</v>
       </c>
       <c r="C430" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5352,7 +5358,7 @@
         <v>14</v>
       </c>
       <c r="C431" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5363,7 +5369,7 @@
         <v>14</v>
       </c>
       <c r="C432" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5374,7 +5380,7 @@
         <v>14</v>
       </c>
       <c r="C433" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5385,7 +5391,7 @@
         <v>14</v>
       </c>
       <c r="C434" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5396,7 +5402,7 @@
         <v>14</v>
       </c>
       <c r="C435" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5407,7 +5413,7 @@
         <v>14</v>
       </c>
       <c r="C436" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5418,7 +5424,7 @@
         <v>14</v>
       </c>
       <c r="C437" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5429,7 +5435,7 @@
         <v>14</v>
       </c>
       <c r="C438" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5440,7 +5446,7 @@
         <v>14</v>
       </c>
       <c r="C439" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5451,7 +5457,7 @@
         <v>14</v>
       </c>
       <c r="C440" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5462,7 +5468,7 @@
         <v>14</v>
       </c>
       <c r="C441" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5473,7 +5479,7 @@
         <v>14</v>
       </c>
       <c r="C442" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5484,7 +5490,7 @@
         <v>14</v>
       </c>
       <c r="C443" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5495,7 +5501,7 @@
         <v>14</v>
       </c>
       <c r="C444" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5506,7 +5512,7 @@
         <v>14</v>
       </c>
       <c r="C445" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5517,7 +5523,7 @@
         <v>14</v>
       </c>
       <c r="C446" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5525,10 +5531,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C447" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5539,7 +5545,7 @@
         <v>15</v>
       </c>
       <c r="C448" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5550,7 +5556,7 @@
         <v>15</v>
       </c>
       <c r="C449" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5561,7 +5567,7 @@
         <v>15</v>
       </c>
       <c r="C450" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5572,7 +5578,7 @@
         <v>15</v>
       </c>
       <c r="C451" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5583,7 +5589,7 @@
         <v>15</v>
       </c>
       <c r="C452" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5594,7 +5600,7 @@
         <v>15</v>
       </c>
       <c r="C453" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5605,7 +5611,7 @@
         <v>15</v>
       </c>
       <c r="C454" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5616,7 +5622,7 @@
         <v>15</v>
       </c>
       <c r="C455" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5627,7 +5633,7 @@
         <v>15</v>
       </c>
       <c r="C456" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5638,7 +5644,7 @@
         <v>15</v>
       </c>
       <c r="C457" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5649,7 +5655,7 @@
         <v>15</v>
       </c>
       <c r="C458" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5660,7 +5666,7 @@
         <v>15</v>
       </c>
       <c r="C459" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5671,7 +5677,7 @@
         <v>15</v>
       </c>
       <c r="C460" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5682,7 +5688,7 @@
         <v>15</v>
       </c>
       <c r="C461" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5693,7 +5699,7 @@
         <v>15</v>
       </c>
       <c r="C462" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5704,7 +5710,7 @@
         <v>15</v>
       </c>
       <c r="C463" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5715,7 +5721,7 @@
         <v>15</v>
       </c>
       <c r="C464" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5726,7 +5732,7 @@
         <v>15</v>
       </c>
       <c r="C465" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5737,7 +5743,7 @@
         <v>15</v>
       </c>
       <c r="C466" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5748,7 +5754,7 @@
         <v>15</v>
       </c>
       <c r="C467" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5759,7 +5765,7 @@
         <v>15</v>
       </c>
       <c r="C468" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5770,7 +5776,7 @@
         <v>15</v>
       </c>
       <c r="C469" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5781,7 +5787,7 @@
         <v>15</v>
       </c>
       <c r="C470" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5792,7 +5798,7 @@
         <v>15</v>
       </c>
       <c r="C471" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5803,7 +5809,7 @@
         <v>15</v>
       </c>
       <c r="C472" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5814,7 +5820,7 @@
         <v>15</v>
       </c>
       <c r="C473" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5825,7 +5831,7 @@
         <v>15</v>
       </c>
       <c r="C474" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5836,7 +5842,7 @@
         <v>15</v>
       </c>
       <c r="C475" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5847,7 +5853,7 @@
         <v>15</v>
       </c>
       <c r="C476" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5858,7 +5864,7 @@
         <v>15</v>
       </c>
       <c r="C477" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5869,7 +5875,7 @@
         <v>15</v>
       </c>
       <c r="C478" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5880,7 +5886,7 @@
         <v>15</v>
       </c>
       <c r="C479" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5891,7 +5897,7 @@
         <v>15</v>
       </c>
       <c r="C480" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5899,10 +5905,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C481" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5913,7 +5919,7 @@
         <v>16</v>
       </c>
       <c r="C482" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5924,7 +5930,7 @@
         <v>16</v>
       </c>
       <c r="C483" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5935,7 +5941,7 @@
         <v>16</v>
       </c>
       <c r="C484" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5946,7 +5952,7 @@
         <v>16</v>
       </c>
       <c r="C485" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5957,7 +5963,7 @@
         <v>16</v>
       </c>
       <c r="C486" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5968,7 +5974,7 @@
         <v>16</v>
       </c>
       <c r="C487" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5979,7 +5985,7 @@
         <v>16</v>
       </c>
       <c r="C488" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5990,7 +5996,7 @@
         <v>16</v>
       </c>
       <c r="C489" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -6001,7 +6007,7 @@
         <v>16</v>
       </c>
       <c r="C490" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -6012,7 +6018,7 @@
         <v>16</v>
       </c>
       <c r="C491" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6023,7 +6029,7 @@
         <v>16</v>
       </c>
       <c r="C492" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6034,7 +6040,7 @@
         <v>16</v>
       </c>
       <c r="C493" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6045,7 +6051,7 @@
         <v>16</v>
       </c>
       <c r="C494" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6056,7 +6062,7 @@
         <v>16</v>
       </c>
       <c r="C495" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6067,7 +6073,7 @@
         <v>16</v>
       </c>
       <c r="C496" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6078,7 +6084,7 @@
         <v>16</v>
       </c>
       <c r="C497" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6089,7 +6095,7 @@
         <v>16</v>
       </c>
       <c r="C498" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6100,7 +6106,7 @@
         <v>16</v>
       </c>
       <c r="C499" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6111,7 +6117,7 @@
         <v>16</v>
       </c>
       <c r="C500" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6122,7 +6128,7 @@
         <v>16</v>
       </c>
       <c r="C501" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6133,7 +6139,7 @@
         <v>16</v>
       </c>
       <c r="C502" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6144,7 +6150,7 @@
         <v>16</v>
       </c>
       <c r="C503" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6155,7 +6161,7 @@
         <v>16</v>
       </c>
       <c r="C504" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6166,7 +6172,7 @@
         <v>16</v>
       </c>
       <c r="C505" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6177,7 +6183,7 @@
         <v>16</v>
       </c>
       <c r="C506" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6188,7 +6194,7 @@
         <v>16</v>
       </c>
       <c r="C507" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6199,7 +6205,7 @@
         <v>16</v>
       </c>
       <c r="C508" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6210,7 +6216,7 @@
         <v>16</v>
       </c>
       <c r="C509" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6221,7 +6227,7 @@
         <v>16</v>
       </c>
       <c r="C510" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6232,7 +6238,7 @@
         <v>16</v>
       </c>
       <c r="C511" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6243,7 +6249,7 @@
         <v>16</v>
       </c>
       <c r="C512" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6254,7 +6260,7 @@
         <v>16</v>
       </c>
       <c r="C513" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6265,7 +6271,7 @@
         <v>16</v>
       </c>
       <c r="C514" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6273,10 +6279,10 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C515" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6287,7 +6293,7 @@
         <v>17</v>
       </c>
       <c r="C516" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6298,7 +6304,7 @@
         <v>17</v>
       </c>
       <c r="C517" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6309,7 +6315,7 @@
         <v>17</v>
       </c>
       <c r="C518" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6320,7 +6326,7 @@
         <v>17</v>
       </c>
       <c r="C519" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6331,7 +6337,7 @@
         <v>17</v>
       </c>
       <c r="C520" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6342,7 +6348,7 @@
         <v>17</v>
       </c>
       <c r="C521" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6353,7 +6359,7 @@
         <v>17</v>
       </c>
       <c r="C522" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6364,7 +6370,7 @@
         <v>17</v>
       </c>
       <c r="C523" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6375,7 +6381,7 @@
         <v>17</v>
       </c>
       <c r="C524" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6386,7 +6392,7 @@
         <v>17</v>
       </c>
       <c r="C525" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6397,7 +6403,7 @@
         <v>17</v>
       </c>
       <c r="C526" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6408,7 +6414,7 @@
         <v>17</v>
       </c>
       <c r="C527" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6419,7 +6425,7 @@
         <v>17</v>
       </c>
       <c r="C528" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6430,7 +6436,7 @@
         <v>17</v>
       </c>
       <c r="C529" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6441,7 +6447,7 @@
         <v>17</v>
       </c>
       <c r="C530" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6452,7 +6458,7 @@
         <v>17</v>
       </c>
       <c r="C531" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6463,7 +6469,7 @@
         <v>17</v>
       </c>
       <c r="C532" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6474,7 +6480,7 @@
         <v>17</v>
       </c>
       <c r="C533" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6485,7 +6491,7 @@
         <v>17</v>
       </c>
       <c r="C534" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6496,7 +6502,7 @@
         <v>17</v>
       </c>
       <c r="C535" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6507,7 +6513,7 @@
         <v>17</v>
       </c>
       <c r="C536" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6518,7 +6524,7 @@
         <v>17</v>
       </c>
       <c r="C537" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6529,7 +6535,7 @@
         <v>17</v>
       </c>
       <c r="C538" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6540,7 +6546,7 @@
         <v>17</v>
       </c>
       <c r="C539" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6551,7 +6557,7 @@
         <v>17</v>
       </c>
       <c r="C540" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6562,7 +6568,7 @@
         <v>17</v>
       </c>
       <c r="C541" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6573,7 +6579,7 @@
         <v>17</v>
       </c>
       <c r="C542" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6584,7 +6590,7 @@
         <v>17</v>
       </c>
       <c r="C543" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6595,7 +6601,7 @@
         <v>17</v>
       </c>
       <c r="C544" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6606,7 +6612,7 @@
         <v>17</v>
       </c>
       <c r="C545" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6617,7 +6623,7 @@
         <v>17</v>
       </c>
       <c r="C546" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6628,7 +6634,7 @@
         <v>17</v>
       </c>
       <c r="C547" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6639,7 +6645,7 @@
         <v>17</v>
       </c>
       <c r="C548" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6647,10 +6653,10 @@
         <v>547</v>
       </c>
       <c r="B549" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C549" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6661,7 +6667,7 @@
         <v>18</v>
       </c>
       <c r="C550" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6672,7 +6678,7 @@
         <v>18</v>
       </c>
       <c r="C551" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6683,7 +6689,7 @@
         <v>18</v>
       </c>
       <c r="C552" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6694,7 +6700,7 @@
         <v>18</v>
       </c>
       <c r="C553" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6705,7 +6711,7 @@
         <v>18</v>
       </c>
       <c r="C554" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6716,7 +6722,7 @@
         <v>18</v>
       </c>
       <c r="C555" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6727,7 +6733,7 @@
         <v>18</v>
       </c>
       <c r="C556" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6738,7 +6744,7 @@
         <v>18</v>
       </c>
       <c r="C557" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6749,7 +6755,7 @@
         <v>18</v>
       </c>
       <c r="C558" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6760,7 +6766,7 @@
         <v>18</v>
       </c>
       <c r="C559" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6771,7 +6777,7 @@
         <v>18</v>
       </c>
       <c r="C560" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6782,7 +6788,7 @@
         <v>18</v>
       </c>
       <c r="C561" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6793,7 +6799,7 @@
         <v>18</v>
       </c>
       <c r="C562" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6804,7 +6810,7 @@
         <v>18</v>
       </c>
       <c r="C563" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6815,7 +6821,7 @@
         <v>18</v>
       </c>
       <c r="C564" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6826,7 +6832,7 @@
         <v>18</v>
       </c>
       <c r="C565" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6837,7 +6843,7 @@
         <v>18</v>
       </c>
       <c r="C566" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6848,7 +6854,7 @@
         <v>18</v>
       </c>
       <c r="C567" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6859,7 +6865,7 @@
         <v>18</v>
       </c>
       <c r="C568" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6870,7 +6876,7 @@
         <v>18</v>
       </c>
       <c r="C569" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6881,7 +6887,7 @@
         <v>18</v>
       </c>
       <c r="C570" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6892,7 +6898,7 @@
         <v>18</v>
       </c>
       <c r="C571" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6903,7 +6909,7 @@
         <v>18</v>
       </c>
       <c r="C572" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6914,7 +6920,7 @@
         <v>18</v>
       </c>
       <c r="C573" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6925,7 +6931,7 @@
         <v>18</v>
       </c>
       <c r="C574" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6936,7 +6942,7 @@
         <v>18</v>
       </c>
       <c r="C575" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6947,7 +6953,7 @@
         <v>18</v>
       </c>
       <c r="C576" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6958,7 +6964,7 @@
         <v>18</v>
       </c>
       <c r="C577" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6969,7 +6975,7 @@
         <v>18</v>
       </c>
       <c r="C578" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6980,7 +6986,7 @@
         <v>18</v>
       </c>
       <c r="C579" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6991,7 +6997,7 @@
         <v>18</v>
       </c>
       <c r="C580" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -7002,7 +7008,7 @@
         <v>18</v>
       </c>
       <c r="C581" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -7013,7 +7019,7 @@
         <v>18</v>
       </c>
       <c r="C582" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7021,10 +7027,10 @@
         <v>581</v>
       </c>
       <c r="B583" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C583" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7046,7 +7052,7 @@
         <v>19</v>
       </c>
       <c r="C585" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7057,7 +7063,7 @@
         <v>19</v>
       </c>
       <c r="C586" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7068,7 +7074,7 @@
         <v>19</v>
       </c>
       <c r="C587" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7079,7 +7085,7 @@
         <v>19</v>
       </c>
       <c r="C588" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7090,7 +7096,7 @@
         <v>19</v>
       </c>
       <c r="C589" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7101,7 +7107,7 @@
         <v>19</v>
       </c>
       <c r="C590" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7112,7 +7118,7 @@
         <v>19</v>
       </c>
       <c r="C591" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7123,7 +7129,7 @@
         <v>19</v>
       </c>
       <c r="C592" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7134,7 +7140,7 @@
         <v>19</v>
       </c>
       <c r="C593" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7145,7 +7151,7 @@
         <v>19</v>
       </c>
       <c r="C594" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7156,7 +7162,7 @@
         <v>19</v>
       </c>
       <c r="C595" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7167,7 +7173,7 @@
         <v>19</v>
       </c>
       <c r="C596" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7178,7 +7184,7 @@
         <v>19</v>
       </c>
       <c r="C597" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7189,7 +7195,7 @@
         <v>19</v>
       </c>
       <c r="C598" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7200,7 +7206,7 @@
         <v>19</v>
       </c>
       <c r="C599" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7211,7 +7217,7 @@
         <v>19</v>
       </c>
       <c r="C600" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7222,7 +7228,7 @@
         <v>19</v>
       </c>
       <c r="C601" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7233,7 +7239,7 @@
         <v>19</v>
       </c>
       <c r="C602" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7244,7 +7250,7 @@
         <v>19</v>
       </c>
       <c r="C603" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7255,7 +7261,7 @@
         <v>19</v>
       </c>
       <c r="C604" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7266,7 +7272,7 @@
         <v>19</v>
       </c>
       <c r="C605" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7277,7 +7283,7 @@
         <v>19</v>
       </c>
       <c r="C606" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7288,7 +7294,7 @@
         <v>19</v>
       </c>
       <c r="C607" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7299,7 +7305,7 @@
         <v>19</v>
       </c>
       <c r="C608" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7310,7 +7316,7 @@
         <v>19</v>
       </c>
       <c r="C609" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7321,7 +7327,7 @@
         <v>19</v>
       </c>
       <c r="C610" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7332,7 +7338,7 @@
         <v>19</v>
       </c>
       <c r="C611" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7343,7 +7349,7 @@
         <v>19</v>
       </c>
       <c r="C612" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7354,7 +7360,7 @@
         <v>19</v>
       </c>
       <c r="C613" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7365,7 +7371,7 @@
         <v>19</v>
       </c>
       <c r="C614" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7376,7 +7382,7 @@
         <v>19</v>
       </c>
       <c r="C615" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7387,7 +7393,7 @@
         <v>19</v>
       </c>
       <c r="C616" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7398,7 +7404,7 @@
         <v>19</v>
       </c>
       <c r="C617" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7409,7 +7415,7 @@
         <v>19</v>
       </c>
       <c r="C618" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7417,10 +7423,10 @@
         <v>617</v>
       </c>
       <c r="B619" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C619" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7428,10 +7434,10 @@
         <v>618</v>
       </c>
       <c r="B620" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C620" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7439,10 +7445,10 @@
         <v>619</v>
       </c>
       <c r="B621" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C621" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7450,10 +7456,10 @@
         <v>620</v>
       </c>
       <c r="B622" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C622" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7461,10 +7467,10 @@
         <v>621</v>
       </c>
       <c r="B623" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C623" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7475,7 +7481,7 @@
         <v>22</v>
       </c>
       <c r="C624" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7486,7 +7492,7 @@
         <v>22</v>
       </c>
       <c r="C625" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7497,7 +7503,7 @@
         <v>22</v>
       </c>
       <c r="C626" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7508,7 +7514,7 @@
         <v>22</v>
       </c>
       <c r="C627" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7519,7 +7525,7 @@
         <v>22</v>
       </c>
       <c r="C628" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7530,7 +7536,7 @@
         <v>22</v>
       </c>
       <c r="C629" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7541,7 +7547,7 @@
         <v>22</v>
       </c>
       <c r="C630" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7552,7 +7558,7 @@
         <v>22</v>
       </c>
       <c r="C631" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7563,7 +7569,7 @@
         <v>22</v>
       </c>
       <c r="C632" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7574,7 +7580,7 @@
         <v>22</v>
       </c>
       <c r="C633" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7585,7 +7591,7 @@
         <v>22</v>
       </c>
       <c r="C634" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7596,7 +7602,7 @@
         <v>22</v>
       </c>
       <c r="C635" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7607,7 +7613,7 @@
         <v>22</v>
       </c>
       <c r="C636" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7618,7 +7624,7 @@
         <v>22</v>
       </c>
       <c r="C637" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7629,7 +7635,7 @@
         <v>22</v>
       </c>
       <c r="C638" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7640,7 +7646,7 @@
         <v>22</v>
       </c>
       <c r="C639" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7651,7 +7657,7 @@
         <v>22</v>
       </c>
       <c r="C640" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7662,7 +7668,7 @@
         <v>22</v>
       </c>
       <c r="C641" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7673,7 +7679,7 @@
         <v>22</v>
       </c>
       <c r="C642" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7684,7 +7690,7 @@
         <v>22</v>
       </c>
       <c r="C643" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7695,7 +7701,7 @@
         <v>22</v>
       </c>
       <c r="C644" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7706,7 +7712,7 @@
         <v>22</v>
       </c>
       <c r="C645" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7717,7 +7723,7 @@
         <v>22</v>
       </c>
       <c r="C646" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7728,7 +7734,7 @@
         <v>22</v>
       </c>
       <c r="C647" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7739,7 +7745,7 @@
         <v>22</v>
       </c>
       <c r="C648" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7750,7 +7756,7 @@
         <v>22</v>
       </c>
       <c r="C649" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7761,7 +7767,7 @@
         <v>22</v>
       </c>
       <c r="C650" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7772,7 +7778,7 @@
         <v>22</v>
       </c>
       <c r="C651" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7783,7 +7789,7 @@
         <v>22</v>
       </c>
       <c r="C652" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7794,7 +7800,7 @@
         <v>22</v>
       </c>
       <c r="C653" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7805,7 +7811,7 @@
         <v>22</v>
       </c>
       <c r="C654" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7813,10 +7819,10 @@
         <v>653</v>
       </c>
       <c r="B655" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C655" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7824,10 +7830,10 @@
         <v>654</v>
       </c>
       <c r="B656" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C656" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7835,10 +7841,10 @@
         <v>655</v>
       </c>
       <c r="B657" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C657" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7849,7 +7855,7 @@
         <v>23</v>
       </c>
       <c r="C658" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7860,7 +7866,7 @@
         <v>23</v>
       </c>
       <c r="C659" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7871,7 +7877,7 @@
         <v>23</v>
       </c>
       <c r="C660" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7882,7 +7888,7 @@
         <v>23</v>
       </c>
       <c r="C661" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7893,7 +7899,7 @@
         <v>23</v>
       </c>
       <c r="C662" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7904,7 +7910,7 @@
         <v>23</v>
       </c>
       <c r="C663" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7915,7 +7921,7 @@
         <v>23</v>
       </c>
       <c r="C664" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7926,7 +7932,7 @@
         <v>23</v>
       </c>
       <c r="C665" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7937,7 +7943,7 @@
         <v>23</v>
       </c>
       <c r="C666" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7948,7 +7954,7 @@
         <v>23</v>
       </c>
       <c r="C667" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7959,7 +7965,7 @@
         <v>23</v>
       </c>
       <c r="C668" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7970,7 +7976,7 @@
         <v>23</v>
       </c>
       <c r="C669" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7981,7 +7987,7 @@
         <v>23</v>
       </c>
       <c r="C670" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7992,7 +7998,7 @@
         <v>23</v>
       </c>
       <c r="C671" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -8003,7 +8009,7 @@
         <v>23</v>
       </c>
       <c r="C672" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -8014,7 +8020,7 @@
         <v>23</v>
       </c>
       <c r="C673" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8025,7 +8031,7 @@
         <v>23</v>
       </c>
       <c r="C674" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8036,7 +8042,7 @@
         <v>23</v>
       </c>
       <c r="C675" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8047,7 +8053,7 @@
         <v>23</v>
       </c>
       <c r="C676" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8058,7 +8064,7 @@
         <v>23</v>
       </c>
       <c r="C677" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8069,7 +8075,7 @@
         <v>23</v>
       </c>
       <c r="C678" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8080,7 +8086,7 @@
         <v>23</v>
       </c>
       <c r="C679" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8091,7 +8097,7 @@
         <v>23</v>
       </c>
       <c r="C680" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8102,7 +8108,7 @@
         <v>23</v>
       </c>
       <c r="C681" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8113,7 +8119,7 @@
         <v>23</v>
       </c>
       <c r="C682" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8124,7 +8130,7 @@
         <v>23</v>
       </c>
       <c r="C683" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8135,7 +8141,7 @@
         <v>23</v>
       </c>
       <c r="C684" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8146,7 +8152,7 @@
         <v>23</v>
       </c>
       <c r="C685" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8157,7 +8163,7 @@
         <v>23</v>
       </c>
       <c r="C686" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8168,7 +8174,7 @@
         <v>23</v>
       </c>
       <c r="C687" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8179,7 +8185,7 @@
         <v>23</v>
       </c>
       <c r="C688" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8187,10 +8193,10 @@
         <v>687</v>
       </c>
       <c r="B689" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C689" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8198,10 +8204,10 @@
         <v>688</v>
       </c>
       <c r="B690" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C690" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8209,10 +8215,10 @@
         <v>689</v>
       </c>
       <c r="B691" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C691" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8223,7 +8229,7 @@
         <v>24</v>
       </c>
       <c r="C692" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8234,7 +8240,7 @@
         <v>24</v>
       </c>
       <c r="C693" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8245,7 +8251,7 @@
         <v>24</v>
       </c>
       <c r="C694" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8256,7 +8262,7 @@
         <v>24</v>
       </c>
       <c r="C695" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8267,7 +8273,7 @@
         <v>24</v>
       </c>
       <c r="C696" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8278,7 +8284,7 @@
         <v>24</v>
       </c>
       <c r="C697" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8289,7 +8295,7 @@
         <v>24</v>
       </c>
       <c r="C698" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8300,7 +8306,7 @@
         <v>24</v>
       </c>
       <c r="C699" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8311,7 +8317,7 @@
         <v>24</v>
       </c>
       <c r="C700" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8322,7 +8328,7 @@
         <v>24</v>
       </c>
       <c r="C701" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8333,7 +8339,7 @@
         <v>24</v>
       </c>
       <c r="C702" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8344,7 +8350,7 @@
         <v>24</v>
       </c>
       <c r="C703" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8355,7 +8361,7 @@
         <v>24</v>
       </c>
       <c r="C704" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8366,7 +8372,7 @@
         <v>24</v>
       </c>
       <c r="C705" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8377,7 +8383,7 @@
         <v>24</v>
       </c>
       <c r="C706" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8388,7 +8394,7 @@
         <v>24</v>
       </c>
       <c r="C707" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8399,7 +8405,7 @@
         <v>24</v>
       </c>
       <c r="C708" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8410,7 +8416,7 @@
         <v>24</v>
       </c>
       <c r="C709" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8421,7 +8427,7 @@
         <v>24</v>
       </c>
       <c r="C710" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8432,7 +8438,7 @@
         <v>24</v>
       </c>
       <c r="C711" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8443,7 +8449,7 @@
         <v>24</v>
       </c>
       <c r="C712" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8454,7 +8460,7 @@
         <v>24</v>
       </c>
       <c r="C713" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8465,7 +8471,7 @@
         <v>24</v>
       </c>
       <c r="C714" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8476,7 +8482,7 @@
         <v>24</v>
       </c>
       <c r="C715" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8487,7 +8493,7 @@
         <v>24</v>
       </c>
       <c r="C716" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8498,7 +8504,7 @@
         <v>24</v>
       </c>
       <c r="C717" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8509,7 +8515,7 @@
         <v>24</v>
       </c>
       <c r="C718" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8520,7 +8526,7 @@
         <v>24</v>
       </c>
       <c r="C719" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8531,7 +8537,7 @@
         <v>24</v>
       </c>
       <c r="C720" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8542,7 +8548,7 @@
         <v>24</v>
       </c>
       <c r="C721" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8553,7 +8559,7 @@
         <v>24</v>
       </c>
       <c r="C722" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8561,10 +8567,10 @@
         <v>721</v>
       </c>
       <c r="B723" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C723" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8572,10 +8578,10 @@
         <v>722</v>
       </c>
       <c r="B724" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C724" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8583,10 +8589,10 @@
         <v>723</v>
       </c>
       <c r="B725" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C725" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8597,7 +8603,7 @@
         <v>25</v>
       </c>
       <c r="C726" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8608,7 +8614,7 @@
         <v>25</v>
       </c>
       <c r="C727" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8619,7 +8625,7 @@
         <v>25</v>
       </c>
       <c r="C728" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8630,7 +8636,7 @@
         <v>25</v>
       </c>
       <c r="C729" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8641,7 +8647,7 @@
         <v>25</v>
       </c>
       <c r="C730" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8652,7 +8658,7 @@
         <v>25</v>
       </c>
       <c r="C731" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8663,7 +8669,7 @@
         <v>25</v>
       </c>
       <c r="C732" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8674,7 +8680,7 @@
         <v>25</v>
       </c>
       <c r="C733" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8685,7 +8691,7 @@
         <v>25</v>
       </c>
       <c r="C734" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8696,7 +8702,7 @@
         <v>25</v>
       </c>
       <c r="C735" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8707,7 +8713,7 @@
         <v>25</v>
       </c>
       <c r="C736" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8718,7 +8724,7 @@
         <v>25</v>
       </c>
       <c r="C737" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8729,7 +8735,7 @@
         <v>25</v>
       </c>
       <c r="C738" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8740,7 +8746,7 @@
         <v>25</v>
       </c>
       <c r="C739" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8751,7 +8757,7 @@
         <v>25</v>
       </c>
       <c r="C740" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8762,7 +8768,7 @@
         <v>25</v>
       </c>
       <c r="C741" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8773,7 +8779,7 @@
         <v>25</v>
       </c>
       <c r="C742" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8784,7 +8790,7 @@
         <v>25</v>
       </c>
       <c r="C743" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8795,7 +8801,7 @@
         <v>25</v>
       </c>
       <c r="C744" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8806,7 +8812,7 @@
         <v>25</v>
       </c>
       <c r="C745" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8817,7 +8823,7 @@
         <v>25</v>
       </c>
       <c r="C746" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8828,7 +8834,7 @@
         <v>25</v>
       </c>
       <c r="C747" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8839,7 +8845,7 @@
         <v>25</v>
       </c>
       <c r="C748" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8850,7 +8856,7 @@
         <v>25</v>
       </c>
       <c r="C749" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8861,7 +8867,7 @@
         <v>25</v>
       </c>
       <c r="C750" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8872,7 +8878,7 @@
         <v>25</v>
       </c>
       <c r="C751" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8883,7 +8889,7 @@
         <v>25</v>
       </c>
       <c r="C752" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8894,7 +8900,7 @@
         <v>25</v>
       </c>
       <c r="C753" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8905,7 +8911,7 @@
         <v>25</v>
       </c>
       <c r="C754" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8916,7 +8922,7 @@
         <v>25</v>
       </c>
       <c r="C755" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8927,7 +8933,7 @@
         <v>25</v>
       </c>
       <c r="C756" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8935,10 +8941,10 @@
         <v>755</v>
       </c>
       <c r="B757" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C757" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8946,10 +8952,10 @@
         <v>756</v>
       </c>
       <c r="B758" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C758" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8957,10 +8963,10 @@
         <v>757</v>
       </c>
       <c r="B759" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C759" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8968,10 +8974,10 @@
         <v>758</v>
       </c>
       <c r="B760" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C760" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8979,10 +8985,10 @@
         <v>759</v>
       </c>
       <c r="B761" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C761" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8990,10 +8996,10 @@
         <v>760</v>
       </c>
       <c r="B762" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C762" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -9004,7 +9010,7 @@
         <v>28</v>
       </c>
       <c r="C763" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -9015,7 +9021,7 @@
         <v>28</v>
       </c>
       <c r="C764" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9026,7 +9032,7 @@
         <v>28</v>
       </c>
       <c r="C765" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9037,7 +9043,7 @@
         <v>28</v>
       </c>
       <c r="C766" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9048,7 +9054,7 @@
         <v>28</v>
       </c>
       <c r="C767" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9059,7 +9065,7 @@
         <v>28</v>
       </c>
       <c r="C768" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9070,7 +9076,7 @@
         <v>28</v>
       </c>
       <c r="C769" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9081,7 +9087,7 @@
         <v>28</v>
       </c>
       <c r="C770" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9092,7 +9098,7 @@
         <v>28</v>
       </c>
       <c r="C771" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9103,7 +9109,7 @@
         <v>28</v>
       </c>
       <c r="C772" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9114,7 +9120,7 @@
         <v>28</v>
       </c>
       <c r="C773" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9125,7 +9131,7 @@
         <v>28</v>
       </c>
       <c r="C774" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9136,7 +9142,7 @@
         <v>28</v>
       </c>
       <c r="C775" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9147,7 +9153,7 @@
         <v>28</v>
       </c>
       <c r="C776" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9158,7 +9164,7 @@
         <v>28</v>
       </c>
       <c r="C777" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9169,7 +9175,7 @@
         <v>28</v>
       </c>
       <c r="C778" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9180,7 +9186,7 @@
         <v>28</v>
       </c>
       <c r="C779" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9191,7 +9197,7 @@
         <v>28</v>
       </c>
       <c r="C780" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9202,7 +9208,7 @@
         <v>28</v>
       </c>
       <c r="C781" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9213,7 +9219,7 @@
         <v>28</v>
       </c>
       <c r="C782" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9224,7 +9230,7 @@
         <v>28</v>
       </c>
       <c r="C783" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9235,7 +9241,7 @@
         <v>28</v>
       </c>
       <c r="C784" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9246,7 +9252,7 @@
         <v>28</v>
       </c>
       <c r="C785" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9257,7 +9263,7 @@
         <v>28</v>
       </c>
       <c r="C786" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9268,7 +9274,7 @@
         <v>28</v>
       </c>
       <c r="C787" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9279,7 +9285,7 @@
         <v>28</v>
       </c>
       <c r="C788" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9290,7 +9296,7 @@
         <v>28</v>
       </c>
       <c r="C789" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9301,7 +9307,7 @@
         <v>28</v>
       </c>
       <c r="C790" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9312,7 +9318,7 @@
         <v>28</v>
       </c>
       <c r="C791" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9323,7 +9329,7 @@
         <v>28</v>
       </c>
       <c r="C792" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9334,7 +9340,7 @@
         <v>28</v>
       </c>
       <c r="C793" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9345,7 +9351,7 @@
         <v>28</v>
       </c>
       <c r="C794" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9356,7 +9362,7 @@
         <v>28</v>
       </c>
       <c r="C795" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9367,7 +9373,7 @@
         <v>28</v>
       </c>
       <c r="C796" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9375,10 +9381,10 @@
         <v>795</v>
       </c>
       <c r="B797" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C797" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9386,10 +9392,10 @@
         <v>796</v>
       </c>
       <c r="B798" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C798" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9397,10 +9403,10 @@
         <v>797</v>
       </c>
       <c r="B799" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C799" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9408,10 +9414,10 @@
         <v>798</v>
       </c>
       <c r="B800" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C800" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9419,10 +9425,10 @@
         <v>799</v>
       </c>
       <c r="B801" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C801" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9430,10 +9436,10 @@
         <v>800</v>
       </c>
       <c r="B802" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C802" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9441,10 +9447,10 @@
         <v>801</v>
       </c>
       <c r="B803" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C803" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9452,10 +9458,10 @@
         <v>802</v>
       </c>
       <c r="B804" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C804" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9463,10 +9469,10 @@
         <v>803</v>
       </c>
       <c r="B805" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C805" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9474,10 +9480,10 @@
         <v>804</v>
       </c>
       <c r="B806" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C806" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9488,7 +9494,7 @@
         <v>33</v>
       </c>
       <c r="C807" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9499,7 +9505,7 @@
         <v>33</v>
       </c>
       <c r="C808" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9510,7 +9516,7 @@
         <v>33</v>
       </c>
       <c r="C809" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9521,7 +9527,7 @@
         <v>33</v>
       </c>
       <c r="C810" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9532,7 +9538,7 @@
         <v>33</v>
       </c>
       <c r="C811" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9543,7 +9549,7 @@
         <v>33</v>
       </c>
       <c r="C812" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9554,7 +9560,7 @@
         <v>33</v>
       </c>
       <c r="C813" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9565,7 +9571,7 @@
         <v>33</v>
       </c>
       <c r="C814" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9576,7 +9582,7 @@
         <v>33</v>
       </c>
       <c r="C815" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9587,7 +9593,7 @@
         <v>33</v>
       </c>
       <c r="C816" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9598,7 +9604,7 @@
         <v>33</v>
       </c>
       <c r="C817" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9609,7 +9615,7 @@
         <v>33</v>
       </c>
       <c r="C818" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9620,7 +9626,7 @@
         <v>33</v>
       </c>
       <c r="C819" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9631,7 +9637,7 @@
         <v>33</v>
       </c>
       <c r="C820" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9642,7 +9648,7 @@
         <v>33</v>
       </c>
       <c r="C821" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9653,7 +9659,7 @@
         <v>33</v>
       </c>
       <c r="C822" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9664,7 +9670,7 @@
         <v>33</v>
       </c>
       <c r="C823" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9675,7 +9681,7 @@
         <v>33</v>
       </c>
       <c r="C824" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9686,7 +9692,7 @@
         <v>33</v>
       </c>
       <c r="C825" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -9697,7 +9703,7 @@
         <v>33</v>
       </c>
       <c r="C826" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9708,7 +9714,7 @@
         <v>33</v>
       </c>
       <c r="C827" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9719,7 +9725,7 @@
         <v>33</v>
       </c>
       <c r="C828" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9730,7 +9736,7 @@
         <v>33</v>
       </c>
       <c r="C829" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9741,6 +9747,50 @@
         <v>33</v>
       </c>
       <c r="C830" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3">
+      <c r="A831" s="1">
+        <v>829</v>
+      </c>
+      <c r="B831" t="s">
+        <v>33</v>
+      </c>
+      <c r="C831" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3">
+      <c r="A832" s="1">
+        <v>830</v>
+      </c>
+      <c r="B832" t="s">
+        <v>33</v>
+      </c>
+      <c r="C832" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3">
+      <c r="A833" s="1">
+        <v>831</v>
+      </c>
+      <c r="B833" t="s">
+        <v>33</v>
+      </c>
+      <c r="C833" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3">
+      <c r="A834" s="1">
+        <v>832</v>
+      </c>
+      <c r="B834" t="s">
+        <v>33</v>
+      </c>
+      <c r="C834" t="s">
         <v>68</v>
       </c>
     </row>

--- a/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="86">
   <si>
     <t>Chromosome</t>
   </si>
@@ -229,6 +229,12 @@
     <t>181558</t>
   </si>
   <si>
+    <t>194161</t>
+  </si>
+  <si>
+    <t>201194</t>
+  </si>
+  <si>
     <t>W25873</t>
   </si>
   <si>
@@ -242,6 +248,12 @@
   </si>
   <si>
     <t>191225</t>
+  </si>
+  <si>
+    <t>191128</t>
+  </si>
+  <si>
+    <t>192478</t>
   </si>
   <si>
     <t>W17068</t>
@@ -617,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C834"/>
+  <dimension ref="A1:C842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2168,7 +2180,7 @@
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2179,7 +2191,7 @@
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2190,7 +2202,7 @@
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2201,7 +2213,7 @@
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2212,7 +2224,7 @@
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2223,7 +2235,7 @@
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2234,7 +2246,7 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2245,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2256,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2267,7 +2279,7 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2278,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2289,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2300,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2311,7 +2323,7 @@
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2322,7 +2334,7 @@
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2333,7 +2345,7 @@
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2344,7 +2356,7 @@
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2355,7 +2367,7 @@
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2366,7 +2378,7 @@
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2377,7 +2389,7 @@
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2388,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2399,7 +2411,7 @@
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2410,7 +2422,7 @@
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2421,7 +2433,7 @@
         <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2432,7 +2444,7 @@
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2443,7 +2455,7 @@
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2454,7 +2466,7 @@
         <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2465,7 +2477,7 @@
         <v>6</v>
       </c>
       <c r="C168" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2476,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="C169" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2487,7 +2499,7 @@
         <v>6</v>
       </c>
       <c r="C170" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2498,7 +2510,7 @@
         <v>6</v>
       </c>
       <c r="C171" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2509,7 +2521,7 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2520,7 +2532,7 @@
         <v>6</v>
       </c>
       <c r="C173" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2531,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="C174" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2539,10 +2551,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2550,10 +2562,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2564,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2575,7 +2587,7 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2586,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2597,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2608,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2619,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2630,7 +2642,7 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2641,7 +2653,7 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2652,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2663,7 +2675,7 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2674,7 +2686,7 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2685,7 +2697,7 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2696,7 +2708,7 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2707,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2718,7 +2730,7 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2729,7 +2741,7 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2740,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2751,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2762,7 +2774,7 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2773,7 +2785,7 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2784,7 +2796,7 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2795,7 +2807,7 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2806,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2817,7 +2829,7 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2828,7 +2840,7 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2839,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2850,7 +2862,7 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2861,7 +2873,7 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2872,7 +2884,7 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2883,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2894,7 +2906,7 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2905,7 +2917,7 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2913,10 +2925,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2924,10 +2936,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2938,7 +2950,7 @@
         <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2949,7 +2961,7 @@
         <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2960,7 +2972,7 @@
         <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2971,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2982,7 +2994,7 @@
         <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2993,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3004,7 +3016,7 @@
         <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3015,7 +3027,7 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3026,7 +3038,7 @@
         <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3037,7 +3049,7 @@
         <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3048,7 +3060,7 @@
         <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3059,7 +3071,7 @@
         <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3070,7 +3082,7 @@
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3081,7 +3093,7 @@
         <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3092,7 +3104,7 @@
         <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3103,7 +3115,7 @@
         <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3114,7 +3126,7 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3125,7 +3137,7 @@
         <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3136,7 +3148,7 @@
         <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3147,7 +3159,7 @@
         <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3158,7 +3170,7 @@
         <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3169,7 +3181,7 @@
         <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3180,7 +3192,7 @@
         <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3191,7 +3203,7 @@
         <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3202,7 +3214,7 @@
         <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3213,7 +3225,7 @@
         <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3224,7 +3236,7 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3235,7 +3247,7 @@
         <v>8</v>
       </c>
       <c r="C238" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3246,7 +3258,7 @@
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3257,7 +3269,7 @@
         <v>8</v>
       </c>
       <c r="C240" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3268,7 +3280,7 @@
         <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3279,7 +3291,7 @@
         <v>8</v>
       </c>
       <c r="C242" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3287,10 +3299,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3298,10 +3310,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3312,7 +3324,7 @@
         <v>9</v>
       </c>
       <c r="C245" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3323,7 +3335,7 @@
         <v>9</v>
       </c>
       <c r="C246" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3334,7 +3346,7 @@
         <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3345,7 +3357,7 @@
         <v>9</v>
       </c>
       <c r="C248" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3356,7 +3368,7 @@
         <v>9</v>
       </c>
       <c r="C249" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3367,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="C250" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3378,7 +3390,7 @@
         <v>9</v>
       </c>
       <c r="C251" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3389,7 +3401,7 @@
         <v>9</v>
       </c>
       <c r="C252" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3400,7 +3412,7 @@
         <v>9</v>
       </c>
       <c r="C253" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3411,7 +3423,7 @@
         <v>9</v>
       </c>
       <c r="C254" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3422,7 +3434,7 @@
         <v>9</v>
       </c>
       <c r="C255" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3433,7 +3445,7 @@
         <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3444,7 +3456,7 @@
         <v>9</v>
       </c>
       <c r="C257" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3455,7 +3467,7 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3466,7 +3478,7 @@
         <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3477,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="C260" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3488,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="C261" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3499,7 +3511,7 @@
         <v>9</v>
       </c>
       <c r="C262" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3510,7 +3522,7 @@
         <v>9</v>
       </c>
       <c r="C263" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3521,7 +3533,7 @@
         <v>9</v>
       </c>
       <c r="C264" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3532,7 +3544,7 @@
         <v>9</v>
       </c>
       <c r="C265" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3543,7 +3555,7 @@
         <v>9</v>
       </c>
       <c r="C266" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3554,7 +3566,7 @@
         <v>9</v>
       </c>
       <c r="C267" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3565,7 +3577,7 @@
         <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3576,7 +3588,7 @@
         <v>9</v>
       </c>
       <c r="C269" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3587,7 +3599,7 @@
         <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3598,7 +3610,7 @@
         <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3609,7 +3621,7 @@
         <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3620,7 +3632,7 @@
         <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3631,7 +3643,7 @@
         <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3642,7 +3654,7 @@
         <v>9</v>
       </c>
       <c r="C275" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3653,7 +3665,7 @@
         <v>9</v>
       </c>
       <c r="C276" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3661,10 +3673,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3672,10 +3684,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3686,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3697,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3708,7 +3720,7 @@
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3719,7 +3731,7 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3730,7 +3742,7 @@
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3741,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3752,7 +3764,7 @@
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3763,7 +3775,7 @@
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3774,7 +3786,7 @@
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3785,7 +3797,7 @@
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3796,7 +3808,7 @@
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3807,7 +3819,7 @@
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3818,7 +3830,7 @@
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3829,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3840,7 +3852,7 @@
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3851,7 +3863,7 @@
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3862,7 +3874,7 @@
         <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3873,7 +3885,7 @@
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3884,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3895,7 +3907,7 @@
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3906,7 +3918,7 @@
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3917,7 +3929,7 @@
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3928,7 +3940,7 @@
         <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3939,7 +3951,7 @@
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3950,7 +3962,7 @@
         <v>10</v>
       </c>
       <c r="C303" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3961,7 +3973,7 @@
         <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3972,7 +3984,7 @@
         <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3983,7 +3995,7 @@
         <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -3994,7 +4006,7 @@
         <v>10</v>
       </c>
       <c r="C307" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4005,7 +4017,7 @@
         <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4016,7 +4028,7 @@
         <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4027,7 +4039,7 @@
         <v>10</v>
       </c>
       <c r="C310" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4038,7 +4050,7 @@
         <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4046,10 +4058,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C312" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4057,10 +4069,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C313" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4071,7 +4083,7 @@
         <v>11</v>
       </c>
       <c r="C314" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4082,7 +4094,7 @@
         <v>11</v>
       </c>
       <c r="C315" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4093,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="C316" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4104,7 +4116,7 @@
         <v>11</v>
       </c>
       <c r="C317" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4115,7 +4127,7 @@
         <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4126,7 +4138,7 @@
         <v>11</v>
       </c>
       <c r="C319" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4137,7 +4149,7 @@
         <v>11</v>
       </c>
       <c r="C320" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4148,7 +4160,7 @@
         <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4159,7 +4171,7 @@
         <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4170,7 +4182,7 @@
         <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4181,7 +4193,7 @@
         <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4192,7 +4204,7 @@
         <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4203,7 +4215,7 @@
         <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4214,7 +4226,7 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4225,7 +4237,7 @@
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4236,7 +4248,7 @@
         <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4247,7 +4259,7 @@
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4258,7 +4270,7 @@
         <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4269,7 +4281,7 @@
         <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4280,7 +4292,7 @@
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4291,7 +4303,7 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4302,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4313,7 +4325,7 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4324,7 +4336,7 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4335,7 +4347,7 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4346,7 +4358,7 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4357,7 +4369,7 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4368,7 +4380,7 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4379,7 +4391,7 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4390,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4401,7 +4413,7 @@
         <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4412,7 +4424,7 @@
         <v>11</v>
       </c>
       <c r="C345" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4420,10 +4432,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C346" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4431,10 +4443,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4445,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="C348" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4456,7 +4468,7 @@
         <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4467,7 +4479,7 @@
         <v>12</v>
       </c>
       <c r="C350" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4478,7 +4490,7 @@
         <v>12</v>
       </c>
       <c r="C351" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4489,7 +4501,7 @@
         <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4500,7 +4512,7 @@
         <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4511,7 +4523,7 @@
         <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4522,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4533,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="C356" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4544,7 +4556,7 @@
         <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4555,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4566,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4577,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4588,7 +4600,7 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4599,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4610,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4621,7 +4633,7 @@
         <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4632,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4643,7 +4655,7 @@
         <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4654,7 +4666,7 @@
         <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4665,7 +4677,7 @@
         <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4676,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4687,7 +4699,7 @@
         <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4698,7 +4710,7 @@
         <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4709,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4720,7 +4732,7 @@
         <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4731,7 +4743,7 @@
         <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4742,7 +4754,7 @@
         <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4753,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4764,7 +4776,7 @@
         <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4775,7 +4787,7 @@
         <v>12</v>
       </c>
       <c r="C378" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4786,7 +4798,7 @@
         <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4794,10 +4806,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C380" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4805,10 +4817,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C381" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4819,7 +4831,7 @@
         <v>13</v>
       </c>
       <c r="C382" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4830,7 +4842,7 @@
         <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4841,7 +4853,7 @@
         <v>13</v>
       </c>
       <c r="C384" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4852,7 +4864,7 @@
         <v>13</v>
       </c>
       <c r="C385" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4863,7 +4875,7 @@
         <v>13</v>
       </c>
       <c r="C386" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4874,7 +4886,7 @@
         <v>13</v>
       </c>
       <c r="C387" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4885,7 +4897,7 @@
         <v>13</v>
       </c>
       <c r="C388" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4896,7 +4908,7 @@
         <v>13</v>
       </c>
       <c r="C389" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4907,7 +4919,7 @@
         <v>13</v>
       </c>
       <c r="C390" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4918,7 +4930,7 @@
         <v>13</v>
       </c>
       <c r="C391" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4929,7 +4941,7 @@
         <v>13</v>
       </c>
       <c r="C392" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4940,7 +4952,7 @@
         <v>13</v>
       </c>
       <c r="C393" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4951,7 +4963,7 @@
         <v>13</v>
       </c>
       <c r="C394" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4962,7 +4974,7 @@
         <v>13</v>
       </c>
       <c r="C395" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4973,7 +4985,7 @@
         <v>13</v>
       </c>
       <c r="C396" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4984,7 +4996,7 @@
         <v>13</v>
       </c>
       <c r="C397" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -4995,7 +5007,7 @@
         <v>13</v>
       </c>
       <c r="C398" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -5006,7 +5018,7 @@
         <v>13</v>
       </c>
       <c r="C399" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -5017,7 +5029,7 @@
         <v>13</v>
       </c>
       <c r="C400" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5028,7 +5040,7 @@
         <v>13</v>
       </c>
       <c r="C401" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5039,7 +5051,7 @@
         <v>13</v>
       </c>
       <c r="C402" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5050,7 +5062,7 @@
         <v>13</v>
       </c>
       <c r="C403" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5061,7 +5073,7 @@
         <v>13</v>
       </c>
       <c r="C404" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5072,7 +5084,7 @@
         <v>13</v>
       </c>
       <c r="C405" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5083,7 +5095,7 @@
         <v>13</v>
       </c>
       <c r="C406" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5094,7 +5106,7 @@
         <v>13</v>
       </c>
       <c r="C407" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5105,7 +5117,7 @@
         <v>13</v>
       </c>
       <c r="C408" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5116,7 +5128,7 @@
         <v>13</v>
       </c>
       <c r="C409" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5127,7 +5139,7 @@
         <v>13</v>
       </c>
       <c r="C410" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5138,7 +5150,7 @@
         <v>13</v>
       </c>
       <c r="C411" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5149,7 +5161,7 @@
         <v>13</v>
       </c>
       <c r="C412" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5160,7 +5172,7 @@
         <v>13</v>
       </c>
       <c r="C413" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5168,10 +5180,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C414" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5179,10 +5191,10 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C415" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5193,7 +5205,7 @@
         <v>14</v>
       </c>
       <c r="C416" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5204,7 +5216,7 @@
         <v>14</v>
       </c>
       <c r="C417" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5215,7 +5227,7 @@
         <v>14</v>
       </c>
       <c r="C418" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5226,7 +5238,7 @@
         <v>14</v>
       </c>
       <c r="C419" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5237,7 +5249,7 @@
         <v>14</v>
       </c>
       <c r="C420" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5248,7 +5260,7 @@
         <v>14</v>
       </c>
       <c r="C421" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5259,7 +5271,7 @@
         <v>14</v>
       </c>
       <c r="C422" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5270,7 +5282,7 @@
         <v>14</v>
       </c>
       <c r="C423" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5281,7 +5293,7 @@
         <v>14</v>
       </c>
       <c r="C424" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5292,7 +5304,7 @@
         <v>14</v>
       </c>
       <c r="C425" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5303,7 +5315,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5314,7 +5326,7 @@
         <v>14</v>
       </c>
       <c r="C427" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5325,7 +5337,7 @@
         <v>14</v>
       </c>
       <c r="C428" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5336,7 +5348,7 @@
         <v>14</v>
       </c>
       <c r="C429" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5347,7 +5359,7 @@
         <v>14</v>
       </c>
       <c r="C430" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5358,7 +5370,7 @@
         <v>14</v>
       </c>
       <c r="C431" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5369,7 +5381,7 @@
         <v>14</v>
       </c>
       <c r="C432" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5380,7 +5392,7 @@
         <v>14</v>
       </c>
       <c r="C433" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5391,7 +5403,7 @@
         <v>14</v>
       </c>
       <c r="C434" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5402,7 +5414,7 @@
         <v>14</v>
       </c>
       <c r="C435" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5413,7 +5425,7 @@
         <v>14</v>
       </c>
       <c r="C436" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5424,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="C437" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5435,7 +5447,7 @@
         <v>14</v>
       </c>
       <c r="C438" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5446,7 +5458,7 @@
         <v>14</v>
       </c>
       <c r="C439" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5457,7 +5469,7 @@
         <v>14</v>
       </c>
       <c r="C440" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5468,7 +5480,7 @@
         <v>14</v>
       </c>
       <c r="C441" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5479,7 +5491,7 @@
         <v>14</v>
       </c>
       <c r="C442" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5490,7 +5502,7 @@
         <v>14</v>
       </c>
       <c r="C443" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5501,7 +5513,7 @@
         <v>14</v>
       </c>
       <c r="C444" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5512,7 +5524,7 @@
         <v>14</v>
       </c>
       <c r="C445" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5523,7 +5535,7 @@
         <v>14</v>
       </c>
       <c r="C446" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5534,7 +5546,7 @@
         <v>14</v>
       </c>
       <c r="C447" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5542,10 +5554,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C448" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5553,10 +5565,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C449" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5567,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="C450" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5578,7 +5590,7 @@
         <v>15</v>
       </c>
       <c r="C451" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5589,7 +5601,7 @@
         <v>15</v>
       </c>
       <c r="C452" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5600,7 +5612,7 @@
         <v>15</v>
       </c>
       <c r="C453" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5611,7 +5623,7 @@
         <v>15</v>
       </c>
       <c r="C454" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5622,7 +5634,7 @@
         <v>15</v>
       </c>
       <c r="C455" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5633,7 +5645,7 @@
         <v>15</v>
       </c>
       <c r="C456" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5644,7 +5656,7 @@
         <v>15</v>
       </c>
       <c r="C457" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5655,7 +5667,7 @@
         <v>15</v>
       </c>
       <c r="C458" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5666,7 +5678,7 @@
         <v>15</v>
       </c>
       <c r="C459" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5677,7 +5689,7 @@
         <v>15</v>
       </c>
       <c r="C460" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5688,7 +5700,7 @@
         <v>15</v>
       </c>
       <c r="C461" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5699,7 +5711,7 @@
         <v>15</v>
       </c>
       <c r="C462" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5710,7 +5722,7 @@
         <v>15</v>
       </c>
       <c r="C463" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5721,7 +5733,7 @@
         <v>15</v>
       </c>
       <c r="C464" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5732,7 +5744,7 @@
         <v>15</v>
       </c>
       <c r="C465" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5743,7 +5755,7 @@
         <v>15</v>
       </c>
       <c r="C466" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5754,7 +5766,7 @@
         <v>15</v>
       </c>
       <c r="C467" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5765,7 +5777,7 @@
         <v>15</v>
       </c>
       <c r="C468" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5776,7 +5788,7 @@
         <v>15</v>
       </c>
       <c r="C469" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5787,7 +5799,7 @@
         <v>15</v>
       </c>
       <c r="C470" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5798,7 +5810,7 @@
         <v>15</v>
       </c>
       <c r="C471" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5809,7 +5821,7 @@
         <v>15</v>
       </c>
       <c r="C472" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5820,7 +5832,7 @@
         <v>15</v>
       </c>
       <c r="C473" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5831,7 +5843,7 @@
         <v>15</v>
       </c>
       <c r="C474" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5842,7 +5854,7 @@
         <v>15</v>
       </c>
       <c r="C475" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5853,7 +5865,7 @@
         <v>15</v>
       </c>
       <c r="C476" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5864,7 +5876,7 @@
         <v>15</v>
       </c>
       <c r="C477" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5875,7 +5887,7 @@
         <v>15</v>
       </c>
       <c r="C478" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5886,7 +5898,7 @@
         <v>15</v>
       </c>
       <c r="C479" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5897,7 +5909,7 @@
         <v>15</v>
       </c>
       <c r="C480" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5908,7 +5920,7 @@
         <v>15</v>
       </c>
       <c r="C481" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5916,10 +5928,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C482" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5927,10 +5939,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C483" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5941,7 +5953,7 @@
         <v>16</v>
       </c>
       <c r="C484" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5952,7 +5964,7 @@
         <v>16</v>
       </c>
       <c r="C485" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5963,7 +5975,7 @@
         <v>16</v>
       </c>
       <c r="C486" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5974,7 +5986,7 @@
         <v>16</v>
       </c>
       <c r="C487" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5985,7 +5997,7 @@
         <v>16</v>
       </c>
       <c r="C488" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5996,7 +6008,7 @@
         <v>16</v>
       </c>
       <c r="C489" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -6007,7 +6019,7 @@
         <v>16</v>
       </c>
       <c r="C490" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -6018,7 +6030,7 @@
         <v>16</v>
       </c>
       <c r="C491" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6029,7 +6041,7 @@
         <v>16</v>
       </c>
       <c r="C492" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6040,7 +6052,7 @@
         <v>16</v>
       </c>
       <c r="C493" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6051,7 +6063,7 @@
         <v>16</v>
       </c>
       <c r="C494" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6062,7 +6074,7 @@
         <v>16</v>
       </c>
       <c r="C495" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6073,7 +6085,7 @@
         <v>16</v>
       </c>
       <c r="C496" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6084,7 +6096,7 @@
         <v>16</v>
       </c>
       <c r="C497" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6095,7 +6107,7 @@
         <v>16</v>
       </c>
       <c r="C498" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6106,7 +6118,7 @@
         <v>16</v>
       </c>
       <c r="C499" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6117,7 +6129,7 @@
         <v>16</v>
       </c>
       <c r="C500" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6128,7 +6140,7 @@
         <v>16</v>
       </c>
       <c r="C501" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6139,7 +6151,7 @@
         <v>16</v>
       </c>
       <c r="C502" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6150,7 +6162,7 @@
         <v>16</v>
       </c>
       <c r="C503" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6161,7 +6173,7 @@
         <v>16</v>
       </c>
       <c r="C504" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6172,7 +6184,7 @@
         <v>16</v>
       </c>
       <c r="C505" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6183,7 +6195,7 @@
         <v>16</v>
       </c>
       <c r="C506" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6194,7 +6206,7 @@
         <v>16</v>
       </c>
       <c r="C507" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6205,7 +6217,7 @@
         <v>16</v>
       </c>
       <c r="C508" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6216,7 +6228,7 @@
         <v>16</v>
       </c>
       <c r="C509" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6227,7 +6239,7 @@
         <v>16</v>
       </c>
       <c r="C510" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6238,7 +6250,7 @@
         <v>16</v>
       </c>
       <c r="C511" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6249,7 +6261,7 @@
         <v>16</v>
       </c>
       <c r="C512" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6260,7 +6272,7 @@
         <v>16</v>
       </c>
       <c r="C513" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6271,7 +6283,7 @@
         <v>16</v>
       </c>
       <c r="C514" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6282,7 +6294,7 @@
         <v>16</v>
       </c>
       <c r="C515" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6290,10 +6302,10 @@
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C516" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6301,10 +6313,10 @@
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C517" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6315,7 +6327,7 @@
         <v>17</v>
       </c>
       <c r="C518" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6326,7 +6338,7 @@
         <v>17</v>
       </c>
       <c r="C519" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6337,7 +6349,7 @@
         <v>17</v>
       </c>
       <c r="C520" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6348,7 +6360,7 @@
         <v>17</v>
       </c>
       <c r="C521" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6359,7 +6371,7 @@
         <v>17</v>
       </c>
       <c r="C522" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6370,7 +6382,7 @@
         <v>17</v>
       </c>
       <c r="C523" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6381,7 +6393,7 @@
         <v>17</v>
       </c>
       <c r="C524" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6392,7 +6404,7 @@
         <v>17</v>
       </c>
       <c r="C525" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6403,7 +6415,7 @@
         <v>17</v>
       </c>
       <c r="C526" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6414,7 +6426,7 @@
         <v>17</v>
       </c>
       <c r="C527" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6425,7 +6437,7 @@
         <v>17</v>
       </c>
       <c r="C528" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6436,7 +6448,7 @@
         <v>17</v>
       </c>
       <c r="C529" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6447,7 +6459,7 @@
         <v>17</v>
       </c>
       <c r="C530" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6458,7 +6470,7 @@
         <v>17</v>
       </c>
       <c r="C531" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6469,7 +6481,7 @@
         <v>17</v>
       </c>
       <c r="C532" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6480,7 +6492,7 @@
         <v>17</v>
       </c>
       <c r="C533" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6491,7 +6503,7 @@
         <v>17</v>
       </c>
       <c r="C534" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6502,7 +6514,7 @@
         <v>17</v>
       </c>
       <c r="C535" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6513,7 +6525,7 @@
         <v>17</v>
       </c>
       <c r="C536" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6524,7 +6536,7 @@
         <v>17</v>
       </c>
       <c r="C537" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6535,7 +6547,7 @@
         <v>17</v>
       </c>
       <c r="C538" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6546,7 +6558,7 @@
         <v>17</v>
       </c>
       <c r="C539" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6557,7 +6569,7 @@
         <v>17</v>
       </c>
       <c r="C540" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6568,7 +6580,7 @@
         <v>17</v>
       </c>
       <c r="C541" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6579,7 +6591,7 @@
         <v>17</v>
       </c>
       <c r="C542" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6590,7 +6602,7 @@
         <v>17</v>
       </c>
       <c r="C543" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6601,7 +6613,7 @@
         <v>17</v>
       </c>
       <c r="C544" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6612,7 +6624,7 @@
         <v>17</v>
       </c>
       <c r="C545" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6623,7 +6635,7 @@
         <v>17</v>
       </c>
       <c r="C546" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6634,7 +6646,7 @@
         <v>17</v>
       </c>
       <c r="C547" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6645,7 +6657,7 @@
         <v>17</v>
       </c>
       <c r="C548" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6656,7 +6668,7 @@
         <v>17</v>
       </c>
       <c r="C549" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6664,10 +6676,10 @@
         <v>548</v>
       </c>
       <c r="B550" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C550" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6675,10 +6687,10 @@
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C551" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6689,7 +6701,7 @@
         <v>18</v>
       </c>
       <c r="C552" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6700,7 +6712,7 @@
         <v>18</v>
       </c>
       <c r="C553" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6711,7 +6723,7 @@
         <v>18</v>
       </c>
       <c r="C554" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6722,7 +6734,7 @@
         <v>18</v>
       </c>
       <c r="C555" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6733,7 +6745,7 @@
         <v>18</v>
       </c>
       <c r="C556" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6744,7 +6756,7 @@
         <v>18</v>
       </c>
       <c r="C557" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6755,7 +6767,7 @@
         <v>18</v>
       </c>
       <c r="C558" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6766,7 +6778,7 @@
         <v>18</v>
       </c>
       <c r="C559" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6777,7 +6789,7 @@
         <v>18</v>
       </c>
       <c r="C560" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6788,7 +6800,7 @@
         <v>18</v>
       </c>
       <c r="C561" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6799,7 +6811,7 @@
         <v>18</v>
       </c>
       <c r="C562" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6810,7 +6822,7 @@
         <v>18</v>
       </c>
       <c r="C563" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6821,7 +6833,7 @@
         <v>18</v>
       </c>
       <c r="C564" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6832,7 +6844,7 @@
         <v>18</v>
       </c>
       <c r="C565" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6843,7 +6855,7 @@
         <v>18</v>
       </c>
       <c r="C566" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6854,7 +6866,7 @@
         <v>18</v>
       </c>
       <c r="C567" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6865,7 +6877,7 @@
         <v>18</v>
       </c>
       <c r="C568" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6876,7 +6888,7 @@
         <v>18</v>
       </c>
       <c r="C569" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6887,7 +6899,7 @@
         <v>18</v>
       </c>
       <c r="C570" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6898,7 +6910,7 @@
         <v>18</v>
       </c>
       <c r="C571" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6909,7 +6921,7 @@
         <v>18</v>
       </c>
       <c r="C572" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6920,7 +6932,7 @@
         <v>18</v>
       </c>
       <c r="C573" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6931,7 +6943,7 @@
         <v>18</v>
       </c>
       <c r="C574" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6942,7 +6954,7 @@
         <v>18</v>
       </c>
       <c r="C575" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6953,7 +6965,7 @@
         <v>18</v>
       </c>
       <c r="C576" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6964,7 +6976,7 @@
         <v>18</v>
       </c>
       <c r="C577" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6975,7 +6987,7 @@
         <v>18</v>
       </c>
       <c r="C578" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6986,7 +6998,7 @@
         <v>18</v>
       </c>
       <c r="C579" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6997,7 +7009,7 @@
         <v>18</v>
       </c>
       <c r="C580" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -7008,7 +7020,7 @@
         <v>18</v>
       </c>
       <c r="C581" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -7019,7 +7031,7 @@
         <v>18</v>
       </c>
       <c r="C582" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7030,7 +7042,7 @@
         <v>18</v>
       </c>
       <c r="C583" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7038,10 +7050,10 @@
         <v>582</v>
       </c>
       <c r="B584" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C584" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7049,10 +7061,10 @@
         <v>583</v>
       </c>
       <c r="B585" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C585" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7074,7 +7086,7 @@
         <v>19</v>
       </c>
       <c r="C587" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7085,7 +7097,7 @@
         <v>19</v>
       </c>
       <c r="C588" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7096,7 +7108,7 @@
         <v>19</v>
       </c>
       <c r="C589" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7107,7 +7119,7 @@
         <v>19</v>
       </c>
       <c r="C590" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7118,7 +7130,7 @@
         <v>19</v>
       </c>
       <c r="C591" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7129,7 +7141,7 @@
         <v>19</v>
       </c>
       <c r="C592" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7140,7 +7152,7 @@
         <v>19</v>
       </c>
       <c r="C593" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7151,7 +7163,7 @@
         <v>19</v>
       </c>
       <c r="C594" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7162,7 +7174,7 @@
         <v>19</v>
       </c>
       <c r="C595" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7173,7 +7185,7 @@
         <v>19</v>
       </c>
       <c r="C596" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7184,7 +7196,7 @@
         <v>19</v>
       </c>
       <c r="C597" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7195,7 +7207,7 @@
         <v>19</v>
       </c>
       <c r="C598" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7206,7 +7218,7 @@
         <v>19</v>
       </c>
       <c r="C599" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7217,7 +7229,7 @@
         <v>19</v>
       </c>
       <c r="C600" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7228,7 +7240,7 @@
         <v>19</v>
       </c>
       <c r="C601" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7239,7 +7251,7 @@
         <v>19</v>
       </c>
       <c r="C602" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7250,7 +7262,7 @@
         <v>19</v>
       </c>
       <c r="C603" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7261,7 +7273,7 @@
         <v>19</v>
       </c>
       <c r="C604" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7272,7 +7284,7 @@
         <v>19</v>
       </c>
       <c r="C605" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7283,7 +7295,7 @@
         <v>19</v>
       </c>
       <c r="C606" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7294,7 +7306,7 @@
         <v>19</v>
       </c>
       <c r="C607" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7305,7 +7317,7 @@
         <v>19</v>
       </c>
       <c r="C608" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7316,7 +7328,7 @@
         <v>19</v>
       </c>
       <c r="C609" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7327,7 +7339,7 @@
         <v>19</v>
       </c>
       <c r="C610" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7338,7 +7350,7 @@
         <v>19</v>
       </c>
       <c r="C611" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7349,7 +7361,7 @@
         <v>19</v>
       </c>
       <c r="C612" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7360,7 +7372,7 @@
         <v>19</v>
       </c>
       <c r="C613" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7371,7 +7383,7 @@
         <v>19</v>
       </c>
       <c r="C614" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7382,7 +7394,7 @@
         <v>19</v>
       </c>
       <c r="C615" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7393,7 +7405,7 @@
         <v>19</v>
       </c>
       <c r="C616" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7404,7 +7416,7 @@
         <v>19</v>
       </c>
       <c r="C617" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7415,7 +7427,7 @@
         <v>19</v>
       </c>
       <c r="C618" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7426,7 +7438,7 @@
         <v>19</v>
       </c>
       <c r="C619" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7437,7 +7449,7 @@
         <v>19</v>
       </c>
       <c r="C620" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7445,10 +7457,10 @@
         <v>619</v>
       </c>
       <c r="B621" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C621" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7456,10 +7468,10 @@
         <v>620</v>
       </c>
       <c r="B622" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C622" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7467,7 +7479,7 @@
         <v>621</v>
       </c>
       <c r="B623" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C623" t="s">
         <v>75</v>
@@ -7478,10 +7490,10 @@
         <v>622</v>
       </c>
       <c r="B624" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C624" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7489,10 +7501,10 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C625" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7503,7 +7515,7 @@
         <v>22</v>
       </c>
       <c r="C626" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7514,7 +7526,7 @@
         <v>22</v>
       </c>
       <c r="C627" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7525,7 +7537,7 @@
         <v>22</v>
       </c>
       <c r="C628" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7536,7 +7548,7 @@
         <v>22</v>
       </c>
       <c r="C629" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7547,7 +7559,7 @@
         <v>22</v>
       </c>
       <c r="C630" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7558,7 +7570,7 @@
         <v>22</v>
       </c>
       <c r="C631" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7569,7 +7581,7 @@
         <v>22</v>
       </c>
       <c r="C632" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7580,7 +7592,7 @@
         <v>22</v>
       </c>
       <c r="C633" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7591,7 +7603,7 @@
         <v>22</v>
       </c>
       <c r="C634" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7602,7 +7614,7 @@
         <v>22</v>
       </c>
       <c r="C635" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7613,7 +7625,7 @@
         <v>22</v>
       </c>
       <c r="C636" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7624,7 +7636,7 @@
         <v>22</v>
       </c>
       <c r="C637" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7635,7 +7647,7 @@
         <v>22</v>
       </c>
       <c r="C638" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7646,7 +7658,7 @@
         <v>22</v>
       </c>
       <c r="C639" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7657,7 +7669,7 @@
         <v>22</v>
       </c>
       <c r="C640" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7668,7 +7680,7 @@
         <v>22</v>
       </c>
       <c r="C641" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7679,7 +7691,7 @@
         <v>22</v>
       </c>
       <c r="C642" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7690,7 +7702,7 @@
         <v>22</v>
       </c>
       <c r="C643" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7701,7 +7713,7 @@
         <v>22</v>
       </c>
       <c r="C644" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7712,7 +7724,7 @@
         <v>22</v>
       </c>
       <c r="C645" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7723,7 +7735,7 @@
         <v>22</v>
       </c>
       <c r="C646" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7734,7 +7746,7 @@
         <v>22</v>
       </c>
       <c r="C647" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7745,7 +7757,7 @@
         <v>22</v>
       </c>
       <c r="C648" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7756,7 +7768,7 @@
         <v>22</v>
       </c>
       <c r="C649" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7767,7 +7779,7 @@
         <v>22</v>
       </c>
       <c r="C650" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7778,7 +7790,7 @@
         <v>22</v>
       </c>
       <c r="C651" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7789,7 +7801,7 @@
         <v>22</v>
       </c>
       <c r="C652" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7800,7 +7812,7 @@
         <v>22</v>
       </c>
       <c r="C653" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7811,7 +7823,7 @@
         <v>22</v>
       </c>
       <c r="C654" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7822,7 +7834,7 @@
         <v>22</v>
       </c>
       <c r="C655" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7833,7 +7845,7 @@
         <v>22</v>
       </c>
       <c r="C656" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7844,7 +7856,7 @@
         <v>22</v>
       </c>
       <c r="C657" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7852,10 +7864,10 @@
         <v>656</v>
       </c>
       <c r="B658" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C658" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7863,10 +7875,10 @@
         <v>657</v>
       </c>
       <c r="B659" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C659" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7877,7 +7889,7 @@
         <v>23</v>
       </c>
       <c r="C660" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7888,7 +7900,7 @@
         <v>23</v>
       </c>
       <c r="C661" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7899,7 +7911,7 @@
         <v>23</v>
       </c>
       <c r="C662" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7910,7 +7922,7 @@
         <v>23</v>
       </c>
       <c r="C663" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7921,7 +7933,7 @@
         <v>23</v>
       </c>
       <c r="C664" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7932,7 +7944,7 @@
         <v>23</v>
       </c>
       <c r="C665" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7943,7 +7955,7 @@
         <v>23</v>
       </c>
       <c r="C666" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7954,7 +7966,7 @@
         <v>23</v>
       </c>
       <c r="C667" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7965,7 +7977,7 @@
         <v>23</v>
       </c>
       <c r="C668" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7976,7 +7988,7 @@
         <v>23</v>
       </c>
       <c r="C669" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7987,7 +7999,7 @@
         <v>23</v>
       </c>
       <c r="C670" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -7998,7 +8010,7 @@
         <v>23</v>
       </c>
       <c r="C671" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -8009,7 +8021,7 @@
         <v>23</v>
       </c>
       <c r="C672" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -8020,7 +8032,7 @@
         <v>23</v>
       </c>
       <c r="C673" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8031,7 +8043,7 @@
         <v>23</v>
       </c>
       <c r="C674" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8042,7 +8054,7 @@
         <v>23</v>
       </c>
       <c r="C675" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8053,7 +8065,7 @@
         <v>23</v>
       </c>
       <c r="C676" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8064,7 +8076,7 @@
         <v>23</v>
       </c>
       <c r="C677" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8075,7 +8087,7 @@
         <v>23</v>
       </c>
       <c r="C678" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8086,7 +8098,7 @@
         <v>23</v>
       </c>
       <c r="C679" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8097,7 +8109,7 @@
         <v>23</v>
       </c>
       <c r="C680" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8108,7 +8120,7 @@
         <v>23</v>
       </c>
       <c r="C681" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8119,7 +8131,7 @@
         <v>23</v>
       </c>
       <c r="C682" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8130,7 +8142,7 @@
         <v>23</v>
       </c>
       <c r="C683" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8141,7 +8153,7 @@
         <v>23</v>
       </c>
       <c r="C684" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8152,7 +8164,7 @@
         <v>23</v>
       </c>
       <c r="C685" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8163,7 +8175,7 @@
         <v>23</v>
       </c>
       <c r="C686" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8174,7 +8186,7 @@
         <v>23</v>
       </c>
       <c r="C687" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8185,7 +8197,7 @@
         <v>23</v>
       </c>
       <c r="C688" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8196,7 +8208,7 @@
         <v>23</v>
       </c>
       <c r="C689" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8207,7 +8219,7 @@
         <v>23</v>
       </c>
       <c r="C690" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8218,7 +8230,7 @@
         <v>23</v>
       </c>
       <c r="C691" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8226,10 +8238,10 @@
         <v>690</v>
       </c>
       <c r="B692" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C692" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8237,10 +8249,10 @@
         <v>691</v>
       </c>
       <c r="B693" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C693" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8251,7 +8263,7 @@
         <v>24</v>
       </c>
       <c r="C694" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8262,7 +8274,7 @@
         <v>24</v>
       </c>
       <c r="C695" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8273,7 +8285,7 @@
         <v>24</v>
       </c>
       <c r="C696" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8284,7 +8296,7 @@
         <v>24</v>
       </c>
       <c r="C697" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8295,7 +8307,7 @@
         <v>24</v>
       </c>
       <c r="C698" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8306,7 +8318,7 @@
         <v>24</v>
       </c>
       <c r="C699" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8317,7 +8329,7 @@
         <v>24</v>
       </c>
       <c r="C700" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8328,7 +8340,7 @@
         <v>24</v>
       </c>
       <c r="C701" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8339,7 +8351,7 @@
         <v>24</v>
       </c>
       <c r="C702" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8350,7 +8362,7 @@
         <v>24</v>
       </c>
       <c r="C703" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8361,7 +8373,7 @@
         <v>24</v>
       </c>
       <c r="C704" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8372,7 +8384,7 @@
         <v>24</v>
       </c>
       <c r="C705" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8383,7 +8395,7 @@
         <v>24</v>
       </c>
       <c r="C706" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8394,7 +8406,7 @@
         <v>24</v>
       </c>
       <c r="C707" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8405,7 +8417,7 @@
         <v>24</v>
       </c>
       <c r="C708" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8416,7 +8428,7 @@
         <v>24</v>
       </c>
       <c r="C709" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8427,7 +8439,7 @@
         <v>24</v>
       </c>
       <c r="C710" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8438,7 +8450,7 @@
         <v>24</v>
       </c>
       <c r="C711" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8449,7 +8461,7 @@
         <v>24</v>
       </c>
       <c r="C712" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8460,7 +8472,7 @@
         <v>24</v>
       </c>
       <c r="C713" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8471,7 +8483,7 @@
         <v>24</v>
       </c>
       <c r="C714" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8482,7 +8494,7 @@
         <v>24</v>
       </c>
       <c r="C715" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8493,7 +8505,7 @@
         <v>24</v>
       </c>
       <c r="C716" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8504,7 +8516,7 @@
         <v>24</v>
       </c>
       <c r="C717" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8515,7 +8527,7 @@
         <v>24</v>
       </c>
       <c r="C718" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8526,7 +8538,7 @@
         <v>24</v>
       </c>
       <c r="C719" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8537,7 +8549,7 @@
         <v>24</v>
       </c>
       <c r="C720" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8548,7 +8560,7 @@
         <v>24</v>
       </c>
       <c r="C721" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8559,7 +8571,7 @@
         <v>24</v>
       </c>
       <c r="C722" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8570,7 +8582,7 @@
         <v>24</v>
       </c>
       <c r="C723" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8581,7 +8593,7 @@
         <v>24</v>
       </c>
       <c r="C724" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8592,7 +8604,7 @@
         <v>24</v>
       </c>
       <c r="C725" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8600,10 +8612,10 @@
         <v>724</v>
       </c>
       <c r="B726" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C726" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8611,10 +8623,10 @@
         <v>725</v>
       </c>
       <c r="B727" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C727" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8625,7 +8637,7 @@
         <v>25</v>
       </c>
       <c r="C728" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8636,7 +8648,7 @@
         <v>25</v>
       </c>
       <c r="C729" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8647,7 +8659,7 @@
         <v>25</v>
       </c>
       <c r="C730" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8658,7 +8670,7 @@
         <v>25</v>
       </c>
       <c r="C731" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8669,7 +8681,7 @@
         <v>25</v>
       </c>
       <c r="C732" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8680,7 +8692,7 @@
         <v>25</v>
       </c>
       <c r="C733" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8691,7 +8703,7 @@
         <v>25</v>
       </c>
       <c r="C734" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8702,7 +8714,7 @@
         <v>25</v>
       </c>
       <c r="C735" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8713,7 +8725,7 @@
         <v>25</v>
       </c>
       <c r="C736" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8724,7 +8736,7 @@
         <v>25</v>
       </c>
       <c r="C737" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8735,7 +8747,7 @@
         <v>25</v>
       </c>
       <c r="C738" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8746,7 +8758,7 @@
         <v>25</v>
       </c>
       <c r="C739" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8757,7 +8769,7 @@
         <v>25</v>
       </c>
       <c r="C740" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8768,7 +8780,7 @@
         <v>25</v>
       </c>
       <c r="C741" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8779,7 +8791,7 @@
         <v>25</v>
       </c>
       <c r="C742" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8790,7 +8802,7 @@
         <v>25</v>
       </c>
       <c r="C743" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8801,7 +8813,7 @@
         <v>25</v>
       </c>
       <c r="C744" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8812,7 +8824,7 @@
         <v>25</v>
       </c>
       <c r="C745" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8823,7 +8835,7 @@
         <v>25</v>
       </c>
       <c r="C746" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8834,7 +8846,7 @@
         <v>25</v>
       </c>
       <c r="C747" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8845,7 +8857,7 @@
         <v>25</v>
       </c>
       <c r="C748" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8856,7 +8868,7 @@
         <v>25</v>
       </c>
       <c r="C749" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8867,7 +8879,7 @@
         <v>25</v>
       </c>
       <c r="C750" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8878,7 +8890,7 @@
         <v>25</v>
       </c>
       <c r="C751" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8889,7 +8901,7 @@
         <v>25</v>
       </c>
       <c r="C752" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8900,7 +8912,7 @@
         <v>25</v>
       </c>
       <c r="C753" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8911,7 +8923,7 @@
         <v>25</v>
       </c>
       <c r="C754" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8922,7 +8934,7 @@
         <v>25</v>
       </c>
       <c r="C755" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8933,7 +8945,7 @@
         <v>25</v>
       </c>
       <c r="C756" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8944,7 +8956,7 @@
         <v>25</v>
       </c>
       <c r="C757" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8955,7 +8967,7 @@
         <v>25</v>
       </c>
       <c r="C758" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8966,7 +8978,7 @@
         <v>25</v>
       </c>
       <c r="C759" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8974,10 +8986,10 @@
         <v>758</v>
       </c>
       <c r="B760" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C760" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -8985,10 +8997,10 @@
         <v>759</v>
       </c>
       <c r="B761" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C761" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -8996,10 +9008,10 @@
         <v>760</v>
       </c>
       <c r="B762" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C762" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -9007,10 +9019,10 @@
         <v>761</v>
       </c>
       <c r="B763" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C763" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -9018,10 +9030,10 @@
         <v>762</v>
       </c>
       <c r="B764" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C764" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9029,10 +9041,10 @@
         <v>763</v>
       </c>
       <c r="B765" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C765" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9040,10 +9052,10 @@
         <v>764</v>
       </c>
       <c r="B766" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C766" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9054,7 +9066,7 @@
         <v>28</v>
       </c>
       <c r="C767" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9065,7 +9077,7 @@
         <v>28</v>
       </c>
       <c r="C768" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9076,7 +9088,7 @@
         <v>28</v>
       </c>
       <c r="C769" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9087,7 +9099,7 @@
         <v>28</v>
       </c>
       <c r="C770" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9098,7 +9110,7 @@
         <v>28</v>
       </c>
       <c r="C771" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9109,7 +9121,7 @@
         <v>28</v>
       </c>
       <c r="C772" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9120,7 +9132,7 @@
         <v>28</v>
       </c>
       <c r="C773" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9131,7 +9143,7 @@
         <v>28</v>
       </c>
       <c r="C774" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9142,7 +9154,7 @@
         <v>28</v>
       </c>
       <c r="C775" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9153,7 +9165,7 @@
         <v>28</v>
       </c>
       <c r="C776" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9164,7 +9176,7 @@
         <v>28</v>
       </c>
       <c r="C777" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9175,7 +9187,7 @@
         <v>28</v>
       </c>
       <c r="C778" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9186,7 +9198,7 @@
         <v>28</v>
       </c>
       <c r="C779" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9197,7 +9209,7 @@
         <v>28</v>
       </c>
       <c r="C780" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9208,7 +9220,7 @@
         <v>28</v>
       </c>
       <c r="C781" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9219,7 +9231,7 @@
         <v>28</v>
       </c>
       <c r="C782" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9230,7 +9242,7 @@
         <v>28</v>
       </c>
       <c r="C783" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9241,7 +9253,7 @@
         <v>28</v>
       </c>
       <c r="C784" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9252,7 +9264,7 @@
         <v>28</v>
       </c>
       <c r="C785" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9263,7 +9275,7 @@
         <v>28</v>
       </c>
       <c r="C786" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9274,7 +9286,7 @@
         <v>28</v>
       </c>
       <c r="C787" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9285,7 +9297,7 @@
         <v>28</v>
       </c>
       <c r="C788" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9296,7 +9308,7 @@
         <v>28</v>
       </c>
       <c r="C789" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9307,7 +9319,7 @@
         <v>28</v>
       </c>
       <c r="C790" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9318,7 +9330,7 @@
         <v>28</v>
       </c>
       <c r="C791" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9329,7 +9341,7 @@
         <v>28</v>
       </c>
       <c r="C792" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9340,7 +9352,7 @@
         <v>28</v>
       </c>
       <c r="C793" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9351,7 +9363,7 @@
         <v>28</v>
       </c>
       <c r="C794" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9362,7 +9374,7 @@
         <v>28</v>
       </c>
       <c r="C795" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9373,7 +9385,7 @@
         <v>28</v>
       </c>
       <c r="C796" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9384,7 +9396,7 @@
         <v>28</v>
       </c>
       <c r="C797" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9395,7 +9407,7 @@
         <v>28</v>
       </c>
       <c r="C798" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9406,7 +9418,7 @@
         <v>28</v>
       </c>
       <c r="C799" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9417,7 +9429,7 @@
         <v>28</v>
       </c>
       <c r="C800" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9425,10 +9437,10 @@
         <v>799</v>
       </c>
       <c r="B801" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C801" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9436,10 +9448,10 @@
         <v>800</v>
       </c>
       <c r="B802" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C802" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9447,10 +9459,10 @@
         <v>801</v>
       </c>
       <c r="B803" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C803" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9458,10 +9470,10 @@
         <v>802</v>
       </c>
       <c r="B804" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C804" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9469,10 +9481,10 @@
         <v>803</v>
       </c>
       <c r="B805" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C805" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9480,10 +9492,10 @@
         <v>804</v>
       </c>
       <c r="B806" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C806" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9491,10 +9503,10 @@
         <v>805</v>
       </c>
       <c r="B807" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C807" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9502,10 +9514,10 @@
         <v>806</v>
       </c>
       <c r="B808" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C808" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9513,10 +9525,10 @@
         <v>807</v>
       </c>
       <c r="B809" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C809" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9524,10 +9536,10 @@
         <v>808</v>
       </c>
       <c r="B810" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C810" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9535,10 +9547,10 @@
         <v>809</v>
       </c>
       <c r="B811" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C811" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9546,10 +9558,10 @@
         <v>810</v>
       </c>
       <c r="B812" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C812" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9557,10 +9569,10 @@
         <v>811</v>
       </c>
       <c r="B813" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C813" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9568,10 +9580,10 @@
         <v>812</v>
       </c>
       <c r="B814" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C814" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9582,7 +9594,7 @@
         <v>33</v>
       </c>
       <c r="C815" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9593,7 +9605,7 @@
         <v>33</v>
       </c>
       <c r="C816" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9604,7 +9616,7 @@
         <v>33</v>
       </c>
       <c r="C817" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9615,7 +9627,7 @@
         <v>33</v>
       </c>
       <c r="C818" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9626,7 +9638,7 @@
         <v>33</v>
       </c>
       <c r="C819" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9637,7 +9649,7 @@
         <v>33</v>
       </c>
       <c r="C820" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9648,7 +9660,7 @@
         <v>33</v>
       </c>
       <c r="C821" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9659,7 +9671,7 @@
         <v>33</v>
       </c>
       <c r="C822" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9670,7 +9682,7 @@
         <v>33</v>
       </c>
       <c r="C823" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9681,7 +9693,7 @@
         <v>33</v>
       </c>
       <c r="C824" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9692,7 +9704,7 @@
         <v>33</v>
       </c>
       <c r="C825" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -9703,7 +9715,7 @@
         <v>33</v>
       </c>
       <c r="C826" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9714,7 +9726,7 @@
         <v>33</v>
       </c>
       <c r="C827" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9725,7 +9737,7 @@
         <v>33</v>
       </c>
       <c r="C828" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9736,7 +9748,7 @@
         <v>33</v>
       </c>
       <c r="C829" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9747,7 +9759,7 @@
         <v>33</v>
       </c>
       <c r="C830" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9758,7 +9770,7 @@
         <v>33</v>
       </c>
       <c r="C831" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -9769,7 +9781,7 @@
         <v>33</v>
       </c>
       <c r="C832" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9780,7 +9792,7 @@
         <v>33</v>
       </c>
       <c r="C833" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9791,6 +9803,94 @@
         <v>33</v>
       </c>
       <c r="C834" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3">
+      <c r="A835" s="1">
+        <v>833</v>
+      </c>
+      <c r="B835" t="s">
+        <v>33</v>
+      </c>
+      <c r="C835" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="A836" s="1">
+        <v>834</v>
+      </c>
+      <c r="B836" t="s">
+        <v>33</v>
+      </c>
+      <c r="C836" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3">
+      <c r="A837" s="1">
+        <v>835</v>
+      </c>
+      <c r="B837" t="s">
+        <v>33</v>
+      </c>
+      <c r="C837" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3">
+      <c r="A838" s="1">
+        <v>836</v>
+      </c>
+      <c r="B838" t="s">
+        <v>33</v>
+      </c>
+      <c r="C838" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3">
+      <c r="A839" s="1">
+        <v>837</v>
+      </c>
+      <c r="B839" t="s">
+        <v>33</v>
+      </c>
+      <c r="C839" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3">
+      <c r="A840" s="1">
+        <v>838</v>
+      </c>
+      <c r="B840" t="s">
+        <v>33</v>
+      </c>
+      <c r="C840" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3">
+      <c r="A841" s="1">
+        <v>839</v>
+      </c>
+      <c r="B841" t="s">
+        <v>33</v>
+      </c>
+      <c r="C841" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3">
+      <c r="A842" s="1">
+        <v>840</v>
+      </c>
+      <c r="B842" t="s">
+        <v>33</v>
+      </c>
+      <c r="C842" t="s">
         <v>68</v>
       </c>
     </row>

--- a/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="87">
   <si>
     <t>Chromosome</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>192478</t>
+  </si>
+  <si>
+    <t>87092-</t>
   </si>
   <si>
     <t>W17068</t>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C842"/>
+  <dimension ref="A1:C845"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7108,7 +7111,7 @@
         <v>19</v>
       </c>
       <c r="C589" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7119,7 +7122,7 @@
         <v>19</v>
       </c>
       <c r="C590" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7130,7 +7133,7 @@
         <v>19</v>
       </c>
       <c r="C591" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7141,7 +7144,7 @@
         <v>19</v>
       </c>
       <c r="C592" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7152,7 +7155,7 @@
         <v>19</v>
       </c>
       <c r="C593" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7163,7 +7166,7 @@
         <v>19</v>
       </c>
       <c r="C594" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7174,7 +7177,7 @@
         <v>19</v>
       </c>
       <c r="C595" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7185,7 +7188,7 @@
         <v>19</v>
       </c>
       <c r="C596" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7196,7 +7199,7 @@
         <v>19</v>
       </c>
       <c r="C597" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7207,7 +7210,7 @@
         <v>19</v>
       </c>
       <c r="C598" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7218,7 +7221,7 @@
         <v>19</v>
       </c>
       <c r="C599" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7229,7 +7232,7 @@
         <v>19</v>
       </c>
       <c r="C600" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7240,7 +7243,7 @@
         <v>19</v>
       </c>
       <c r="C601" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7251,7 +7254,7 @@
         <v>19</v>
       </c>
       <c r="C602" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7262,7 +7265,7 @@
         <v>19</v>
       </c>
       <c r="C603" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7273,7 +7276,7 @@
         <v>19</v>
       </c>
       <c r="C604" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7284,7 +7287,7 @@
         <v>19</v>
       </c>
       <c r="C605" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7295,7 +7298,7 @@
         <v>19</v>
       </c>
       <c r="C606" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7306,7 +7309,7 @@
         <v>19</v>
       </c>
       <c r="C607" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7317,7 +7320,7 @@
         <v>19</v>
       </c>
       <c r="C608" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7328,7 +7331,7 @@
         <v>19</v>
       </c>
       <c r="C609" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7339,7 +7342,7 @@
         <v>19</v>
       </c>
       <c r="C610" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7350,7 +7353,7 @@
         <v>19</v>
       </c>
       <c r="C611" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7361,7 +7364,7 @@
         <v>19</v>
       </c>
       <c r="C612" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7372,7 +7375,7 @@
         <v>19</v>
       </c>
       <c r="C613" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7383,7 +7386,7 @@
         <v>19</v>
       </c>
       <c r="C614" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7394,7 +7397,7 @@
         <v>19</v>
       </c>
       <c r="C615" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7405,7 +7408,7 @@
         <v>19</v>
       </c>
       <c r="C616" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7416,7 +7419,7 @@
         <v>19</v>
       </c>
       <c r="C617" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7427,7 +7430,7 @@
         <v>19</v>
       </c>
       <c r="C618" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7438,7 +7441,7 @@
         <v>19</v>
       </c>
       <c r="C619" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7449,7 +7452,7 @@
         <v>19</v>
       </c>
       <c r="C620" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7460,7 +7463,7 @@
         <v>19</v>
       </c>
       <c r="C621" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7471,7 +7474,7 @@
         <v>19</v>
       </c>
       <c r="C622" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7479,10 +7482,10 @@
         <v>621</v>
       </c>
       <c r="B623" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C623" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7493,7 +7496,7 @@
         <v>20</v>
       </c>
       <c r="C624" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7501,10 +7504,10 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C625" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7512,10 +7515,10 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C626" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7523,10 +7526,10 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C627" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7537,7 +7540,7 @@
         <v>22</v>
       </c>
       <c r="C628" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7548,7 +7551,7 @@
         <v>22</v>
       </c>
       <c r="C629" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7559,7 +7562,7 @@
         <v>22</v>
       </c>
       <c r="C630" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7570,7 +7573,7 @@
         <v>22</v>
       </c>
       <c r="C631" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7581,7 +7584,7 @@
         <v>22</v>
       </c>
       <c r="C632" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7592,7 +7595,7 @@
         <v>22</v>
       </c>
       <c r="C633" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7603,7 +7606,7 @@
         <v>22</v>
       </c>
       <c r="C634" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7614,7 +7617,7 @@
         <v>22</v>
       </c>
       <c r="C635" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7625,7 +7628,7 @@
         <v>22</v>
       </c>
       <c r="C636" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7636,7 +7639,7 @@
         <v>22</v>
       </c>
       <c r="C637" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7647,7 +7650,7 @@
         <v>22</v>
       </c>
       <c r="C638" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7658,7 +7661,7 @@
         <v>22</v>
       </c>
       <c r="C639" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7669,7 +7672,7 @@
         <v>22</v>
       </c>
       <c r="C640" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7680,7 +7683,7 @@
         <v>22</v>
       </c>
       <c r="C641" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7691,7 +7694,7 @@
         <v>22</v>
       </c>
       <c r="C642" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7702,7 +7705,7 @@
         <v>22</v>
       </c>
       <c r="C643" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7713,7 +7716,7 @@
         <v>22</v>
       </c>
       <c r="C644" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7724,7 +7727,7 @@
         <v>22</v>
       </c>
       <c r="C645" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7735,7 +7738,7 @@
         <v>22</v>
       </c>
       <c r="C646" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7746,7 +7749,7 @@
         <v>22</v>
       </c>
       <c r="C647" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7757,7 +7760,7 @@
         <v>22</v>
       </c>
       <c r="C648" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7768,7 +7771,7 @@
         <v>22</v>
       </c>
       <c r="C649" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7779,7 +7782,7 @@
         <v>22</v>
       </c>
       <c r="C650" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7790,7 +7793,7 @@
         <v>22</v>
       </c>
       <c r="C651" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7801,7 +7804,7 @@
         <v>22</v>
       </c>
       <c r="C652" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7812,7 +7815,7 @@
         <v>22</v>
       </c>
       <c r="C653" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7823,7 +7826,7 @@
         <v>22</v>
       </c>
       <c r="C654" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7834,7 +7837,7 @@
         <v>22</v>
       </c>
       <c r="C655" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7845,7 +7848,7 @@
         <v>22</v>
       </c>
       <c r="C656" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7856,7 +7859,7 @@
         <v>22</v>
       </c>
       <c r="C657" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7867,7 +7870,7 @@
         <v>22</v>
       </c>
       <c r="C658" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7878,7 +7881,7 @@
         <v>22</v>
       </c>
       <c r="C659" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7886,10 +7889,10 @@
         <v>658</v>
       </c>
       <c r="B660" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C660" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7897,10 +7900,10 @@
         <v>659</v>
       </c>
       <c r="B661" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C661" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7911,7 +7914,7 @@
         <v>23</v>
       </c>
       <c r="C662" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7922,7 +7925,7 @@
         <v>23</v>
       </c>
       <c r="C663" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7933,7 +7936,7 @@
         <v>23</v>
       </c>
       <c r="C664" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7944,7 +7947,7 @@
         <v>23</v>
       </c>
       <c r="C665" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7955,7 +7958,7 @@
         <v>23</v>
       </c>
       <c r="C666" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7966,7 +7969,7 @@
         <v>23</v>
       </c>
       <c r="C667" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7977,7 +7980,7 @@
         <v>23</v>
       </c>
       <c r="C668" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7988,7 +7991,7 @@
         <v>23</v>
       </c>
       <c r="C669" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7999,7 +8002,7 @@
         <v>23</v>
       </c>
       <c r="C670" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -8010,7 +8013,7 @@
         <v>23</v>
       </c>
       <c r="C671" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -8021,7 +8024,7 @@
         <v>23</v>
       </c>
       <c r="C672" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -8032,7 +8035,7 @@
         <v>23</v>
       </c>
       <c r="C673" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8043,7 +8046,7 @@
         <v>23</v>
       </c>
       <c r="C674" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8054,7 +8057,7 @@
         <v>23</v>
       </c>
       <c r="C675" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8065,7 +8068,7 @@
         <v>23</v>
       </c>
       <c r="C676" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8076,7 +8079,7 @@
         <v>23</v>
       </c>
       <c r="C677" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8087,7 +8090,7 @@
         <v>23</v>
       </c>
       <c r="C678" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8098,7 +8101,7 @@
         <v>23</v>
       </c>
       <c r="C679" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8109,7 +8112,7 @@
         <v>23</v>
       </c>
       <c r="C680" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8120,7 +8123,7 @@
         <v>23</v>
       </c>
       <c r="C681" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8131,7 +8134,7 @@
         <v>23</v>
       </c>
       <c r="C682" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8142,7 +8145,7 @@
         <v>23</v>
       </c>
       <c r="C683" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8153,7 +8156,7 @@
         <v>23</v>
       </c>
       <c r="C684" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8164,7 +8167,7 @@
         <v>23</v>
       </c>
       <c r="C685" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8175,7 +8178,7 @@
         <v>23</v>
       </c>
       <c r="C686" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8186,7 +8189,7 @@
         <v>23</v>
       </c>
       <c r="C687" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8197,7 +8200,7 @@
         <v>23</v>
       </c>
       <c r="C688" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8208,7 +8211,7 @@
         <v>23</v>
       </c>
       <c r="C689" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8219,7 +8222,7 @@
         <v>23</v>
       </c>
       <c r="C690" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8230,7 +8233,7 @@
         <v>23</v>
       </c>
       <c r="C691" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8241,7 +8244,7 @@
         <v>23</v>
       </c>
       <c r="C692" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8252,7 +8255,7 @@
         <v>23</v>
       </c>
       <c r="C693" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8260,10 +8263,10 @@
         <v>692</v>
       </c>
       <c r="B694" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C694" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8271,10 +8274,10 @@
         <v>693</v>
       </c>
       <c r="B695" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C695" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8285,7 +8288,7 @@
         <v>24</v>
       </c>
       <c r="C696" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8296,7 +8299,7 @@
         <v>24</v>
       </c>
       <c r="C697" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8307,7 +8310,7 @@
         <v>24</v>
       </c>
       <c r="C698" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8318,7 +8321,7 @@
         <v>24</v>
       </c>
       <c r="C699" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8329,7 +8332,7 @@
         <v>24</v>
       </c>
       <c r="C700" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8340,7 +8343,7 @@
         <v>24</v>
       </c>
       <c r="C701" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8351,7 +8354,7 @@
         <v>24</v>
       </c>
       <c r="C702" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8362,7 +8365,7 @@
         <v>24</v>
       </c>
       <c r="C703" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8373,7 +8376,7 @@
         <v>24</v>
       </c>
       <c r="C704" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8384,7 +8387,7 @@
         <v>24</v>
       </c>
       <c r="C705" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8395,7 +8398,7 @@
         <v>24</v>
       </c>
       <c r="C706" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8406,7 +8409,7 @@
         <v>24</v>
       </c>
       <c r="C707" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8417,7 +8420,7 @@
         <v>24</v>
       </c>
       <c r="C708" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8428,7 +8431,7 @@
         <v>24</v>
       </c>
       <c r="C709" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8439,7 +8442,7 @@
         <v>24</v>
       </c>
       <c r="C710" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8450,7 +8453,7 @@
         <v>24</v>
       </c>
       <c r="C711" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8461,7 +8464,7 @@
         <v>24</v>
       </c>
       <c r="C712" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8472,7 +8475,7 @@
         <v>24</v>
       </c>
       <c r="C713" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8483,7 +8486,7 @@
         <v>24</v>
       </c>
       <c r="C714" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8494,7 +8497,7 @@
         <v>24</v>
       </c>
       <c r="C715" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8505,7 +8508,7 @@
         <v>24</v>
       </c>
       <c r="C716" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8516,7 +8519,7 @@
         <v>24</v>
       </c>
       <c r="C717" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8527,7 +8530,7 @@
         <v>24</v>
       </c>
       <c r="C718" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8538,7 +8541,7 @@
         <v>24</v>
       </c>
       <c r="C719" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8549,7 +8552,7 @@
         <v>24</v>
       </c>
       <c r="C720" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8560,7 +8563,7 @@
         <v>24</v>
       </c>
       <c r="C721" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8571,7 +8574,7 @@
         <v>24</v>
       </c>
       <c r="C722" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8582,7 +8585,7 @@
         <v>24</v>
       </c>
       <c r="C723" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8593,7 +8596,7 @@
         <v>24</v>
       </c>
       <c r="C724" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8604,7 +8607,7 @@
         <v>24</v>
       </c>
       <c r="C725" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8615,7 +8618,7 @@
         <v>24</v>
       </c>
       <c r="C726" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8626,7 +8629,7 @@
         <v>24</v>
       </c>
       <c r="C727" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8634,10 +8637,10 @@
         <v>726</v>
       </c>
       <c r="B728" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C728" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8645,10 +8648,10 @@
         <v>727</v>
       </c>
       <c r="B729" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C729" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8659,7 +8662,7 @@
         <v>25</v>
       </c>
       <c r="C730" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8670,7 +8673,7 @@
         <v>25</v>
       </c>
       <c r="C731" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8681,7 +8684,7 @@
         <v>25</v>
       </c>
       <c r="C732" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8692,7 +8695,7 @@
         <v>25</v>
       </c>
       <c r="C733" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8703,7 +8706,7 @@
         <v>25</v>
       </c>
       <c r="C734" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8714,7 +8717,7 @@
         <v>25</v>
       </c>
       <c r="C735" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8725,7 +8728,7 @@
         <v>25</v>
       </c>
       <c r="C736" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8736,7 +8739,7 @@
         <v>25</v>
       </c>
       <c r="C737" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8747,7 +8750,7 @@
         <v>25</v>
       </c>
       <c r="C738" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8758,7 +8761,7 @@
         <v>25</v>
       </c>
       <c r="C739" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8769,7 +8772,7 @@
         <v>25</v>
       </c>
       <c r="C740" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8780,7 +8783,7 @@
         <v>25</v>
       </c>
       <c r="C741" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8791,7 +8794,7 @@
         <v>25</v>
       </c>
       <c r="C742" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8802,7 +8805,7 @@
         <v>25</v>
       </c>
       <c r="C743" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8813,7 +8816,7 @@
         <v>25</v>
       </c>
       <c r="C744" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8824,7 +8827,7 @@
         <v>25</v>
       </c>
       <c r="C745" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8835,7 +8838,7 @@
         <v>25</v>
       </c>
       <c r="C746" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8846,7 +8849,7 @@
         <v>25</v>
       </c>
       <c r="C747" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8857,7 +8860,7 @@
         <v>25</v>
       </c>
       <c r="C748" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8868,7 +8871,7 @@
         <v>25</v>
       </c>
       <c r="C749" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8879,7 +8882,7 @@
         <v>25</v>
       </c>
       <c r="C750" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8890,7 +8893,7 @@
         <v>25</v>
       </c>
       <c r="C751" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8901,7 +8904,7 @@
         <v>25</v>
       </c>
       <c r="C752" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8912,7 +8915,7 @@
         <v>25</v>
       </c>
       <c r="C753" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8923,7 +8926,7 @@
         <v>25</v>
       </c>
       <c r="C754" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8934,7 +8937,7 @@
         <v>25</v>
       </c>
       <c r="C755" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8945,7 +8948,7 @@
         <v>25</v>
       </c>
       <c r="C756" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8956,7 +8959,7 @@
         <v>25</v>
       </c>
       <c r="C757" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8967,7 +8970,7 @@
         <v>25</v>
       </c>
       <c r="C758" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8978,7 +8981,7 @@
         <v>25</v>
       </c>
       <c r="C759" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8989,7 +8992,7 @@
         <v>25</v>
       </c>
       <c r="C760" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -9000,7 +9003,7 @@
         <v>25</v>
       </c>
       <c r="C761" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -9008,10 +9011,10 @@
         <v>760</v>
       </c>
       <c r="B762" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C762" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -9019,10 +9022,10 @@
         <v>761</v>
       </c>
       <c r="B763" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C763" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -9033,7 +9036,7 @@
         <v>26</v>
       </c>
       <c r="C764" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9044,7 +9047,7 @@
         <v>26</v>
       </c>
       <c r="C765" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9052,10 +9055,10 @@
         <v>764</v>
       </c>
       <c r="B766" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C766" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9063,10 +9066,10 @@
         <v>765</v>
       </c>
       <c r="B767" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C767" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9077,7 +9080,7 @@
         <v>28</v>
       </c>
       <c r="C768" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9088,7 +9091,7 @@
         <v>28</v>
       </c>
       <c r="C769" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9099,7 +9102,7 @@
         <v>28</v>
       </c>
       <c r="C770" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9110,7 +9113,7 @@
         <v>28</v>
       </c>
       <c r="C771" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9121,7 +9124,7 @@
         <v>28</v>
       </c>
       <c r="C772" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9132,7 +9135,7 @@
         <v>28</v>
       </c>
       <c r="C773" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9143,7 +9146,7 @@
         <v>28</v>
       </c>
       <c r="C774" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9154,7 +9157,7 @@
         <v>28</v>
       </c>
       <c r="C775" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9165,7 +9168,7 @@
         <v>28</v>
       </c>
       <c r="C776" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9176,7 +9179,7 @@
         <v>28</v>
       </c>
       <c r="C777" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9187,7 +9190,7 @@
         <v>28</v>
       </c>
       <c r="C778" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9198,7 +9201,7 @@
         <v>28</v>
       </c>
       <c r="C779" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9209,7 +9212,7 @@
         <v>28</v>
       </c>
       <c r="C780" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9220,7 +9223,7 @@
         <v>28</v>
       </c>
       <c r="C781" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9231,7 +9234,7 @@
         <v>28</v>
       </c>
       <c r="C782" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9242,7 +9245,7 @@
         <v>28</v>
       </c>
       <c r="C783" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9253,7 +9256,7 @@
         <v>28</v>
       </c>
       <c r="C784" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9264,7 +9267,7 @@
         <v>28</v>
       </c>
       <c r="C785" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9275,7 +9278,7 @@
         <v>28</v>
       </c>
       <c r="C786" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9286,7 +9289,7 @@
         <v>28</v>
       </c>
       <c r="C787" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9297,7 +9300,7 @@
         <v>28</v>
       </c>
       <c r="C788" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9308,7 +9311,7 @@
         <v>28</v>
       </c>
       <c r="C789" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9319,7 +9322,7 @@
         <v>28</v>
       </c>
       <c r="C790" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9330,7 +9333,7 @@
         <v>28</v>
       </c>
       <c r="C791" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9341,7 +9344,7 @@
         <v>28</v>
       </c>
       <c r="C792" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9352,7 +9355,7 @@
         <v>28</v>
       </c>
       <c r="C793" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9363,7 +9366,7 @@
         <v>28</v>
       </c>
       <c r="C794" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9374,7 +9377,7 @@
         <v>28</v>
       </c>
       <c r="C795" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9385,7 +9388,7 @@
         <v>28</v>
       </c>
       <c r="C796" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9396,7 +9399,7 @@
         <v>28</v>
       </c>
       <c r="C797" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9407,7 +9410,7 @@
         <v>28</v>
       </c>
       <c r="C798" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9418,7 +9421,7 @@
         <v>28</v>
       </c>
       <c r="C799" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9429,7 +9432,7 @@
         <v>28</v>
       </c>
       <c r="C800" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9440,7 +9443,7 @@
         <v>28</v>
       </c>
       <c r="C801" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9451,7 +9454,7 @@
         <v>28</v>
       </c>
       <c r="C802" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9462,7 +9465,7 @@
         <v>28</v>
       </c>
       <c r="C803" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9473,7 +9476,7 @@
         <v>28</v>
       </c>
       <c r="C804" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9484,7 +9487,7 @@
         <v>28</v>
       </c>
       <c r="C805" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9495,7 +9498,7 @@
         <v>28</v>
       </c>
       <c r="C806" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9503,10 +9506,10 @@
         <v>805</v>
       </c>
       <c r="B807" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C807" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9514,10 +9517,10 @@
         <v>806</v>
       </c>
       <c r="B808" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C808" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9525,10 +9528,10 @@
         <v>807</v>
       </c>
       <c r="B809" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C809" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9536,10 +9539,10 @@
         <v>808</v>
       </c>
       <c r="B810" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C810" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9547,10 +9550,10 @@
         <v>809</v>
       </c>
       <c r="B811" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C811" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9558,10 +9561,10 @@
         <v>810</v>
       </c>
       <c r="B812" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C812" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9569,10 +9572,10 @@
         <v>811</v>
       </c>
       <c r="B813" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C813" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9580,10 +9583,10 @@
         <v>812</v>
       </c>
       <c r="B814" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C814" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9591,10 +9594,10 @@
         <v>813</v>
       </c>
       <c r="B815" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C815" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9602,10 +9605,10 @@
         <v>814</v>
       </c>
       <c r="B816" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C816" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9613,10 +9616,10 @@
         <v>815</v>
       </c>
       <c r="B817" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C817" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9627,7 +9630,7 @@
         <v>33</v>
       </c>
       <c r="C818" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9638,7 +9641,7 @@
         <v>33</v>
       </c>
       <c r="C819" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9649,7 +9652,7 @@
         <v>33</v>
       </c>
       <c r="C820" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9660,7 +9663,7 @@
         <v>33</v>
       </c>
       <c r="C821" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9671,7 +9674,7 @@
         <v>33</v>
       </c>
       <c r="C822" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9682,7 +9685,7 @@
         <v>33</v>
       </c>
       <c r="C823" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9693,7 +9696,7 @@
         <v>33</v>
       </c>
       <c r="C824" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9704,7 +9707,7 @@
         <v>33</v>
       </c>
       <c r="C825" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -9715,7 +9718,7 @@
         <v>33</v>
       </c>
       <c r="C826" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9726,7 +9729,7 @@
         <v>33</v>
       </c>
       <c r="C827" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9737,7 +9740,7 @@
         <v>33</v>
       </c>
       <c r="C828" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9748,7 +9751,7 @@
         <v>33</v>
       </c>
       <c r="C829" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9759,7 +9762,7 @@
         <v>33</v>
       </c>
       <c r="C830" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9770,7 +9773,7 @@
         <v>33</v>
       </c>
       <c r="C831" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -9781,7 +9784,7 @@
         <v>33</v>
       </c>
       <c r="C832" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9792,7 +9795,7 @@
         <v>33</v>
       </c>
       <c r="C833" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9803,7 +9806,7 @@
         <v>33</v>
       </c>
       <c r="C834" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9814,7 +9817,7 @@
         <v>33</v>
       </c>
       <c r="C835" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9825,7 +9828,7 @@
         <v>33</v>
       </c>
       <c r="C836" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9836,7 +9839,7 @@
         <v>33</v>
       </c>
       <c r="C837" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9847,7 +9850,7 @@
         <v>33</v>
       </c>
       <c r="C838" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9858,7 +9861,7 @@
         <v>33</v>
       </c>
       <c r="C839" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9869,7 +9872,7 @@
         <v>33</v>
       </c>
       <c r="C840" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9880,7 +9883,7 @@
         <v>33</v>
       </c>
       <c r="C841" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9891,6 +9894,39 @@
         <v>33</v>
       </c>
       <c r="C842" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3">
+      <c r="A843" s="1">
+        <v>841</v>
+      </c>
+      <c r="B843" t="s">
+        <v>33</v>
+      </c>
+      <c r="C843" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3">
+      <c r="A844" s="1">
+        <v>842</v>
+      </c>
+      <c r="B844" t="s">
+        <v>33</v>
+      </c>
+      <c r="C844" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3">
+      <c r="A845" s="1">
+        <v>843</v>
+      </c>
+      <c r="B845" t="s">
+        <v>33</v>
+      </c>
+      <c r="C845" t="s">
         <v>68</v>
       </c>
     </row>

--- a/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="95">
   <si>
     <t>Chromosome</t>
   </si>
@@ -235,10 +235,34 @@
     <t>201194</t>
   </si>
   <si>
+    <t>193002</t>
+  </si>
+  <si>
+    <t>W07391</t>
+  </si>
+  <si>
+    <t>W15206</t>
+  </si>
+  <si>
+    <t>W18776</t>
+  </si>
+  <si>
+    <t>W22650</t>
+  </si>
+  <si>
+    <t>W23713</t>
+  </si>
+  <si>
     <t>W25873</t>
   </si>
   <si>
     <t>W27694</t>
+  </si>
+  <si>
+    <t>W27715</t>
+  </si>
+  <si>
+    <t>181228</t>
   </si>
   <si>
     <t>183873</t>
@@ -632,7 +656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C845"/>
+  <dimension ref="A1:C861"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3701,7 +3725,7 @@
         <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3712,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="C280" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3723,7 +3747,7 @@
         <v>10</v>
       </c>
       <c r="C281" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3734,7 +3758,7 @@
         <v>10</v>
       </c>
       <c r="C282" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3745,7 +3769,7 @@
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3756,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3767,7 +3791,7 @@
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3778,7 +3802,7 @@
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3789,7 +3813,7 @@
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3800,7 +3824,7 @@
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3811,7 +3835,7 @@
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3822,7 +3846,7 @@
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3833,7 +3857,7 @@
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3844,7 +3868,7 @@
         <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3855,7 +3879,7 @@
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3866,7 +3890,7 @@
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3877,7 +3901,7 @@
         <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3888,7 +3912,7 @@
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3899,7 +3923,7 @@
         <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3910,7 +3934,7 @@
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3921,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3932,7 +3956,7 @@
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3943,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3954,7 +3978,7 @@
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3965,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="C303" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3976,7 +4000,7 @@
         <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3987,7 +4011,7 @@
         <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3998,7 +4022,7 @@
         <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4009,7 +4033,7 @@
         <v>10</v>
       </c>
       <c r="C307" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4020,7 +4044,7 @@
         <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4031,7 +4055,7 @@
         <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4042,7 +4066,7 @@
         <v>10</v>
       </c>
       <c r="C310" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4053,7 +4077,7 @@
         <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4064,7 +4088,7 @@
         <v>10</v>
       </c>
       <c r="C312" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4075,7 +4099,7 @@
         <v>10</v>
       </c>
       <c r="C313" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4083,10 +4107,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4094,10 +4118,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4105,10 +4129,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C316" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4116,10 +4140,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4127,10 +4151,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4138,10 +4162,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C319" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4149,10 +4173,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4163,7 +4187,7 @@
         <v>11</v>
       </c>
       <c r="C321" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4174,7 +4198,7 @@
         <v>11</v>
       </c>
       <c r="C322" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4185,7 +4209,7 @@
         <v>11</v>
       </c>
       <c r="C323" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4196,7 +4220,7 @@
         <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4207,7 +4231,7 @@
         <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4218,7 +4242,7 @@
         <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4229,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4240,7 +4264,7 @@
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4251,7 +4275,7 @@
         <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4262,7 +4286,7 @@
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4273,7 +4297,7 @@
         <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4284,7 +4308,7 @@
         <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4295,7 +4319,7 @@
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4306,7 +4330,7 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4317,7 +4341,7 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4328,7 +4352,7 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4339,7 +4363,7 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4350,7 +4374,7 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4361,7 +4385,7 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4372,7 +4396,7 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4383,7 +4407,7 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4394,7 +4418,7 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4405,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4416,7 +4440,7 @@
         <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4427,7 +4451,7 @@
         <v>11</v>
       </c>
       <c r="C345" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4438,7 +4462,7 @@
         <v>11</v>
       </c>
       <c r="C346" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4449,7 +4473,7 @@
         <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4457,10 +4481,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4468,10 +4492,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4479,10 +4503,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4490,10 +4514,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4501,10 +4525,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4512,10 +4536,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4523,10 +4547,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C354" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4537,7 +4561,7 @@
         <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4548,7 +4572,7 @@
         <v>12</v>
       </c>
       <c r="C356" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4559,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4570,7 +4594,7 @@
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4581,7 +4605,7 @@
         <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4592,7 +4616,7 @@
         <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4603,7 +4627,7 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4614,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4625,7 +4649,7 @@
         <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4636,7 +4660,7 @@
         <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4647,7 +4671,7 @@
         <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4658,7 +4682,7 @@
         <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4669,7 +4693,7 @@
         <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4680,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4691,7 +4715,7 @@
         <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4702,7 +4726,7 @@
         <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4713,7 +4737,7 @@
         <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4724,7 +4748,7 @@
         <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4735,7 +4759,7 @@
         <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4746,7 +4770,7 @@
         <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4757,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4768,7 +4792,7 @@
         <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4779,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4790,7 +4814,7 @@
         <v>12</v>
       </c>
       <c r="C378" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4801,7 +4825,7 @@
         <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4812,7 +4836,7 @@
         <v>12</v>
       </c>
       <c r="C380" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4823,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="C381" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4831,10 +4855,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C382" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4842,10 +4866,10 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C383" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4853,10 +4877,10 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C384" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4864,10 +4888,10 @@
         <v>383</v>
       </c>
       <c r="B385" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C385" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4875,10 +4899,10 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C386" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4886,10 +4910,10 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C387" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4897,10 +4921,10 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4911,7 +4935,7 @@
         <v>13</v>
       </c>
       <c r="C389" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4922,7 +4946,7 @@
         <v>13</v>
       </c>
       <c r="C390" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4933,7 +4957,7 @@
         <v>13</v>
       </c>
       <c r="C391" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4944,7 +4968,7 @@
         <v>13</v>
       </c>
       <c r="C392" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4955,7 +4979,7 @@
         <v>13</v>
       </c>
       <c r="C393" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4966,7 +4990,7 @@
         <v>13</v>
       </c>
       <c r="C394" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4977,7 +5001,7 @@
         <v>13</v>
       </c>
       <c r="C395" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4988,7 +5012,7 @@
         <v>13</v>
       </c>
       <c r="C396" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4999,7 +5023,7 @@
         <v>13</v>
       </c>
       <c r="C397" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -5010,7 +5034,7 @@
         <v>13</v>
       </c>
       <c r="C398" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -5021,7 +5045,7 @@
         <v>13</v>
       </c>
       <c r="C399" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -5032,7 +5056,7 @@
         <v>13</v>
       </c>
       <c r="C400" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5043,7 +5067,7 @@
         <v>13</v>
       </c>
       <c r="C401" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5054,7 +5078,7 @@
         <v>13</v>
       </c>
       <c r="C402" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5065,7 +5089,7 @@
         <v>13</v>
       </c>
       <c r="C403" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5076,7 +5100,7 @@
         <v>13</v>
       </c>
       <c r="C404" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5087,7 +5111,7 @@
         <v>13</v>
       </c>
       <c r="C405" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5098,7 +5122,7 @@
         <v>13</v>
       </c>
       <c r="C406" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5109,7 +5133,7 @@
         <v>13</v>
       </c>
       <c r="C407" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5120,7 +5144,7 @@
         <v>13</v>
       </c>
       <c r="C408" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5131,7 +5155,7 @@
         <v>13</v>
       </c>
       <c r="C409" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5142,7 +5166,7 @@
         <v>13</v>
       </c>
       <c r="C410" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5153,7 +5177,7 @@
         <v>13</v>
       </c>
       <c r="C411" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5164,7 +5188,7 @@
         <v>13</v>
       </c>
       <c r="C412" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5175,7 +5199,7 @@
         <v>13</v>
       </c>
       <c r="C413" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5186,7 +5210,7 @@
         <v>13</v>
       </c>
       <c r="C414" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5197,7 +5221,7 @@
         <v>13</v>
       </c>
       <c r="C415" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5205,10 +5229,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C416" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5216,10 +5240,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C417" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5227,10 +5251,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C418" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5238,10 +5262,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C419" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5249,10 +5273,10 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C420" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5260,10 +5284,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C421" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5271,10 +5295,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C422" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5285,7 +5309,7 @@
         <v>14</v>
       </c>
       <c r="C423" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5296,7 +5320,7 @@
         <v>14</v>
       </c>
       <c r="C424" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5307,7 +5331,7 @@
         <v>14</v>
       </c>
       <c r="C425" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5318,7 +5342,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5329,7 +5353,7 @@
         <v>14</v>
       </c>
       <c r="C427" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5340,7 +5364,7 @@
         <v>14</v>
       </c>
       <c r="C428" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5351,7 +5375,7 @@
         <v>14</v>
       </c>
       <c r="C429" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5362,7 +5386,7 @@
         <v>14</v>
       </c>
       <c r="C430" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5373,7 +5397,7 @@
         <v>14</v>
       </c>
       <c r="C431" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5384,7 +5408,7 @@
         <v>14</v>
       </c>
       <c r="C432" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5395,7 +5419,7 @@
         <v>14</v>
       </c>
       <c r="C433" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5406,7 +5430,7 @@
         <v>14</v>
       </c>
       <c r="C434" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5417,7 +5441,7 @@
         <v>14</v>
       </c>
       <c r="C435" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5428,7 +5452,7 @@
         <v>14</v>
       </c>
       <c r="C436" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5439,7 +5463,7 @@
         <v>14</v>
       </c>
       <c r="C437" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5450,7 +5474,7 @@
         <v>14</v>
       </c>
       <c r="C438" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5461,7 +5485,7 @@
         <v>14</v>
       </c>
       <c r="C439" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5472,7 +5496,7 @@
         <v>14</v>
       </c>
       <c r="C440" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5483,7 +5507,7 @@
         <v>14</v>
       </c>
       <c r="C441" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5494,7 +5518,7 @@
         <v>14</v>
       </c>
       <c r="C442" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5505,7 +5529,7 @@
         <v>14</v>
       </c>
       <c r="C443" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5516,7 +5540,7 @@
         <v>14</v>
       </c>
       <c r="C444" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5527,7 +5551,7 @@
         <v>14</v>
       </c>
       <c r="C445" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5538,7 +5562,7 @@
         <v>14</v>
       </c>
       <c r="C446" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5549,7 +5573,7 @@
         <v>14</v>
       </c>
       <c r="C447" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5560,7 +5584,7 @@
         <v>14</v>
       </c>
       <c r="C448" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5571,7 +5595,7 @@
         <v>14</v>
       </c>
       <c r="C449" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5579,10 +5603,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C450" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5590,10 +5614,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C451" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5601,10 +5625,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C452" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5612,10 +5636,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C453" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5623,10 +5647,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C454" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5634,10 +5658,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C455" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5645,10 +5669,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C456" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5659,7 +5683,7 @@
         <v>15</v>
       </c>
       <c r="C457" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5670,7 +5694,7 @@
         <v>15</v>
       </c>
       <c r="C458" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5681,7 +5705,7 @@
         <v>15</v>
       </c>
       <c r="C459" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5692,7 +5716,7 @@
         <v>15</v>
       </c>
       <c r="C460" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5703,7 +5727,7 @@
         <v>15</v>
       </c>
       <c r="C461" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5714,7 +5738,7 @@
         <v>15</v>
       </c>
       <c r="C462" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5725,7 +5749,7 @@
         <v>15</v>
       </c>
       <c r="C463" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5736,7 +5760,7 @@
         <v>15</v>
       </c>
       <c r="C464" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5747,7 +5771,7 @@
         <v>15</v>
       </c>
       <c r="C465" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5758,7 +5782,7 @@
         <v>15</v>
       </c>
       <c r="C466" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5769,7 +5793,7 @@
         <v>15</v>
       </c>
       <c r="C467" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5780,7 +5804,7 @@
         <v>15</v>
       </c>
       <c r="C468" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5791,7 +5815,7 @@
         <v>15</v>
       </c>
       <c r="C469" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5802,7 +5826,7 @@
         <v>15</v>
       </c>
       <c r="C470" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5813,7 +5837,7 @@
         <v>15</v>
       </c>
       <c r="C471" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5824,7 +5848,7 @@
         <v>15</v>
       </c>
       <c r="C472" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5835,7 +5859,7 @@
         <v>15</v>
       </c>
       <c r="C473" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5846,7 +5870,7 @@
         <v>15</v>
       </c>
       <c r="C474" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5857,7 +5881,7 @@
         <v>15</v>
       </c>
       <c r="C475" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5868,7 +5892,7 @@
         <v>15</v>
       </c>
       <c r="C476" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5879,7 +5903,7 @@
         <v>15</v>
       </c>
       <c r="C477" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5890,7 +5914,7 @@
         <v>15</v>
       </c>
       <c r="C478" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5901,7 +5925,7 @@
         <v>15</v>
       </c>
       <c r="C479" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5912,7 +5936,7 @@
         <v>15</v>
       </c>
       <c r="C480" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5923,7 +5947,7 @@
         <v>15</v>
       </c>
       <c r="C481" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5934,7 +5958,7 @@
         <v>15</v>
       </c>
       <c r="C482" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5945,7 +5969,7 @@
         <v>15</v>
       </c>
       <c r="C483" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5953,10 +5977,10 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C484" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5964,10 +5988,10 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C485" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5975,10 +5999,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C486" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5986,10 +6010,10 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C487" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5997,10 +6021,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C488" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -6008,10 +6032,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C489" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -6019,10 +6043,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C490" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -6033,7 +6057,7 @@
         <v>16</v>
       </c>
       <c r="C491" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6044,7 +6068,7 @@
         <v>16</v>
       </c>
       <c r="C492" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6055,7 +6079,7 @@
         <v>16</v>
       </c>
       <c r="C493" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6066,7 +6090,7 @@
         <v>16</v>
       </c>
       <c r="C494" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6077,7 +6101,7 @@
         <v>16</v>
       </c>
       <c r="C495" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6088,7 +6112,7 @@
         <v>16</v>
       </c>
       <c r="C496" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6099,7 +6123,7 @@
         <v>16</v>
       </c>
       <c r="C497" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6110,7 +6134,7 @@
         <v>16</v>
       </c>
       <c r="C498" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6121,7 +6145,7 @@
         <v>16</v>
       </c>
       <c r="C499" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6132,7 +6156,7 @@
         <v>16</v>
       </c>
       <c r="C500" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6143,7 +6167,7 @@
         <v>16</v>
       </c>
       <c r="C501" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6154,7 +6178,7 @@
         <v>16</v>
       </c>
       <c r="C502" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6165,7 +6189,7 @@
         <v>16</v>
       </c>
       <c r="C503" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6176,7 +6200,7 @@
         <v>16</v>
       </c>
       <c r="C504" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6187,7 +6211,7 @@
         <v>16</v>
       </c>
       <c r="C505" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6198,7 +6222,7 @@
         <v>16</v>
       </c>
       <c r="C506" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6209,7 +6233,7 @@
         <v>16</v>
       </c>
       <c r="C507" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6220,7 +6244,7 @@
         <v>16</v>
       </c>
       <c r="C508" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6231,7 +6255,7 @@
         <v>16</v>
       </c>
       <c r="C509" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6242,7 +6266,7 @@
         <v>16</v>
       </c>
       <c r="C510" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6253,7 +6277,7 @@
         <v>16</v>
       </c>
       <c r="C511" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6264,7 +6288,7 @@
         <v>16</v>
       </c>
       <c r="C512" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6275,7 +6299,7 @@
         <v>16</v>
       </c>
       <c r="C513" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6286,7 +6310,7 @@
         <v>16</v>
       </c>
       <c r="C514" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6297,7 +6321,7 @@
         <v>16</v>
       </c>
       <c r="C515" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6308,7 +6332,7 @@
         <v>16</v>
       </c>
       <c r="C516" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6319,7 +6343,7 @@
         <v>16</v>
       </c>
       <c r="C517" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6327,10 +6351,10 @@
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C518" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6338,10 +6362,10 @@
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C519" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6349,10 +6373,10 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C520" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6360,10 +6384,10 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C521" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6371,10 +6395,10 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C522" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6382,10 +6406,10 @@
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C523" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6393,10 +6417,10 @@
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C524" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6407,7 +6431,7 @@
         <v>17</v>
       </c>
       <c r="C525" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6418,7 +6442,7 @@
         <v>17</v>
       </c>
       <c r="C526" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6429,7 +6453,7 @@
         <v>17</v>
       </c>
       <c r="C527" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6440,7 +6464,7 @@
         <v>17</v>
       </c>
       <c r="C528" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6451,7 +6475,7 @@
         <v>17</v>
       </c>
       <c r="C529" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6462,7 +6486,7 @@
         <v>17</v>
       </c>
       <c r="C530" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6473,7 +6497,7 @@
         <v>17</v>
       </c>
       <c r="C531" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6484,7 +6508,7 @@
         <v>17</v>
       </c>
       <c r="C532" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6495,7 +6519,7 @@
         <v>17</v>
       </c>
       <c r="C533" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6506,7 +6530,7 @@
         <v>17</v>
       </c>
       <c r="C534" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6517,7 +6541,7 @@
         <v>17</v>
       </c>
       <c r="C535" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6528,7 +6552,7 @@
         <v>17</v>
       </c>
       <c r="C536" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6539,7 +6563,7 @@
         <v>17</v>
       </c>
       <c r="C537" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6550,7 +6574,7 @@
         <v>17</v>
       </c>
       <c r="C538" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6561,7 +6585,7 @@
         <v>17</v>
       </c>
       <c r="C539" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6572,7 +6596,7 @@
         <v>17</v>
       </c>
       <c r="C540" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6583,7 +6607,7 @@
         <v>17</v>
       </c>
       <c r="C541" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6594,7 +6618,7 @@
         <v>17</v>
       </c>
       <c r="C542" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6605,7 +6629,7 @@
         <v>17</v>
       </c>
       <c r="C543" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6616,7 +6640,7 @@
         <v>17</v>
       </c>
       <c r="C544" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6627,7 +6651,7 @@
         <v>17</v>
       </c>
       <c r="C545" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6638,7 +6662,7 @@
         <v>17</v>
       </c>
       <c r="C546" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6649,7 +6673,7 @@
         <v>17</v>
       </c>
       <c r="C547" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6660,7 +6684,7 @@
         <v>17</v>
       </c>
       <c r="C548" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6671,7 +6695,7 @@
         <v>17</v>
       </c>
       <c r="C549" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6682,7 +6706,7 @@
         <v>17</v>
       </c>
       <c r="C550" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6693,7 +6717,7 @@
         <v>17</v>
       </c>
       <c r="C551" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6701,10 +6725,10 @@
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C552" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6712,10 +6736,10 @@
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C553" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6723,10 +6747,10 @@
         <v>552</v>
       </c>
       <c r="B554" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C554" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6734,10 +6758,10 @@
         <v>553</v>
       </c>
       <c r="B555" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C555" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6745,10 +6769,10 @@
         <v>554</v>
       </c>
       <c r="B556" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C556" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6756,10 +6780,10 @@
         <v>555</v>
       </c>
       <c r="B557" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C557" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6767,10 +6791,10 @@
         <v>556</v>
       </c>
       <c r="B558" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C558" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6781,7 +6805,7 @@
         <v>18</v>
       </c>
       <c r="C559" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6792,7 +6816,7 @@
         <v>18</v>
       </c>
       <c r="C560" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6803,7 +6827,7 @@
         <v>18</v>
       </c>
       <c r="C561" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6814,7 +6838,7 @@
         <v>18</v>
       </c>
       <c r="C562" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6825,7 +6849,7 @@
         <v>18</v>
       </c>
       <c r="C563" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6836,7 +6860,7 @@
         <v>18</v>
       </c>
       <c r="C564" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6847,7 +6871,7 @@
         <v>18</v>
       </c>
       <c r="C565" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6858,7 +6882,7 @@
         <v>18</v>
       </c>
       <c r="C566" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6869,7 +6893,7 @@
         <v>18</v>
       </c>
       <c r="C567" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6880,7 +6904,7 @@
         <v>18</v>
       </c>
       <c r="C568" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6891,7 +6915,7 @@
         <v>18</v>
       </c>
       <c r="C569" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6902,7 +6926,7 @@
         <v>18</v>
       </c>
       <c r="C570" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6913,7 +6937,7 @@
         <v>18</v>
       </c>
       <c r="C571" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6924,7 +6948,7 @@
         <v>18</v>
       </c>
       <c r="C572" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6935,7 +6959,7 @@
         <v>18</v>
       </c>
       <c r="C573" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6946,7 +6970,7 @@
         <v>18</v>
       </c>
       <c r="C574" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6957,7 +6981,7 @@
         <v>18</v>
       </c>
       <c r="C575" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6968,7 +6992,7 @@
         <v>18</v>
       </c>
       <c r="C576" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6979,7 +7003,7 @@
         <v>18</v>
       </c>
       <c r="C577" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6990,7 +7014,7 @@
         <v>18</v>
       </c>
       <c r="C578" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -7001,7 +7025,7 @@
         <v>18</v>
       </c>
       <c r="C579" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -7012,7 +7036,7 @@
         <v>18</v>
       </c>
       <c r="C580" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -7023,7 +7047,7 @@
         <v>18</v>
       </c>
       <c r="C581" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -7034,7 +7058,7 @@
         <v>18</v>
       </c>
       <c r="C582" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7045,7 +7069,7 @@
         <v>18</v>
       </c>
       <c r="C583" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7056,7 +7080,7 @@
         <v>18</v>
       </c>
       <c r="C584" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7067,7 +7091,7 @@
         <v>18</v>
       </c>
       <c r="C585" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7075,10 +7099,10 @@
         <v>584</v>
       </c>
       <c r="B586" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C586" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7086,10 +7110,10 @@
         <v>585</v>
       </c>
       <c r="B587" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C587" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7097,10 +7121,10 @@
         <v>586</v>
       </c>
       <c r="B588" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C588" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7108,10 +7132,10 @@
         <v>587</v>
       </c>
       <c r="B589" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C589" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7119,10 +7143,10 @@
         <v>588</v>
       </c>
       <c r="B590" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C590" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7130,10 +7154,10 @@
         <v>589</v>
       </c>
       <c r="B591" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C591" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7141,10 +7165,10 @@
         <v>590</v>
       </c>
       <c r="B592" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C592" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7155,7 +7179,7 @@
         <v>19</v>
       </c>
       <c r="C593" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7166,7 +7190,7 @@
         <v>19</v>
       </c>
       <c r="C594" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7177,7 +7201,7 @@
         <v>19</v>
       </c>
       <c r="C595" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7188,7 +7212,7 @@
         <v>19</v>
       </c>
       <c r="C596" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -7199,7 +7223,7 @@
         <v>19</v>
       </c>
       <c r="C597" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7210,7 +7234,7 @@
         <v>19</v>
       </c>
       <c r="C598" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7221,7 +7245,7 @@
         <v>19</v>
       </c>
       <c r="C599" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7232,7 +7256,7 @@
         <v>19</v>
       </c>
       <c r="C600" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7243,7 +7267,7 @@
         <v>19</v>
       </c>
       <c r="C601" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7254,7 +7278,7 @@
         <v>19</v>
       </c>
       <c r="C602" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7265,7 +7289,7 @@
         <v>19</v>
       </c>
       <c r="C603" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7276,7 +7300,7 @@
         <v>19</v>
       </c>
       <c r="C604" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7287,7 +7311,7 @@
         <v>19</v>
       </c>
       <c r="C605" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7298,7 +7322,7 @@
         <v>19</v>
       </c>
       <c r="C606" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7309,7 +7333,7 @@
         <v>19</v>
       </c>
       <c r="C607" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7320,7 +7344,7 @@
         <v>19</v>
       </c>
       <c r="C608" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7331,7 +7355,7 @@
         <v>19</v>
       </c>
       <c r="C609" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7342,7 +7366,7 @@
         <v>19</v>
       </c>
       <c r="C610" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7353,7 +7377,7 @@
         <v>19</v>
       </c>
       <c r="C611" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7364,7 +7388,7 @@
         <v>19</v>
       </c>
       <c r="C612" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7375,7 +7399,7 @@
         <v>19</v>
       </c>
       <c r="C613" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7386,7 +7410,7 @@
         <v>19</v>
       </c>
       <c r="C614" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7397,7 +7421,7 @@
         <v>19</v>
       </c>
       <c r="C615" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7408,7 +7432,7 @@
         <v>19</v>
       </c>
       <c r="C616" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7419,7 +7443,7 @@
         <v>19</v>
       </c>
       <c r="C617" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7430,7 +7454,7 @@
         <v>19</v>
       </c>
       <c r="C618" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7441,7 +7465,7 @@
         <v>19</v>
       </c>
       <c r="C619" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7452,7 +7476,7 @@
         <v>19</v>
       </c>
       <c r="C620" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7463,7 +7487,7 @@
         <v>19</v>
       </c>
       <c r="C621" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7474,7 +7498,7 @@
         <v>19</v>
       </c>
       <c r="C622" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7485,7 +7509,7 @@
         <v>19</v>
       </c>
       <c r="C623" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7493,10 +7517,10 @@
         <v>622</v>
       </c>
       <c r="B624" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C624" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7504,10 +7528,10 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C625" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7515,10 +7539,10 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C626" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7526,10 +7550,10 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C627" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7537,10 +7561,10 @@
         <v>626</v>
       </c>
       <c r="B628" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C628" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7548,10 +7572,10 @@
         <v>627</v>
       </c>
       <c r="B629" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C629" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7559,10 +7583,10 @@
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C630" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7570,10 +7594,10 @@
         <v>629</v>
       </c>
       <c r="B631" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C631" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7581,10 +7605,10 @@
         <v>630</v>
       </c>
       <c r="B632" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C632" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7592,10 +7616,10 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C633" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7603,10 +7627,10 @@
         <v>632</v>
       </c>
       <c r="B634" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C634" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7614,10 +7638,10 @@
         <v>633</v>
       </c>
       <c r="B635" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C635" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7625,10 +7649,10 @@
         <v>634</v>
       </c>
       <c r="B636" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C636" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7639,7 +7663,7 @@
         <v>22</v>
       </c>
       <c r="C637" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7650,7 +7674,7 @@
         <v>22</v>
       </c>
       <c r="C638" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7661,7 +7685,7 @@
         <v>22</v>
       </c>
       <c r="C639" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7672,7 +7696,7 @@
         <v>22</v>
       </c>
       <c r="C640" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7683,7 +7707,7 @@
         <v>22</v>
       </c>
       <c r="C641" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7694,7 +7718,7 @@
         <v>22</v>
       </c>
       <c r="C642" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7705,7 +7729,7 @@
         <v>22</v>
       </c>
       <c r="C643" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7716,7 +7740,7 @@
         <v>22</v>
       </c>
       <c r="C644" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7727,7 +7751,7 @@
         <v>22</v>
       </c>
       <c r="C645" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7738,7 +7762,7 @@
         <v>22</v>
       </c>
       <c r="C646" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7749,7 +7773,7 @@
         <v>22</v>
       </c>
       <c r="C647" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7760,7 +7784,7 @@
         <v>22</v>
       </c>
       <c r="C648" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7771,7 +7795,7 @@
         <v>22</v>
       </c>
       <c r="C649" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7782,7 +7806,7 @@
         <v>22</v>
       </c>
       <c r="C650" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7793,7 +7817,7 @@
         <v>22</v>
       </c>
       <c r="C651" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7804,7 +7828,7 @@
         <v>22</v>
       </c>
       <c r="C652" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7815,7 +7839,7 @@
         <v>22</v>
       </c>
       <c r="C653" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7826,7 +7850,7 @@
         <v>22</v>
       </c>
       <c r="C654" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7837,7 +7861,7 @@
         <v>22</v>
       </c>
       <c r="C655" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7848,7 +7872,7 @@
         <v>22</v>
       </c>
       <c r="C656" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7859,7 +7883,7 @@
         <v>22</v>
       </c>
       <c r="C657" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7870,7 +7894,7 @@
         <v>22</v>
       </c>
       <c r="C658" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7881,7 +7905,7 @@
         <v>22</v>
       </c>
       <c r="C659" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7892,7 +7916,7 @@
         <v>22</v>
       </c>
       <c r="C660" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7903,7 +7927,7 @@
         <v>22</v>
       </c>
       <c r="C661" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7911,10 +7935,10 @@
         <v>660</v>
       </c>
       <c r="B662" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C662" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7922,10 +7946,10 @@
         <v>661</v>
       </c>
       <c r="B663" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C663" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7933,10 +7957,10 @@
         <v>662</v>
       </c>
       <c r="B664" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C664" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7944,10 +7968,10 @@
         <v>663</v>
       </c>
       <c r="B665" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C665" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7955,10 +7979,10 @@
         <v>664</v>
       </c>
       <c r="B666" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C666" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7966,10 +7990,10 @@
         <v>665</v>
       </c>
       <c r="B667" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C667" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -7977,10 +8001,10 @@
         <v>666</v>
       </c>
       <c r="B668" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C668" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -7988,10 +8012,10 @@
         <v>667</v>
       </c>
       <c r="B669" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C669" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7999,10 +8023,10 @@
         <v>668</v>
       </c>
       <c r="B670" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C670" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -8013,7 +8037,7 @@
         <v>23</v>
       </c>
       <c r="C671" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -8024,7 +8048,7 @@
         <v>23</v>
       </c>
       <c r="C672" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -8035,7 +8059,7 @@
         <v>23</v>
       </c>
       <c r="C673" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8046,7 +8070,7 @@
         <v>23</v>
       </c>
       <c r="C674" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8057,7 +8081,7 @@
         <v>23</v>
       </c>
       <c r="C675" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8068,7 +8092,7 @@
         <v>23</v>
       </c>
       <c r="C676" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8079,7 +8103,7 @@
         <v>23</v>
       </c>
       <c r="C677" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8090,7 +8114,7 @@
         <v>23</v>
       </c>
       <c r="C678" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8101,7 +8125,7 @@
         <v>23</v>
       </c>
       <c r="C679" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8112,7 +8136,7 @@
         <v>23</v>
       </c>
       <c r="C680" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8123,7 +8147,7 @@
         <v>23</v>
       </c>
       <c r="C681" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8134,7 +8158,7 @@
         <v>23</v>
       </c>
       <c r="C682" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8145,7 +8169,7 @@
         <v>23</v>
       </c>
       <c r="C683" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8156,7 +8180,7 @@
         <v>23</v>
       </c>
       <c r="C684" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8167,7 +8191,7 @@
         <v>23</v>
       </c>
       <c r="C685" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8178,7 +8202,7 @@
         <v>23</v>
       </c>
       <c r="C686" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8189,7 +8213,7 @@
         <v>23</v>
       </c>
       <c r="C687" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8200,7 +8224,7 @@
         <v>23</v>
       </c>
       <c r="C688" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8211,7 +8235,7 @@
         <v>23</v>
       </c>
       <c r="C689" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8222,7 +8246,7 @@
         <v>23</v>
       </c>
       <c r="C690" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8233,7 +8257,7 @@
         <v>23</v>
       </c>
       <c r="C691" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8244,7 +8268,7 @@
         <v>23</v>
       </c>
       <c r="C692" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8255,7 +8279,7 @@
         <v>23</v>
       </c>
       <c r="C693" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8266,7 +8290,7 @@
         <v>23</v>
       </c>
       <c r="C694" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8277,7 +8301,7 @@
         <v>23</v>
       </c>
       <c r="C695" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8285,10 +8309,10 @@
         <v>694</v>
       </c>
       <c r="B696" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C696" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8296,10 +8320,10 @@
         <v>695</v>
       </c>
       <c r="B697" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C697" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8307,10 +8331,10 @@
         <v>696</v>
       </c>
       <c r="B698" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C698" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8318,10 +8342,10 @@
         <v>697</v>
       </c>
       <c r="B699" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C699" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8329,10 +8353,10 @@
         <v>698</v>
       </c>
       <c r="B700" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C700" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8340,10 +8364,10 @@
         <v>699</v>
       </c>
       <c r="B701" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C701" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8351,10 +8375,10 @@
         <v>700</v>
       </c>
       <c r="B702" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C702" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8362,10 +8386,10 @@
         <v>701</v>
       </c>
       <c r="B703" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C703" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8373,10 +8397,10 @@
         <v>702</v>
       </c>
       <c r="B704" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C704" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8387,7 +8411,7 @@
         <v>24</v>
       </c>
       <c r="C705" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8398,7 +8422,7 @@
         <v>24</v>
       </c>
       <c r="C706" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8409,7 +8433,7 @@
         <v>24</v>
       </c>
       <c r="C707" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8420,7 +8444,7 @@
         <v>24</v>
       </c>
       <c r="C708" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8431,7 +8455,7 @@
         <v>24</v>
       </c>
       <c r="C709" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8442,7 +8466,7 @@
         <v>24</v>
       </c>
       <c r="C710" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8453,7 +8477,7 @@
         <v>24</v>
       </c>
       <c r="C711" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8464,7 +8488,7 @@
         <v>24</v>
       </c>
       <c r="C712" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8475,7 +8499,7 @@
         <v>24</v>
       </c>
       <c r="C713" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8486,7 +8510,7 @@
         <v>24</v>
       </c>
       <c r="C714" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8497,7 +8521,7 @@
         <v>24</v>
       </c>
       <c r="C715" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8508,7 +8532,7 @@
         <v>24</v>
       </c>
       <c r="C716" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8519,7 +8543,7 @@
         <v>24</v>
       </c>
       <c r="C717" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8530,7 +8554,7 @@
         <v>24</v>
       </c>
       <c r="C718" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8541,7 +8565,7 @@
         <v>24</v>
       </c>
       <c r="C719" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8552,7 +8576,7 @@
         <v>24</v>
       </c>
       <c r="C720" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8563,7 +8587,7 @@
         <v>24</v>
       </c>
       <c r="C721" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8574,7 +8598,7 @@
         <v>24</v>
       </c>
       <c r="C722" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8585,7 +8609,7 @@
         <v>24</v>
       </c>
       <c r="C723" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8596,7 +8620,7 @@
         <v>24</v>
       </c>
       <c r="C724" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8607,7 +8631,7 @@
         <v>24</v>
       </c>
       <c r="C725" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8618,7 +8642,7 @@
         <v>24</v>
       </c>
       <c r="C726" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8629,7 +8653,7 @@
         <v>24</v>
       </c>
       <c r="C727" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8640,7 +8664,7 @@
         <v>24</v>
       </c>
       <c r="C728" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8651,7 +8675,7 @@
         <v>24</v>
       </c>
       <c r="C729" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8659,10 +8683,10 @@
         <v>728</v>
       </c>
       <c r="B730" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C730" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8670,10 +8694,10 @@
         <v>729</v>
       </c>
       <c r="B731" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C731" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8681,10 +8705,10 @@
         <v>730</v>
       </c>
       <c r="B732" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C732" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8692,10 +8716,10 @@
         <v>731</v>
       </c>
       <c r="B733" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C733" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8703,10 +8727,10 @@
         <v>732</v>
       </c>
       <c r="B734" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C734" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8714,10 +8738,10 @@
         <v>733</v>
       </c>
       <c r="B735" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C735" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8725,10 +8749,10 @@
         <v>734</v>
       </c>
       <c r="B736" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C736" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8736,10 +8760,10 @@
         <v>735</v>
       </c>
       <c r="B737" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C737" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8747,10 +8771,10 @@
         <v>736</v>
       </c>
       <c r="B738" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C738" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8761,7 +8785,7 @@
         <v>25</v>
       </c>
       <c r="C739" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8772,7 +8796,7 @@
         <v>25</v>
       </c>
       <c r="C740" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8783,7 +8807,7 @@
         <v>25</v>
       </c>
       <c r="C741" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8794,7 +8818,7 @@
         <v>25</v>
       </c>
       <c r="C742" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8805,7 +8829,7 @@
         <v>25</v>
       </c>
       <c r="C743" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8816,7 +8840,7 @@
         <v>25</v>
       </c>
       <c r="C744" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8827,7 +8851,7 @@
         <v>25</v>
       </c>
       <c r="C745" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8838,7 +8862,7 @@
         <v>25</v>
       </c>
       <c r="C746" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8849,7 +8873,7 @@
         <v>25</v>
       </c>
       <c r="C747" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8860,7 +8884,7 @@
         <v>25</v>
       </c>
       <c r="C748" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8871,7 +8895,7 @@
         <v>25</v>
       </c>
       <c r="C749" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8882,7 +8906,7 @@
         <v>25</v>
       </c>
       <c r="C750" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8893,7 +8917,7 @@
         <v>25</v>
       </c>
       <c r="C751" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8904,7 +8928,7 @@
         <v>25</v>
       </c>
       <c r="C752" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8915,7 +8939,7 @@
         <v>25</v>
       </c>
       <c r="C753" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8926,7 +8950,7 @@
         <v>25</v>
       </c>
       <c r="C754" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8937,7 +8961,7 @@
         <v>25</v>
       </c>
       <c r="C755" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8948,7 +8972,7 @@
         <v>25</v>
       </c>
       <c r="C756" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8959,7 +8983,7 @@
         <v>25</v>
       </c>
       <c r="C757" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8970,7 +8994,7 @@
         <v>25</v>
       </c>
       <c r="C758" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -8981,7 +9005,7 @@
         <v>25</v>
       </c>
       <c r="C759" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -8992,7 +9016,7 @@
         <v>25</v>
       </c>
       <c r="C760" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -9003,7 +9027,7 @@
         <v>25</v>
       </c>
       <c r="C761" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -9014,7 +9038,7 @@
         <v>25</v>
       </c>
       <c r="C762" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -9025,7 +9049,7 @@
         <v>25</v>
       </c>
       <c r="C763" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -9033,10 +9057,10 @@
         <v>762</v>
       </c>
       <c r="B764" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C764" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9044,10 +9068,10 @@
         <v>763</v>
       </c>
       <c r="B765" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C765" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9055,10 +9079,10 @@
         <v>764</v>
       </c>
       <c r="B766" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C766" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9066,10 +9090,10 @@
         <v>765</v>
       </c>
       <c r="B767" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C767" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9077,10 +9101,10 @@
         <v>766</v>
       </c>
       <c r="B768" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C768" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9088,10 +9112,10 @@
         <v>767</v>
       </c>
       <c r="B769" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C769" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9099,10 +9123,10 @@
         <v>768</v>
       </c>
       <c r="B770" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C770" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9110,10 +9134,10 @@
         <v>769</v>
       </c>
       <c r="B771" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C771" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9121,10 +9145,10 @@
         <v>770</v>
       </c>
       <c r="B772" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C772" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9132,10 +9156,10 @@
         <v>771</v>
       </c>
       <c r="B773" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C773" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9143,10 +9167,10 @@
         <v>772</v>
       </c>
       <c r="B774" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C774" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9154,10 +9178,10 @@
         <v>773</v>
       </c>
       <c r="B775" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C775" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9165,10 +9189,10 @@
         <v>774</v>
       </c>
       <c r="B776" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C776" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9176,10 +9200,10 @@
         <v>775</v>
       </c>
       <c r="B777" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C777" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9187,10 +9211,10 @@
         <v>776</v>
       </c>
       <c r="B778" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C778" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9198,10 +9222,10 @@
         <v>777</v>
       </c>
       <c r="B779" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C779" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9209,10 +9233,10 @@
         <v>778</v>
       </c>
       <c r="B780" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C780" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9220,10 +9244,10 @@
         <v>779</v>
       </c>
       <c r="B781" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C781" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9231,10 +9255,10 @@
         <v>780</v>
       </c>
       <c r="B782" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C782" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9242,10 +9266,10 @@
         <v>781</v>
       </c>
       <c r="B783" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C783" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9256,7 +9280,7 @@
         <v>28</v>
       </c>
       <c r="C784" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9267,7 +9291,7 @@
         <v>28</v>
       </c>
       <c r="C785" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9278,7 +9302,7 @@
         <v>28</v>
       </c>
       <c r="C786" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9289,7 +9313,7 @@
         <v>28</v>
       </c>
       <c r="C787" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9300,7 +9324,7 @@
         <v>28</v>
       </c>
       <c r="C788" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9311,7 +9335,7 @@
         <v>28</v>
       </c>
       <c r="C789" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9322,7 +9346,7 @@
         <v>28</v>
       </c>
       <c r="C790" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9333,7 +9357,7 @@
         <v>28</v>
       </c>
       <c r="C791" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9344,7 +9368,7 @@
         <v>28</v>
       </c>
       <c r="C792" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9355,7 +9379,7 @@
         <v>28</v>
       </c>
       <c r="C793" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9366,7 +9390,7 @@
         <v>28</v>
       </c>
       <c r="C794" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9377,7 +9401,7 @@
         <v>28</v>
       </c>
       <c r="C795" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9388,7 +9412,7 @@
         <v>28</v>
       </c>
       <c r="C796" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9399,7 +9423,7 @@
         <v>28</v>
       </c>
       <c r="C797" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9410,7 +9434,7 @@
         <v>28</v>
       </c>
       <c r="C798" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9421,7 +9445,7 @@
         <v>28</v>
       </c>
       <c r="C799" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9432,7 +9456,7 @@
         <v>28</v>
       </c>
       <c r="C800" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9443,7 +9467,7 @@
         <v>28</v>
       </c>
       <c r="C801" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9454,7 +9478,7 @@
         <v>28</v>
       </c>
       <c r="C802" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9465,7 +9489,7 @@
         <v>28</v>
       </c>
       <c r="C803" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9476,7 +9500,7 @@
         <v>28</v>
       </c>
       <c r="C804" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9487,7 +9511,7 @@
         <v>28</v>
       </c>
       <c r="C805" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9498,7 +9522,7 @@
         <v>28</v>
       </c>
       <c r="C806" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9509,7 +9533,7 @@
         <v>28</v>
       </c>
       <c r="C807" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9520,7 +9544,7 @@
         <v>28</v>
       </c>
       <c r="C808" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9528,10 +9552,10 @@
         <v>807</v>
       </c>
       <c r="B809" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C809" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9539,10 +9563,10 @@
         <v>808</v>
       </c>
       <c r="B810" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C810" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9550,10 +9574,10 @@
         <v>809</v>
       </c>
       <c r="B811" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C811" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9561,10 +9585,10 @@
         <v>810</v>
       </c>
       <c r="B812" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C812" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9572,10 +9596,10 @@
         <v>811</v>
       </c>
       <c r="B813" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C813" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9583,10 +9607,10 @@
         <v>812</v>
       </c>
       <c r="B814" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C814" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9594,10 +9618,10 @@
         <v>813</v>
       </c>
       <c r="B815" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C815" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9605,10 +9629,10 @@
         <v>814</v>
       </c>
       <c r="B816" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C816" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9616,10 +9640,10 @@
         <v>815</v>
       </c>
       <c r="B817" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C817" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9627,10 +9651,10 @@
         <v>816</v>
       </c>
       <c r="B818" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C818" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9638,10 +9662,10 @@
         <v>817</v>
       </c>
       <c r="B819" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C819" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9649,10 +9673,10 @@
         <v>818</v>
       </c>
       <c r="B820" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C820" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9660,10 +9684,10 @@
         <v>819</v>
       </c>
       <c r="B821" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C821" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9671,10 +9695,10 @@
         <v>820</v>
       </c>
       <c r="B822" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C822" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9682,10 +9706,10 @@
         <v>821</v>
       </c>
       <c r="B823" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C823" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9693,10 +9717,10 @@
         <v>822</v>
       </c>
       <c r="B824" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C824" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9704,10 +9728,10 @@
         <v>823</v>
       </c>
       <c r="B825" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C825" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -9715,10 +9739,10 @@
         <v>824</v>
       </c>
       <c r="B826" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C826" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9726,10 +9750,10 @@
         <v>825</v>
       </c>
       <c r="B827" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C827" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9737,10 +9761,10 @@
         <v>826</v>
       </c>
       <c r="B828" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C828" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9748,10 +9772,10 @@
         <v>827</v>
       </c>
       <c r="B829" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C829" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9759,10 +9783,10 @@
         <v>828</v>
       </c>
       <c r="B830" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C830" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9770,10 +9794,10 @@
         <v>829</v>
       </c>
       <c r="B831" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C831" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="832" spans="1:3">
@@ -9781,10 +9805,10 @@
         <v>830</v>
       </c>
       <c r="B832" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C832" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9792,10 +9816,10 @@
         <v>831</v>
       </c>
       <c r="B833" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C833" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9806,7 +9830,7 @@
         <v>33</v>
       </c>
       <c r="C834" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9817,7 +9841,7 @@
         <v>33</v>
       </c>
       <c r="C835" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9828,7 +9852,7 @@
         <v>33</v>
       </c>
       <c r="C836" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9839,7 +9863,7 @@
         <v>33</v>
       </c>
       <c r="C837" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9850,7 +9874,7 @@
         <v>33</v>
       </c>
       <c r="C838" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9861,7 +9885,7 @@
         <v>33</v>
       </c>
       <c r="C839" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9872,7 +9896,7 @@
         <v>33</v>
       </c>
       <c r="C840" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9883,7 +9907,7 @@
         <v>33</v>
       </c>
       <c r="C841" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9894,7 +9918,7 @@
         <v>33</v>
       </c>
       <c r="C842" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9905,7 +9929,7 @@
         <v>33</v>
       </c>
       <c r="C843" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9916,7 +9940,7 @@
         <v>33</v>
       </c>
       <c r="C844" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9927,6 +9951,182 @@
         <v>33</v>
       </c>
       <c r="C845" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3">
+      <c r="A846" s="1">
+        <v>844</v>
+      </c>
+      <c r="B846" t="s">
+        <v>33</v>
+      </c>
+      <c r="C846" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3">
+      <c r="A847" s="1">
+        <v>845</v>
+      </c>
+      <c r="B847" t="s">
+        <v>33</v>
+      </c>
+      <c r="C847" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3">
+      <c r="A848" s="1">
+        <v>846</v>
+      </c>
+      <c r="B848" t="s">
+        <v>33</v>
+      </c>
+      <c r="C848" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3">
+      <c r="A849" s="1">
+        <v>847</v>
+      </c>
+      <c r="B849" t="s">
+        <v>33</v>
+      </c>
+      <c r="C849" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3">
+      <c r="A850" s="1">
+        <v>848</v>
+      </c>
+      <c r="B850" t="s">
+        <v>33</v>
+      </c>
+      <c r="C850" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="A851" s="1">
+        <v>849</v>
+      </c>
+      <c r="B851" t="s">
+        <v>33</v>
+      </c>
+      <c r="C851" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3">
+      <c r="A852" s="1">
+        <v>850</v>
+      </c>
+      <c r="B852" t="s">
+        <v>33</v>
+      </c>
+      <c r="C852" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3">
+      <c r="A853" s="1">
+        <v>851</v>
+      </c>
+      <c r="B853" t="s">
+        <v>33</v>
+      </c>
+      <c r="C853" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3">
+      <c r="A854" s="1">
+        <v>852</v>
+      </c>
+      <c r="B854" t="s">
+        <v>33</v>
+      </c>
+      <c r="C854" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3">
+      <c r="A855" s="1">
+        <v>853</v>
+      </c>
+      <c r="B855" t="s">
+        <v>33</v>
+      </c>
+      <c r="C855" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3">
+      <c r="A856" s="1">
+        <v>854</v>
+      </c>
+      <c r="B856" t="s">
+        <v>33</v>
+      </c>
+      <c r="C856" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3">
+      <c r="A857" s="1">
+        <v>855</v>
+      </c>
+      <c r="B857" t="s">
+        <v>33</v>
+      </c>
+      <c r="C857" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3">
+      <c r="A858" s="1">
+        <v>856</v>
+      </c>
+      <c r="B858" t="s">
+        <v>33</v>
+      </c>
+      <c r="C858" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3">
+      <c r="A859" s="1">
+        <v>857</v>
+      </c>
+      <c r="B859" t="s">
+        <v>33</v>
+      </c>
+      <c r="C859" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3">
+      <c r="A860" s="1">
+        <v>858</v>
+      </c>
+      <c r="B860" t="s">
+        <v>33</v>
+      </c>
+      <c r="C860" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3">
+      <c r="A861" s="1">
+        <v>859</v>
+      </c>
+      <c r="B861" t="s">
+        <v>33</v>
+      </c>
+      <c r="C861" t="s">
         <v>68</v>
       </c>
     </row>

--- a/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1734" uniqueCount="98">
   <si>
     <t>Chromosome</t>
   </si>
@@ -235,7 +235,16 @@
     <t>201194</t>
   </si>
   <si>
+    <t>182433</t>
+  </si>
+  <si>
+    <t>184431</t>
+  </si>
+  <si>
     <t>193002</t>
+  </si>
+  <si>
+    <t>193067</t>
   </si>
   <si>
     <t>W07391</t>
@@ -656,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C861"/>
+  <dimension ref="A1:C867"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3769,7 +3778,7 @@
         <v>10</v>
       </c>
       <c r="C283" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3780,7 +3789,7 @@
         <v>10</v>
       </c>
       <c r="C284" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3791,7 +3800,7 @@
         <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3802,7 +3811,7 @@
         <v>10</v>
       </c>
       <c r="C286" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3813,7 +3822,7 @@
         <v>10</v>
       </c>
       <c r="C287" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3824,7 +3833,7 @@
         <v>10</v>
       </c>
       <c r="C288" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3835,7 +3844,7 @@
         <v>10</v>
       </c>
       <c r="C289" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3846,7 +3855,7 @@
         <v>10</v>
       </c>
       <c r="C290" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3857,7 +3866,7 @@
         <v>10</v>
       </c>
       <c r="C291" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3868,7 +3877,7 @@
         <v>10</v>
       </c>
       <c r="C292" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3879,7 +3888,7 @@
         <v>10</v>
       </c>
       <c r="C293" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3890,7 +3899,7 @@
         <v>10</v>
       </c>
       <c r="C294" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3901,7 +3910,7 @@
         <v>10</v>
       </c>
       <c r="C295" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3912,7 +3921,7 @@
         <v>10</v>
       </c>
       <c r="C296" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3923,7 +3932,7 @@
         <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3934,7 +3943,7 @@
         <v>10</v>
       </c>
       <c r="C298" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3945,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="C299" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3956,7 +3965,7 @@
         <v>10</v>
       </c>
       <c r="C300" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3967,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="C301" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3978,7 +3987,7 @@
         <v>10</v>
       </c>
       <c r="C302" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3989,7 +3998,7 @@
         <v>10</v>
       </c>
       <c r="C303" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4000,7 +4009,7 @@
         <v>10</v>
       </c>
       <c r="C304" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4011,7 +4020,7 @@
         <v>10</v>
       </c>
       <c r="C305" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4022,7 +4031,7 @@
         <v>10</v>
       </c>
       <c r="C306" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4033,7 +4042,7 @@
         <v>10</v>
       </c>
       <c r="C307" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4044,7 +4053,7 @@
         <v>10</v>
       </c>
       <c r="C308" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4055,7 +4064,7 @@
         <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4066,7 +4075,7 @@
         <v>10</v>
       </c>
       <c r="C310" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4077,7 +4086,7 @@
         <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4088,7 +4097,7 @@
         <v>10</v>
       </c>
       <c r="C312" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4110,7 +4119,7 @@
         <v>10</v>
       </c>
       <c r="C314" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4121,7 +4130,7 @@
         <v>10</v>
       </c>
       <c r="C315" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4132,7 +4141,7 @@
         <v>10</v>
       </c>
       <c r="C316" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4143,7 +4152,7 @@
         <v>10</v>
       </c>
       <c r="C317" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4154,7 +4163,7 @@
         <v>10</v>
       </c>
       <c r="C318" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4165,7 +4174,7 @@
         <v>10</v>
       </c>
       <c r="C319" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4176,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="C320" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4184,10 +4193,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4195,10 +4204,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C322" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4206,10 +4215,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C323" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4220,7 +4229,7 @@
         <v>11</v>
       </c>
       <c r="C324" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4231,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="C325" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4242,7 +4251,7 @@
         <v>11</v>
       </c>
       <c r="C326" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4253,7 +4262,7 @@
         <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4264,7 +4273,7 @@
         <v>11</v>
       </c>
       <c r="C328" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4275,7 +4284,7 @@
         <v>11</v>
       </c>
       <c r="C329" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4286,7 +4295,7 @@
         <v>11</v>
       </c>
       <c r="C330" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4297,7 +4306,7 @@
         <v>11</v>
       </c>
       <c r="C331" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4308,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="C332" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4319,7 +4328,7 @@
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4330,7 +4339,7 @@
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4341,7 +4350,7 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4352,7 +4361,7 @@
         <v>11</v>
       </c>
       <c r="C336" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4363,7 +4372,7 @@
         <v>11</v>
       </c>
       <c r="C337" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4374,7 +4383,7 @@
         <v>11</v>
       </c>
       <c r="C338" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4385,7 +4394,7 @@
         <v>11</v>
       </c>
       <c r="C339" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4396,7 +4405,7 @@
         <v>11</v>
       </c>
       <c r="C340" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4407,7 +4416,7 @@
         <v>11</v>
       </c>
       <c r="C341" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4418,7 +4427,7 @@
         <v>11</v>
       </c>
       <c r="C342" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4429,7 +4438,7 @@
         <v>11</v>
       </c>
       <c r="C343" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4440,7 +4449,7 @@
         <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4451,7 +4460,7 @@
         <v>11</v>
       </c>
       <c r="C345" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4462,7 +4471,7 @@
         <v>11</v>
       </c>
       <c r="C346" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4473,7 +4482,7 @@
         <v>11</v>
       </c>
       <c r="C347" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4484,7 +4493,7 @@
         <v>11</v>
       </c>
       <c r="C348" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4495,7 +4504,7 @@
         <v>11</v>
       </c>
       <c r="C349" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4506,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="C350" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4517,7 +4526,7 @@
         <v>11</v>
       </c>
       <c r="C351" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4528,7 +4537,7 @@
         <v>11</v>
       </c>
       <c r="C352" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4539,7 +4548,7 @@
         <v>11</v>
       </c>
       <c r="C353" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4550,7 +4559,7 @@
         <v>11</v>
       </c>
       <c r="C354" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4558,10 +4567,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C355" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4569,10 +4578,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4580,10 +4589,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C357" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4594,7 +4603,7 @@
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4605,7 +4614,7 @@
         <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4616,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4627,7 +4636,7 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4638,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4649,7 +4658,7 @@
         <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4660,7 +4669,7 @@
         <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4671,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4682,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4693,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4704,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4715,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4726,7 +4735,7 @@
         <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4737,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4748,7 +4757,7 @@
         <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4759,7 +4768,7 @@
         <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4770,7 +4779,7 @@
         <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4781,7 +4790,7 @@
         <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4792,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4803,7 +4812,7 @@
         <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -4814,7 +4823,7 @@
         <v>12</v>
       </c>
       <c r="C378" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4825,7 +4834,7 @@
         <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4836,7 +4845,7 @@
         <v>12</v>
       </c>
       <c r="C380" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4847,7 +4856,7 @@
         <v>12</v>
       </c>
       <c r="C381" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4858,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="C382" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4869,7 +4878,7 @@
         <v>12</v>
       </c>
       <c r="C383" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4880,7 +4889,7 @@
         <v>12</v>
       </c>
       <c r="C384" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4891,7 +4900,7 @@
         <v>12</v>
       </c>
       <c r="C385" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4902,7 +4911,7 @@
         <v>12</v>
       </c>
       <c r="C386" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4913,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="C387" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4924,7 +4933,7 @@
         <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4932,10 +4941,10 @@
         <v>387</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C389" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4943,10 +4952,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C390" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4954,10 +4963,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C391" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4968,7 +4977,7 @@
         <v>13</v>
       </c>
       <c r="C392" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4979,7 +4988,7 @@
         <v>13</v>
       </c>
       <c r="C393" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4990,7 +4999,7 @@
         <v>13</v>
       </c>
       <c r="C394" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -5001,7 +5010,7 @@
         <v>13</v>
       </c>
       <c r="C395" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -5012,7 +5021,7 @@
         <v>13</v>
       </c>
       <c r="C396" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -5023,7 +5032,7 @@
         <v>13</v>
       </c>
       <c r="C397" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -5034,7 +5043,7 @@
         <v>13</v>
       </c>
       <c r="C398" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -5045,7 +5054,7 @@
         <v>13</v>
       </c>
       <c r="C399" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -5056,7 +5065,7 @@
         <v>13</v>
       </c>
       <c r="C400" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5067,7 +5076,7 @@
         <v>13</v>
       </c>
       <c r="C401" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5078,7 +5087,7 @@
         <v>13</v>
       </c>
       <c r="C402" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5089,7 +5098,7 @@
         <v>13</v>
       </c>
       <c r="C403" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5100,7 +5109,7 @@
         <v>13</v>
       </c>
       <c r="C404" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5111,7 +5120,7 @@
         <v>13</v>
       </c>
       <c r="C405" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5122,7 +5131,7 @@
         <v>13</v>
       </c>
       <c r="C406" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5133,7 +5142,7 @@
         <v>13</v>
       </c>
       <c r="C407" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5144,7 +5153,7 @@
         <v>13</v>
       </c>
       <c r="C408" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5155,7 +5164,7 @@
         <v>13</v>
       </c>
       <c r="C409" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5166,7 +5175,7 @@
         <v>13</v>
       </c>
       <c r="C410" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5177,7 +5186,7 @@
         <v>13</v>
       </c>
       <c r="C411" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5188,7 +5197,7 @@
         <v>13</v>
       </c>
       <c r="C412" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5199,7 +5208,7 @@
         <v>13</v>
       </c>
       <c r="C413" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5210,7 +5219,7 @@
         <v>13</v>
       </c>
       <c r="C414" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5221,7 +5230,7 @@
         <v>13</v>
       </c>
       <c r="C415" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5232,7 +5241,7 @@
         <v>13</v>
       </c>
       <c r="C416" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5243,7 +5252,7 @@
         <v>13</v>
       </c>
       <c r="C417" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5254,7 +5263,7 @@
         <v>13</v>
       </c>
       <c r="C418" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5265,7 +5274,7 @@
         <v>13</v>
       </c>
       <c r="C419" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5276,7 +5285,7 @@
         <v>13</v>
       </c>
       <c r="C420" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5287,7 +5296,7 @@
         <v>13</v>
       </c>
       <c r="C421" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5298,7 +5307,7 @@
         <v>13</v>
       </c>
       <c r="C422" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5306,10 +5315,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C423" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5317,10 +5326,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C424" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5328,10 +5337,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C425" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5342,7 +5351,7 @@
         <v>14</v>
       </c>
       <c r="C426" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5353,7 +5362,7 @@
         <v>14</v>
       </c>
       <c r="C427" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5364,7 +5373,7 @@
         <v>14</v>
       </c>
       <c r="C428" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5375,7 +5384,7 @@
         <v>14</v>
       </c>
       <c r="C429" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5386,7 +5395,7 @@
         <v>14</v>
       </c>
       <c r="C430" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5397,7 +5406,7 @@
         <v>14</v>
       </c>
       <c r="C431" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5408,7 +5417,7 @@
         <v>14</v>
       </c>
       <c r="C432" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5419,7 +5428,7 @@
         <v>14</v>
       </c>
       <c r="C433" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5430,7 +5439,7 @@
         <v>14</v>
       </c>
       <c r="C434" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5441,7 +5450,7 @@
         <v>14</v>
       </c>
       <c r="C435" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5452,7 +5461,7 @@
         <v>14</v>
       </c>
       <c r="C436" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5463,7 +5472,7 @@
         <v>14</v>
       </c>
       <c r="C437" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5474,7 +5483,7 @@
         <v>14</v>
       </c>
       <c r="C438" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5485,7 +5494,7 @@
         <v>14</v>
       </c>
       <c r="C439" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5496,7 +5505,7 @@
         <v>14</v>
       </c>
       <c r="C440" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5507,7 +5516,7 @@
         <v>14</v>
       </c>
       <c r="C441" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5518,7 +5527,7 @@
         <v>14</v>
       </c>
       <c r="C442" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5529,7 +5538,7 @@
         <v>14</v>
       </c>
       <c r="C443" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5540,7 +5549,7 @@
         <v>14</v>
       </c>
       <c r="C444" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5551,7 +5560,7 @@
         <v>14</v>
       </c>
       <c r="C445" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5562,7 +5571,7 @@
         <v>14</v>
       </c>
       <c r="C446" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5573,7 +5582,7 @@
         <v>14</v>
       </c>
       <c r="C447" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5584,7 +5593,7 @@
         <v>14</v>
       </c>
       <c r="C448" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5595,7 +5604,7 @@
         <v>14</v>
       </c>
       <c r="C449" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5606,7 +5615,7 @@
         <v>14</v>
       </c>
       <c r="C450" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5617,7 +5626,7 @@
         <v>14</v>
       </c>
       <c r="C451" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5628,7 +5637,7 @@
         <v>14</v>
       </c>
       <c r="C452" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5639,7 +5648,7 @@
         <v>14</v>
       </c>
       <c r="C453" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5650,7 +5659,7 @@
         <v>14</v>
       </c>
       <c r="C454" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5661,7 +5670,7 @@
         <v>14</v>
       </c>
       <c r="C455" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5672,7 +5681,7 @@
         <v>14</v>
       </c>
       <c r="C456" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5680,10 +5689,10 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C457" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5691,10 +5700,10 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C458" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5702,10 +5711,10 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C459" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5716,7 +5725,7 @@
         <v>15</v>
       </c>
       <c r="C460" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5727,7 +5736,7 @@
         <v>15</v>
       </c>
       <c r="C461" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5738,7 +5747,7 @@
         <v>15</v>
       </c>
       <c r="C462" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5749,7 +5758,7 @@
         <v>15</v>
       </c>
       <c r="C463" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5760,7 +5769,7 @@
         <v>15</v>
       </c>
       <c r="C464" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5771,7 +5780,7 @@
         <v>15</v>
       </c>
       <c r="C465" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5782,7 +5791,7 @@
         <v>15</v>
       </c>
       <c r="C466" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5793,7 +5802,7 @@
         <v>15</v>
       </c>
       <c r="C467" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5804,7 +5813,7 @@
         <v>15</v>
       </c>
       <c r="C468" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5815,7 +5824,7 @@
         <v>15</v>
       </c>
       <c r="C469" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5826,7 +5835,7 @@
         <v>15</v>
       </c>
       <c r="C470" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5837,7 +5846,7 @@
         <v>15</v>
       </c>
       <c r="C471" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5848,7 +5857,7 @@
         <v>15</v>
       </c>
       <c r="C472" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5859,7 +5868,7 @@
         <v>15</v>
       </c>
       <c r="C473" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5870,7 +5879,7 @@
         <v>15</v>
       </c>
       <c r="C474" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5881,7 +5890,7 @@
         <v>15</v>
       </c>
       <c r="C475" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5892,7 +5901,7 @@
         <v>15</v>
       </c>
       <c r="C476" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5903,7 +5912,7 @@
         <v>15</v>
       </c>
       <c r="C477" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5914,7 +5923,7 @@
         <v>15</v>
       </c>
       <c r="C478" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5925,7 +5934,7 @@
         <v>15</v>
       </c>
       <c r="C479" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5936,7 +5945,7 @@
         <v>15</v>
       </c>
       <c r="C480" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5947,7 +5956,7 @@
         <v>15</v>
       </c>
       <c r="C481" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5958,7 +5967,7 @@
         <v>15</v>
       </c>
       <c r="C482" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5969,7 +5978,7 @@
         <v>15</v>
       </c>
       <c r="C483" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5980,7 +5989,7 @@
         <v>15</v>
       </c>
       <c r="C484" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5991,7 +6000,7 @@
         <v>15</v>
       </c>
       <c r="C485" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -6002,7 +6011,7 @@
         <v>15</v>
       </c>
       <c r="C486" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -6013,7 +6022,7 @@
         <v>15</v>
       </c>
       <c r="C487" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -6024,7 +6033,7 @@
         <v>15</v>
       </c>
       <c r="C488" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -6035,7 +6044,7 @@
         <v>15</v>
       </c>
       <c r="C489" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -6046,7 +6055,7 @@
         <v>15</v>
       </c>
       <c r="C490" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -6054,10 +6063,10 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C491" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6065,10 +6074,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C492" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6076,10 +6085,10 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C493" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6090,7 +6099,7 @@
         <v>16</v>
       </c>
       <c r="C494" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6101,7 +6110,7 @@
         <v>16</v>
       </c>
       <c r="C495" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6112,7 +6121,7 @@
         <v>16</v>
       </c>
       <c r="C496" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6123,7 +6132,7 @@
         <v>16</v>
       </c>
       <c r="C497" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6134,7 +6143,7 @@
         <v>16</v>
       </c>
       <c r="C498" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6145,7 +6154,7 @@
         <v>16</v>
       </c>
       <c r="C499" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6156,7 +6165,7 @@
         <v>16</v>
       </c>
       <c r="C500" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6167,7 +6176,7 @@
         <v>16</v>
       </c>
       <c r="C501" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6178,7 +6187,7 @@
         <v>16</v>
       </c>
       <c r="C502" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6189,7 +6198,7 @@
         <v>16</v>
       </c>
       <c r="C503" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6200,7 +6209,7 @@
         <v>16</v>
       </c>
       <c r="C504" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6211,7 +6220,7 @@
         <v>16</v>
       </c>
       <c r="C505" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6222,7 +6231,7 @@
         <v>16</v>
       </c>
       <c r="C506" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6233,7 +6242,7 @@
         <v>16</v>
       </c>
       <c r="C507" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6244,7 +6253,7 @@
         <v>16</v>
       </c>
       <c r="C508" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6255,7 +6264,7 @@
         <v>16</v>
       </c>
       <c r="C509" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6266,7 +6275,7 @@
         <v>16</v>
       </c>
       <c r="C510" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6277,7 +6286,7 @@
         <v>16</v>
       </c>
       <c r="C511" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6288,7 +6297,7 @@
         <v>16</v>
       </c>
       <c r="C512" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6299,7 +6308,7 @@
         <v>16</v>
       </c>
       <c r="C513" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6310,7 +6319,7 @@
         <v>16</v>
       </c>
       <c r="C514" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6321,7 +6330,7 @@
         <v>16</v>
       </c>
       <c r="C515" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6332,7 +6341,7 @@
         <v>16</v>
       </c>
       <c r="C516" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6343,7 +6352,7 @@
         <v>16</v>
       </c>
       <c r="C517" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6354,7 +6363,7 @@
         <v>16</v>
       </c>
       <c r="C518" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6365,7 +6374,7 @@
         <v>16</v>
       </c>
       <c r="C519" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6376,7 +6385,7 @@
         <v>16</v>
       </c>
       <c r="C520" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6387,7 +6396,7 @@
         <v>16</v>
       </c>
       <c r="C521" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6398,7 +6407,7 @@
         <v>16</v>
       </c>
       <c r="C522" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6409,7 +6418,7 @@
         <v>16</v>
       </c>
       <c r="C523" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6420,7 +6429,7 @@
         <v>16</v>
       </c>
       <c r="C524" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6428,10 +6437,10 @@
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C525" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6439,10 +6448,10 @@
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C526" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6450,10 +6459,10 @@
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C527" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6464,7 +6473,7 @@
         <v>17</v>
       </c>
       <c r="C528" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6475,7 +6484,7 @@
         <v>17</v>
       </c>
       <c r="C529" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6486,7 +6495,7 @@
         <v>17</v>
       </c>
       <c r="C530" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6497,7 +6506,7 @@
         <v>17</v>
       </c>
       <c r="C531" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6508,7 +6517,7 @@
         <v>17</v>
       </c>
       <c r="C532" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6519,7 +6528,7 @@
         <v>17</v>
       </c>
       <c r="C533" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6530,7 +6539,7 @@
         <v>17</v>
       </c>
       <c r="C534" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6541,7 +6550,7 @@
         <v>17</v>
       </c>
       <c r="C535" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6552,7 +6561,7 @@
         <v>17</v>
       </c>
       <c r="C536" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6563,7 +6572,7 @@
         <v>17</v>
       </c>
       <c r="C537" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6574,7 +6583,7 @@
         <v>17</v>
       </c>
       <c r="C538" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6585,7 +6594,7 @@
         <v>17</v>
       </c>
       <c r="C539" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6596,7 +6605,7 @@
         <v>17</v>
       </c>
       <c r="C540" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6607,7 +6616,7 @@
         <v>17</v>
       </c>
       <c r="C541" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6618,7 +6627,7 @@
         <v>17</v>
       </c>
       <c r="C542" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6629,7 +6638,7 @@
         <v>17</v>
       </c>
       <c r="C543" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6640,7 +6649,7 @@
         <v>17</v>
       </c>
       <c r="C544" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6651,7 +6660,7 @@
         <v>17</v>
       </c>
       <c r="C545" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6662,7 +6671,7 @@
         <v>17</v>
       </c>
       <c r="C546" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6673,7 +6682,7 @@
         <v>17</v>
       </c>
       <c r="C547" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -6684,7 +6693,7 @@
         <v>17</v>
       </c>
       <c r="C548" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6695,7 +6704,7 @@
         <v>17</v>
       </c>
       <c r="C549" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6706,7 +6715,7 @@
         <v>17</v>
       </c>
       <c r="C550" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="551" spans="1:3">
@@ -6717,7 +6726,7 @@
         <v>17</v>
       </c>
       <c r="C551" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6728,7 +6737,7 @@
         <v>17</v>
       </c>
       <c r="C552" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6739,7 +6748,7 @@
         <v>17</v>
       </c>
       <c r="C553" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6750,7 +6759,7 @@
         <v>17</v>
       </c>
       <c r="C554" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6761,7 +6770,7 @@
         <v>17</v>
       </c>
       <c r="C555" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6772,7 +6781,7 @@
         <v>17</v>
       </c>
       <c r="C556" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6783,7 +6792,7 @@
         <v>17</v>
       </c>
       <c r="C557" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6794,7 +6803,7 @@
         <v>17</v>
       </c>
       <c r="C558" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6802,10 +6811,10 @@
         <v>557</v>
       </c>
       <c r="B559" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C559" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6813,10 +6822,10 @@
         <v>558</v>
       </c>
       <c r="B560" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C560" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6824,10 +6833,10 @@
         <v>559</v>
       </c>
       <c r="B561" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C561" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6838,7 +6847,7 @@
         <v>18</v>
       </c>
       <c r="C562" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="563" spans="1:3">
@@ -6849,7 +6858,7 @@
         <v>18</v>
       </c>
       <c r="C563" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6860,7 +6869,7 @@
         <v>18</v>
       </c>
       <c r="C564" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6871,7 +6880,7 @@
         <v>18</v>
       </c>
       <c r="C565" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6882,7 +6891,7 @@
         <v>18</v>
       </c>
       <c r="C566" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6893,7 +6902,7 @@
         <v>18</v>
       </c>
       <c r="C567" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6904,7 +6913,7 @@
         <v>18</v>
       </c>
       <c r="C568" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6915,7 +6924,7 @@
         <v>18</v>
       </c>
       <c r="C569" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="570" spans="1:3">
@@ -6926,7 +6935,7 @@
         <v>18</v>
       </c>
       <c r="C570" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6937,7 +6946,7 @@
         <v>18</v>
       </c>
       <c r="C571" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6948,7 +6957,7 @@
         <v>18</v>
       </c>
       <c r="C572" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6959,7 +6968,7 @@
         <v>18</v>
       </c>
       <c r="C573" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -6970,7 +6979,7 @@
         <v>18</v>
       </c>
       <c r="C574" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -6981,7 +6990,7 @@
         <v>18</v>
       </c>
       <c r="C575" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6992,7 +7001,7 @@
         <v>18</v>
       </c>
       <c r="C576" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -7003,7 +7012,7 @@
         <v>18</v>
       </c>
       <c r="C577" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -7014,7 +7023,7 @@
         <v>18</v>
       </c>
       <c r="C578" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -7025,7 +7034,7 @@
         <v>18</v>
       </c>
       <c r="C579" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -7036,7 +7045,7 @@
         <v>18</v>
       </c>
       <c r="C580" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -7047,7 +7056,7 @@
         <v>18</v>
       </c>
       <c r="C581" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -7058,7 +7067,7 @@
         <v>18</v>
       </c>
       <c r="C582" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -7069,7 +7078,7 @@
         <v>18</v>
       </c>
       <c r="C583" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -7080,7 +7089,7 @@
         <v>18</v>
       </c>
       <c r="C584" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="585" spans="1:3">
@@ -7091,7 +7100,7 @@
         <v>18</v>
       </c>
       <c r="C585" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="586" spans="1:3">
@@ -7102,7 +7111,7 @@
         <v>18</v>
       </c>
       <c r="C586" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="587" spans="1:3">
@@ -7113,7 +7122,7 @@
         <v>18</v>
       </c>
       <c r="C587" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="588" spans="1:3">
@@ -7124,7 +7133,7 @@
         <v>18</v>
       </c>
       <c r="C588" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -7135,7 +7144,7 @@
         <v>18</v>
       </c>
       <c r="C589" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -7146,7 +7155,7 @@
         <v>18</v>
       </c>
       <c r="C590" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -7157,7 +7166,7 @@
         <v>18</v>
       </c>
       <c r="C591" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="592" spans="1:3">
@@ -7168,7 +7177,7 @@
         <v>18</v>
       </c>
       <c r="C592" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -7176,10 +7185,10 @@
         <v>591</v>
       </c>
       <c r="B593" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C593" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="594" spans="1:3">
@@ -7187,10 +7196,10 @@
         <v>592</v>
       </c>
       <c r="B594" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C594" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -7198,10 +7207,10 @@
         <v>593</v>
       </c>
       <c r="B595" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C595" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -7223,7 +7232,7 @@
         <v>19</v>
       </c>
       <c r="C597" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -7234,7 +7243,7 @@
         <v>19</v>
       </c>
       <c r="C598" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7245,7 +7254,7 @@
         <v>19</v>
       </c>
       <c r="C599" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -7256,7 +7265,7 @@
         <v>19</v>
       </c>
       <c r="C600" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -7267,7 +7276,7 @@
         <v>19</v>
       </c>
       <c r="C601" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -7278,7 +7287,7 @@
         <v>19</v>
       </c>
       <c r="C602" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -7289,7 +7298,7 @@
         <v>19</v>
       </c>
       <c r="C603" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -7300,7 +7309,7 @@
         <v>19</v>
       </c>
       <c r="C604" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -7311,7 +7320,7 @@
         <v>19</v>
       </c>
       <c r="C605" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -7322,7 +7331,7 @@
         <v>19</v>
       </c>
       <c r="C606" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -7333,7 +7342,7 @@
         <v>19</v>
       </c>
       <c r="C607" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -7344,7 +7353,7 @@
         <v>19</v>
       </c>
       <c r="C608" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -7355,7 +7364,7 @@
         <v>19</v>
       </c>
       <c r="C609" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7366,7 +7375,7 @@
         <v>19</v>
       </c>
       <c r="C610" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -7377,7 +7386,7 @@
         <v>19</v>
       </c>
       <c r="C611" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7388,7 +7397,7 @@
         <v>19</v>
       </c>
       <c r="C612" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7399,7 +7408,7 @@
         <v>19</v>
       </c>
       <c r="C613" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="614" spans="1:3">
@@ -7410,7 +7419,7 @@
         <v>19</v>
       </c>
       <c r="C614" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7421,7 +7430,7 @@
         <v>19</v>
       </c>
       <c r="C615" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -7432,7 +7441,7 @@
         <v>19</v>
       </c>
       <c r="C616" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -7443,7 +7452,7 @@
         <v>19</v>
       </c>
       <c r="C617" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -7454,7 +7463,7 @@
         <v>19</v>
       </c>
       <c r="C618" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="619" spans="1:3">
@@ -7465,7 +7474,7 @@
         <v>19</v>
       </c>
       <c r="C619" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="620" spans="1:3">
@@ -7476,7 +7485,7 @@
         <v>19</v>
       </c>
       <c r="C620" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7487,7 +7496,7 @@
         <v>19</v>
       </c>
       <c r="C621" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7498,7 +7507,7 @@
         <v>19</v>
       </c>
       <c r="C622" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="623" spans="1:3">
@@ -7509,7 +7518,7 @@
         <v>19</v>
       </c>
       <c r="C623" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="624" spans="1:3">
@@ -7520,7 +7529,7 @@
         <v>19</v>
       </c>
       <c r="C624" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="625" spans="1:3">
@@ -7531,7 +7540,7 @@
         <v>19</v>
       </c>
       <c r="C625" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -7542,7 +7551,7 @@
         <v>19</v>
       </c>
       <c r="C626" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7553,7 +7562,7 @@
         <v>19</v>
       </c>
       <c r="C627" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7564,7 +7573,7 @@
         <v>19</v>
       </c>
       <c r="C628" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -7575,7 +7584,7 @@
         <v>19</v>
       </c>
       <c r="C629" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -7586,7 +7595,7 @@
         <v>19</v>
       </c>
       <c r="C630" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="631" spans="1:3">
@@ -7597,7 +7606,7 @@
         <v>19</v>
       </c>
       <c r="C631" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="632" spans="1:3">
@@ -7605,10 +7614,10 @@
         <v>630</v>
       </c>
       <c r="B632" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C632" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7616,10 +7625,10 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C633" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="634" spans="1:3">
@@ -7627,10 +7636,10 @@
         <v>632</v>
       </c>
       <c r="B634" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C634" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -7638,10 +7647,10 @@
         <v>633</v>
       </c>
       <c r="B635" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C635" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="636" spans="1:3">
@@ -7649,10 +7658,10 @@
         <v>634</v>
       </c>
       <c r="B636" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C636" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="637" spans="1:3">
@@ -7660,10 +7669,10 @@
         <v>635</v>
       </c>
       <c r="B637" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C637" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7671,10 +7680,10 @@
         <v>636</v>
       </c>
       <c r="B638" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C638" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="639" spans="1:3">
@@ -7682,10 +7691,10 @@
         <v>637</v>
       </c>
       <c r="B639" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C639" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="640" spans="1:3">
@@ -7696,7 +7705,7 @@
         <v>22</v>
       </c>
       <c r="C640" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7707,7 +7716,7 @@
         <v>22</v>
       </c>
       <c r="C641" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="642" spans="1:3">
@@ -7718,7 +7727,7 @@
         <v>22</v>
       </c>
       <c r="C642" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7729,7 +7738,7 @@
         <v>22</v>
       </c>
       <c r="C643" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="644" spans="1:3">
@@ -7740,7 +7749,7 @@
         <v>22</v>
       </c>
       <c r="C644" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="645" spans="1:3">
@@ -7751,7 +7760,7 @@
         <v>22</v>
       </c>
       <c r="C645" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="646" spans="1:3">
@@ -7762,7 +7771,7 @@
         <v>22</v>
       </c>
       <c r="C646" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="647" spans="1:3">
@@ -7773,7 +7782,7 @@
         <v>22</v>
       </c>
       <c r="C647" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="648" spans="1:3">
@@ -7784,7 +7793,7 @@
         <v>22</v>
       </c>
       <c r="C648" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="649" spans="1:3">
@@ -7795,7 +7804,7 @@
         <v>22</v>
       </c>
       <c r="C649" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7806,7 +7815,7 @@
         <v>22</v>
       </c>
       <c r="C650" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="651" spans="1:3">
@@ -7817,7 +7826,7 @@
         <v>22</v>
       </c>
       <c r="C651" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7828,7 +7837,7 @@
         <v>22</v>
       </c>
       <c r="C652" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="653" spans="1:3">
@@ -7839,7 +7848,7 @@
         <v>22</v>
       </c>
       <c r="C653" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7850,7 +7859,7 @@
         <v>22</v>
       </c>
       <c r="C654" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="655" spans="1:3">
@@ -7861,7 +7870,7 @@
         <v>22</v>
       </c>
       <c r="C655" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="656" spans="1:3">
@@ -7872,7 +7881,7 @@
         <v>22</v>
       </c>
       <c r="C656" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="657" spans="1:3">
@@ -7883,7 +7892,7 @@
         <v>22</v>
       </c>
       <c r="C657" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7894,7 +7903,7 @@
         <v>22</v>
       </c>
       <c r="C658" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="659" spans="1:3">
@@ -7905,7 +7914,7 @@
         <v>22</v>
       </c>
       <c r="C659" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="660" spans="1:3">
@@ -7916,7 +7925,7 @@
         <v>22</v>
       </c>
       <c r="C660" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7927,7 +7936,7 @@
         <v>22</v>
       </c>
       <c r="C661" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7938,7 +7947,7 @@
         <v>22</v>
       </c>
       <c r="C662" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="663" spans="1:3">
@@ -7949,7 +7958,7 @@
         <v>22</v>
       </c>
       <c r="C663" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7960,7 +7969,7 @@
         <v>22</v>
       </c>
       <c r="C664" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="665" spans="1:3">
@@ -7971,7 +7980,7 @@
         <v>22</v>
       </c>
       <c r="C665" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="666" spans="1:3">
@@ -7982,7 +7991,7 @@
         <v>22</v>
       </c>
       <c r="C666" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -7993,7 +8002,7 @@
         <v>22</v>
       </c>
       <c r="C667" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="668" spans="1:3">
@@ -8004,7 +8013,7 @@
         <v>22</v>
       </c>
       <c r="C668" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -8015,7 +8024,7 @@
         <v>22</v>
       </c>
       <c r="C669" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -8026,7 +8035,7 @@
         <v>22</v>
       </c>
       <c r="C670" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="671" spans="1:3">
@@ -8034,10 +8043,10 @@
         <v>669</v>
       </c>
       <c r="B671" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C671" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="672" spans="1:3">
@@ -8045,10 +8054,10 @@
         <v>670</v>
       </c>
       <c r="B672" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C672" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="673" spans="1:3">
@@ -8056,10 +8065,10 @@
         <v>671</v>
       </c>
       <c r="B673" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C673" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -8070,7 +8079,7 @@
         <v>23</v>
       </c>
       <c r="C674" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -8081,7 +8090,7 @@
         <v>23</v>
       </c>
       <c r="C675" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -8092,7 +8101,7 @@
         <v>23</v>
       </c>
       <c r="C676" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -8103,7 +8112,7 @@
         <v>23</v>
       </c>
       <c r="C677" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -8114,7 +8123,7 @@
         <v>23</v>
       </c>
       <c r="C678" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -8125,7 +8134,7 @@
         <v>23</v>
       </c>
       <c r="C679" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="680" spans="1:3">
@@ -8136,7 +8145,7 @@
         <v>23</v>
       </c>
       <c r="C680" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="681" spans="1:3">
@@ -8147,7 +8156,7 @@
         <v>23</v>
       </c>
       <c r="C681" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -8158,7 +8167,7 @@
         <v>23</v>
       </c>
       <c r="C682" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="683" spans="1:3">
@@ -8169,7 +8178,7 @@
         <v>23</v>
       </c>
       <c r="C683" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -8180,7 +8189,7 @@
         <v>23</v>
       </c>
       <c r="C684" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -8191,7 +8200,7 @@
         <v>23</v>
       </c>
       <c r="C685" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -8202,7 +8211,7 @@
         <v>23</v>
       </c>
       <c r="C686" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8213,7 +8222,7 @@
         <v>23</v>
       </c>
       <c r="C687" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="688" spans="1:3">
@@ -8224,7 +8233,7 @@
         <v>23</v>
       </c>
       <c r="C688" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -8235,7 +8244,7 @@
         <v>23</v>
       </c>
       <c r="C689" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="690" spans="1:3">
@@ -8246,7 +8255,7 @@
         <v>23</v>
       </c>
       <c r="C690" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="691" spans="1:3">
@@ -8257,7 +8266,7 @@
         <v>23</v>
       </c>
       <c r="C691" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="692" spans="1:3">
@@ -8268,7 +8277,7 @@
         <v>23</v>
       </c>
       <c r="C692" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="693" spans="1:3">
@@ -8279,7 +8288,7 @@
         <v>23</v>
       </c>
       <c r="C693" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="694" spans="1:3">
@@ -8290,7 +8299,7 @@
         <v>23</v>
       </c>
       <c r="C694" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="695" spans="1:3">
@@ -8301,7 +8310,7 @@
         <v>23</v>
       </c>
       <c r="C695" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -8312,7 +8321,7 @@
         <v>23</v>
       </c>
       <c r="C696" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="697" spans="1:3">
@@ -8323,7 +8332,7 @@
         <v>23</v>
       </c>
       <c r="C697" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -8334,7 +8343,7 @@
         <v>23</v>
       </c>
       <c r="C698" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="699" spans="1:3">
@@ -8345,7 +8354,7 @@
         <v>23</v>
       </c>
       <c r="C699" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -8356,7 +8365,7 @@
         <v>23</v>
       </c>
       <c r="C700" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="701" spans="1:3">
@@ -8367,7 +8376,7 @@
         <v>23</v>
       </c>
       <c r="C701" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8378,7 +8387,7 @@
         <v>23</v>
       </c>
       <c r="C702" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -8389,7 +8398,7 @@
         <v>23</v>
       </c>
       <c r="C703" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8400,7 +8409,7 @@
         <v>23</v>
       </c>
       <c r="C704" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="705" spans="1:3">
@@ -8408,10 +8417,10 @@
         <v>703</v>
       </c>
       <c r="B705" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C705" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8419,10 +8428,10 @@
         <v>704</v>
       </c>
       <c r="B706" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C706" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="707" spans="1:3">
@@ -8430,10 +8439,10 @@
         <v>705</v>
       </c>
       <c r="B707" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C707" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8444,7 +8453,7 @@
         <v>24</v>
       </c>
       <c r="C708" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8455,7 +8464,7 @@
         <v>24</v>
       </c>
       <c r="C709" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8466,7 +8475,7 @@
         <v>24</v>
       </c>
       <c r="C710" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8477,7 +8486,7 @@
         <v>24</v>
       </c>
       <c r="C711" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8488,7 +8497,7 @@
         <v>24</v>
       </c>
       <c r="C712" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8499,7 +8508,7 @@
         <v>24</v>
       </c>
       <c r="C713" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8510,7 +8519,7 @@
         <v>24</v>
       </c>
       <c r="C714" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8521,7 +8530,7 @@
         <v>24</v>
       </c>
       <c r="C715" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8532,7 +8541,7 @@
         <v>24</v>
       </c>
       <c r="C716" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8543,7 +8552,7 @@
         <v>24</v>
       </c>
       <c r="C717" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="718" spans="1:3">
@@ -8554,7 +8563,7 @@
         <v>24</v>
       </c>
       <c r="C718" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8565,7 +8574,7 @@
         <v>24</v>
       </c>
       <c r="C719" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8576,7 +8585,7 @@
         <v>24</v>
       </c>
       <c r="C720" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="721" spans="1:3">
@@ -8587,7 +8596,7 @@
         <v>24</v>
       </c>
       <c r="C721" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8598,7 +8607,7 @@
         <v>24</v>
       </c>
       <c r="C722" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8609,7 +8618,7 @@
         <v>24</v>
       </c>
       <c r="C723" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8620,7 +8629,7 @@
         <v>24</v>
       </c>
       <c r="C724" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8631,7 +8640,7 @@
         <v>24</v>
       </c>
       <c r="C725" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8642,7 +8651,7 @@
         <v>24</v>
       </c>
       <c r="C726" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="727" spans="1:3">
@@ -8653,7 +8662,7 @@
         <v>24</v>
       </c>
       <c r="C727" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="728" spans="1:3">
@@ -8664,7 +8673,7 @@
         <v>24</v>
       </c>
       <c r="C728" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8675,7 +8684,7 @@
         <v>24</v>
       </c>
       <c r="C729" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8686,7 +8695,7 @@
         <v>24</v>
       </c>
       <c r="C730" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8697,7 +8706,7 @@
         <v>24</v>
       </c>
       <c r="C731" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="732" spans="1:3">
@@ -8708,7 +8717,7 @@
         <v>24</v>
       </c>
       <c r="C732" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8719,7 +8728,7 @@
         <v>24</v>
       </c>
       <c r="C733" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="734" spans="1:3">
@@ -8730,7 +8739,7 @@
         <v>24</v>
       </c>
       <c r="C734" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8741,7 +8750,7 @@
         <v>24</v>
       </c>
       <c r="C735" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8752,7 +8761,7 @@
         <v>24</v>
       </c>
       <c r="C736" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="737" spans="1:3">
@@ -8763,7 +8772,7 @@
         <v>24</v>
       </c>
       <c r="C737" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="738" spans="1:3">
@@ -8774,7 +8783,7 @@
         <v>24</v>
       </c>
       <c r="C738" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8782,10 +8791,10 @@
         <v>737</v>
       </c>
       <c r="B739" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C739" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="740" spans="1:3">
@@ -8793,10 +8802,10 @@
         <v>738</v>
       </c>
       <c r="B740" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C740" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="741" spans="1:3">
@@ -8804,10 +8813,10 @@
         <v>739</v>
       </c>
       <c r="B741" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C741" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8818,7 +8827,7 @@
         <v>25</v>
       </c>
       <c r="C742" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="743" spans="1:3">
@@ -8829,7 +8838,7 @@
         <v>25</v>
       </c>
       <c r="C743" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8840,7 +8849,7 @@
         <v>25</v>
       </c>
       <c r="C744" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8851,7 +8860,7 @@
         <v>25</v>
       </c>
       <c r="C745" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8862,7 +8871,7 @@
         <v>25</v>
       </c>
       <c r="C746" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="747" spans="1:3">
@@ -8873,7 +8882,7 @@
         <v>25</v>
       </c>
       <c r="C747" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8884,7 +8893,7 @@
         <v>25</v>
       </c>
       <c r="C748" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8895,7 +8904,7 @@
         <v>25</v>
       </c>
       <c r="C749" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="750" spans="1:3">
@@ -8906,7 +8915,7 @@
         <v>25</v>
       </c>
       <c r="C750" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8917,7 +8926,7 @@
         <v>25</v>
       </c>
       <c r="C751" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="752" spans="1:3">
@@ -8928,7 +8937,7 @@
         <v>25</v>
       </c>
       <c r="C752" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="753" spans="1:3">
@@ -8939,7 +8948,7 @@
         <v>25</v>
       </c>
       <c r="C753" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="754" spans="1:3">
@@ -8950,7 +8959,7 @@
         <v>25</v>
       </c>
       <c r="C754" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="755" spans="1:3">
@@ -8961,7 +8970,7 @@
         <v>25</v>
       </c>
       <c r="C755" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="756" spans="1:3">
@@ -8972,7 +8981,7 @@
         <v>25</v>
       </c>
       <c r="C756" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="757" spans="1:3">
@@ -8983,7 +8992,7 @@
         <v>25</v>
       </c>
       <c r="C757" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="758" spans="1:3">
@@ -8994,7 +9003,7 @@
         <v>25</v>
       </c>
       <c r="C758" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="759" spans="1:3">
@@ -9005,7 +9014,7 @@
         <v>25</v>
       </c>
       <c r="C759" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="760" spans="1:3">
@@ -9016,7 +9025,7 @@
         <v>25</v>
       </c>
       <c r="C760" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="761" spans="1:3">
@@ -9027,7 +9036,7 @@
         <v>25</v>
       </c>
       <c r="C761" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="762" spans="1:3">
@@ -9038,7 +9047,7 @@
         <v>25</v>
       </c>
       <c r="C762" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -9049,7 +9058,7 @@
         <v>25</v>
       </c>
       <c r="C763" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -9060,7 +9069,7 @@
         <v>25</v>
       </c>
       <c r="C764" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="765" spans="1:3">
@@ -9071,7 +9080,7 @@
         <v>25</v>
       </c>
       <c r="C765" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="766" spans="1:3">
@@ -9082,7 +9091,7 @@
         <v>25</v>
       </c>
       <c r="C766" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="767" spans="1:3">
@@ -9093,7 +9102,7 @@
         <v>25</v>
       </c>
       <c r="C767" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="768" spans="1:3">
@@ -9104,7 +9113,7 @@
         <v>25</v>
       </c>
       <c r="C768" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="769" spans="1:3">
@@ -9115,7 +9124,7 @@
         <v>25</v>
       </c>
       <c r="C769" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -9126,7 +9135,7 @@
         <v>25</v>
       </c>
       <c r="C770" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="771" spans="1:3">
@@ -9137,7 +9146,7 @@
         <v>25</v>
       </c>
       <c r="C771" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -9148,7 +9157,7 @@
         <v>25</v>
       </c>
       <c r="C772" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="773" spans="1:3">
@@ -9156,10 +9165,10 @@
         <v>771</v>
       </c>
       <c r="B773" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C773" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="774" spans="1:3">
@@ -9167,10 +9176,10 @@
         <v>772</v>
       </c>
       <c r="B774" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C774" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -9178,10 +9187,10 @@
         <v>773</v>
       </c>
       <c r="B775" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C775" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="776" spans="1:3">
@@ -9189,10 +9198,10 @@
         <v>774</v>
       </c>
       <c r="B776" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C776" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -9200,10 +9209,10 @@
         <v>775</v>
       </c>
       <c r="B777" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C777" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="778" spans="1:3">
@@ -9211,10 +9220,10 @@
         <v>776</v>
       </c>
       <c r="B778" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C778" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="779" spans="1:3">
@@ -9225,7 +9234,7 @@
         <v>27</v>
       </c>
       <c r="C779" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -9236,7 +9245,7 @@
         <v>27</v>
       </c>
       <c r="C780" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="781" spans="1:3">
@@ -9247,7 +9256,7 @@
         <v>27</v>
       </c>
       <c r="C781" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="782" spans="1:3">
@@ -9258,7 +9267,7 @@
         <v>27</v>
       </c>
       <c r="C782" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="783" spans="1:3">
@@ -9269,7 +9278,7 @@
         <v>27</v>
       </c>
       <c r="C783" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9277,10 +9286,10 @@
         <v>782</v>
       </c>
       <c r="B784" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C784" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="785" spans="1:3">
@@ -9288,10 +9297,10 @@
         <v>783</v>
       </c>
       <c r="B785" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C785" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="786" spans="1:3">
@@ -9299,10 +9308,10 @@
         <v>784</v>
       </c>
       <c r="B786" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C786" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="787" spans="1:3">
@@ -9310,10 +9319,10 @@
         <v>785</v>
       </c>
       <c r="B787" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C787" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="788" spans="1:3">
@@ -9321,10 +9330,10 @@
         <v>786</v>
       </c>
       <c r="B788" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C788" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9332,10 +9341,10 @@
         <v>787</v>
       </c>
       <c r="B789" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C789" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9346,7 +9355,7 @@
         <v>28</v>
       </c>
       <c r="C790" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="791" spans="1:3">
@@ -9357,7 +9366,7 @@
         <v>28</v>
       </c>
       <c r="C791" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
     </row>
     <row r="792" spans="1:3">
@@ -9368,7 +9377,7 @@
         <v>28</v>
       </c>
       <c r="C792" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
     </row>
     <row r="793" spans="1:3">
@@ -9379,7 +9388,7 @@
         <v>28</v>
       </c>
       <c r="C793" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="794" spans="1:3">
@@ -9390,7 +9399,7 @@
         <v>28</v>
       </c>
       <c r="C794" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="795" spans="1:3">
@@ -9401,7 +9410,7 @@
         <v>28</v>
       </c>
       <c r="C795" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="796" spans="1:3">
@@ -9412,7 +9421,7 @@
         <v>28</v>
       </c>
       <c r="C796" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="797" spans="1:3">
@@ -9423,7 +9432,7 @@
         <v>28</v>
       </c>
       <c r="C797" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="798" spans="1:3">
@@ -9434,7 +9443,7 @@
         <v>28</v>
       </c>
       <c r="C798" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="799" spans="1:3">
@@ -9445,7 +9454,7 @@
         <v>28</v>
       </c>
       <c r="C799" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="800" spans="1:3">
@@ -9456,7 +9465,7 @@
         <v>28</v>
       </c>
       <c r="C800" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="801" spans="1:3">
@@ -9467,7 +9476,7 @@
         <v>28</v>
       </c>
       <c r="C801" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9478,7 +9487,7 @@
         <v>28</v>
       </c>
       <c r="C802" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="803" spans="1:3">
@@ -9489,7 +9498,7 @@
         <v>28</v>
       </c>
       <c r="C803" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9500,7 +9509,7 @@
         <v>28</v>
       </c>
       <c r="C804" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="805" spans="1:3">
@@ -9511,7 +9520,7 @@
         <v>28</v>
       </c>
       <c r="C805" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="806" spans="1:3">
@@ -9522,7 +9531,7 @@
         <v>28</v>
       </c>
       <c r="C806" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="807" spans="1:3">
@@ -9533,7 +9542,7 @@
         <v>28</v>
       </c>
       <c r="C807" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="808" spans="1:3">
@@ -9544,7 +9553,7 @@
         <v>28</v>
       </c>
       <c r="C808" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="809" spans="1:3">
@@ -9555,7 +9564,7 @@
         <v>28</v>
       </c>
       <c r="C809" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="810" spans="1:3">
@@ -9566,7 +9575,7 @@
         <v>28</v>
       </c>
       <c r="C810" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9577,7 +9586,7 @@
         <v>28</v>
       </c>
       <c r="C811" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9588,7 +9597,7 @@
         <v>28</v>
       </c>
       <c r="C812" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="813" spans="1:3">
@@ -9599,7 +9608,7 @@
         <v>28</v>
       </c>
       <c r="C813" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9610,7 +9619,7 @@
         <v>28</v>
       </c>
       <c r="C814" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="815" spans="1:3">
@@ -9621,7 +9630,7 @@
         <v>28</v>
       </c>
       <c r="C815" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="816" spans="1:3">
@@ -9632,7 +9641,7 @@
         <v>28</v>
       </c>
       <c r="C816" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9643,7 +9652,7 @@
         <v>28</v>
       </c>
       <c r="C817" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9654,7 +9663,7 @@
         <v>28</v>
       </c>
       <c r="C818" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="819" spans="1:3">
@@ -9665,7 +9674,7 @@
         <v>28</v>
       </c>
       <c r="C819" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="820" spans="1:3">
@@ -9676,7 +9685,7 @@
         <v>28</v>
       </c>
       <c r="C820" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="821" spans="1:3">
@@ -9687,7 +9696,7 @@
         <v>28</v>
       </c>
       <c r="C821" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="822" spans="1:3">
@@ -9698,7 +9707,7 @@
         <v>28</v>
       </c>
       <c r="C822" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9709,7 +9718,7 @@
         <v>28</v>
       </c>
       <c r="C823" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9720,7 +9729,7 @@
         <v>28</v>
       </c>
       <c r="C824" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="825" spans="1:3">
@@ -9728,10 +9737,10 @@
         <v>823</v>
       </c>
       <c r="B825" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C825" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="826" spans="1:3">
@@ -9739,10 +9748,10 @@
         <v>824</v>
       </c>
       <c r="B826" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C826" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="827" spans="1:3">
@@ -9750,10 +9759,10 @@
         <v>825</v>
       </c>
       <c r="B827" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C827" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9761,10 +9770,10 @@
         <v>826</v>
       </c>
       <c r="B828" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C828" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9772,10 +9781,10 @@
         <v>827</v>
       </c>
       <c r="B829" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C829" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="830" spans="1:3">
@@ -9783,10 +9792,10 @@
         <v>828</v>
       </c>
       <c r="B830" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C830" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="831" spans="1:3">
@@ -9794,7 +9803,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C831" t="s">
         <v>91</v>
@@ -9805,10 +9814,10 @@
         <v>830</v>
       </c>
       <c r="B832" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C832" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9816,10 +9825,10 @@
         <v>831</v>
       </c>
       <c r="B833" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C833" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="834" spans="1:3">
@@ -9827,10 +9836,10 @@
         <v>832</v>
       </c>
       <c r="B834" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C834" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9838,10 +9847,10 @@
         <v>833</v>
       </c>
       <c r="B835" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C835" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9849,10 +9858,10 @@
         <v>834</v>
       </c>
       <c r="B836" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C836" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9860,10 +9869,10 @@
         <v>835</v>
       </c>
       <c r="B837" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C837" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9871,10 +9880,10 @@
         <v>836</v>
       </c>
       <c r="B838" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C838" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9882,10 +9891,10 @@
         <v>837</v>
       </c>
       <c r="B839" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C839" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9896,7 +9905,7 @@
         <v>33</v>
       </c>
       <c r="C840" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9907,7 +9916,7 @@
         <v>33</v>
       </c>
       <c r="C841" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9918,7 +9927,7 @@
         <v>33</v>
       </c>
       <c r="C842" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9929,7 +9938,7 @@
         <v>33</v>
       </c>
       <c r="C843" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9940,7 +9949,7 @@
         <v>33</v>
       </c>
       <c r="C844" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9951,7 +9960,7 @@
         <v>33</v>
       </c>
       <c r="C845" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9962,7 +9971,7 @@
         <v>33</v>
       </c>
       <c r="C846" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9973,7 +9982,7 @@
         <v>33</v>
       </c>
       <c r="C847" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9984,7 +9993,7 @@
         <v>33</v>
       </c>
       <c r="C848" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9995,7 +10004,7 @@
         <v>33</v>
       </c>
       <c r="C849" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -10006,7 +10015,7 @@
         <v>33</v>
       </c>
       <c r="C850" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -10017,7 +10026,7 @@
         <v>33</v>
       </c>
       <c r="C851" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -10028,7 +10037,7 @@
         <v>33</v>
       </c>
       <c r="C852" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -10039,7 +10048,7 @@
         <v>33</v>
       </c>
       <c r="C853" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -10050,7 +10059,7 @@
         <v>33</v>
       </c>
       <c r="C854" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -10061,7 +10070,7 @@
         <v>33</v>
       </c>
       <c r="C855" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -10072,7 +10081,7 @@
         <v>33</v>
       </c>
       <c r="C856" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -10083,7 +10092,7 @@
         <v>33</v>
       </c>
       <c r="C857" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -10094,7 +10103,7 @@
         <v>33</v>
       </c>
       <c r="C858" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -10105,7 +10114,7 @@
         <v>33</v>
       </c>
       <c r="C859" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -10116,7 +10125,7 @@
         <v>33</v>
       </c>
       <c r="C860" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -10127,6 +10136,72 @@
         <v>33</v>
       </c>
       <c r="C861" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="A862" s="1">
+        <v>860</v>
+      </c>
+      <c r="B862" t="s">
+        <v>33</v>
+      </c>
+      <c r="C862" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3">
+      <c r="A863" s="1">
+        <v>861</v>
+      </c>
+      <c r="B863" t="s">
+        <v>33</v>
+      </c>
+      <c r="C863" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3">
+      <c r="A864" s="1">
+        <v>862</v>
+      </c>
+      <c r="B864" t="s">
+        <v>33</v>
+      </c>
+      <c r="C864" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3">
+      <c r="A865" s="1">
+        <v>863</v>
+      </c>
+      <c r="B865" t="s">
+        <v>33</v>
+      </c>
+      <c r="C865" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3">
+      <c r="A866" s="1">
+        <v>864</v>
+      </c>
+      <c r="B866" t="s">
+        <v>33</v>
+      </c>
+      <c r="C866" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="A867" s="1">
+        <v>865</v>
+      </c>
+      <c r="B867" t="s">
+        <v>33</v>
+      </c>
+      <c r="C867" t="s">
         <v>68</v>
       </c>
     </row>

--- a/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="98">
   <si>
     <t>Chromosome</t>
   </si>
@@ -299,6 +299,15 @@
   </si>
   <si>
     <t>W19161</t>
+  </si>
+  <si>
+    <t>184431</t>
+  </si>
+  <si>
+    <t>190258</t>
+  </si>
+  <si>
+    <t>193067</t>
   </si>
 </sst>
 </file>
@@ -656,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C861"/>
+  <dimension ref="A1:C866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9830,7 +9839,7 @@
         <v>33</v>
       </c>
       <c r="C834" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="835" spans="1:3">
@@ -9841,7 +9850,7 @@
         <v>33</v>
       </c>
       <c r="C835" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9852,7 +9861,7 @@
         <v>33</v>
       </c>
       <c r="C836" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="837" spans="1:3">
@@ -9863,7 +9872,7 @@
         <v>33</v>
       </c>
       <c r="C837" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="838" spans="1:3">
@@ -9874,7 +9883,7 @@
         <v>33</v>
       </c>
       <c r="C838" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
     </row>
     <row r="839" spans="1:3">
@@ -9885,7 +9894,7 @@
         <v>33</v>
       </c>
       <c r="C839" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9896,7 +9905,7 @@
         <v>33</v>
       </c>
       <c r="C840" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9907,7 +9916,7 @@
         <v>33</v>
       </c>
       <c r="C841" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9918,7 +9927,7 @@
         <v>33</v>
       </c>
       <c r="C842" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9929,7 +9938,7 @@
         <v>33</v>
       </c>
       <c r="C843" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9940,7 +9949,7 @@
         <v>33</v>
       </c>
       <c r="C844" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9951,7 +9960,7 @@
         <v>33</v>
       </c>
       <c r="C845" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9962,7 +9971,7 @@
         <v>33</v>
       </c>
       <c r="C846" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9973,7 +9982,7 @@
         <v>33</v>
       </c>
       <c r="C847" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9984,7 +9993,7 @@
         <v>33</v>
       </c>
       <c r="C848" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -9995,7 +10004,7 @@
         <v>33</v>
       </c>
       <c r="C849" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -10006,7 +10015,7 @@
         <v>33</v>
       </c>
       <c r="C850" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -10017,7 +10026,7 @@
         <v>33</v>
       </c>
       <c r="C851" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -10028,7 +10037,7 @@
         <v>33</v>
       </c>
       <c r="C852" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -10039,7 +10048,7 @@
         <v>33</v>
       </c>
       <c r="C853" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -10050,7 +10059,7 @@
         <v>33</v>
       </c>
       <c r="C854" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -10061,7 +10070,7 @@
         <v>33</v>
       </c>
       <c r="C855" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -10072,7 +10081,7 @@
         <v>33</v>
       </c>
       <c r="C856" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -10083,7 +10092,7 @@
         <v>33</v>
       </c>
       <c r="C857" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -10094,7 +10103,7 @@
         <v>33</v>
       </c>
       <c r="C858" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -10105,7 +10114,7 @@
         <v>33</v>
       </c>
       <c r="C859" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -10116,7 +10125,7 @@
         <v>33</v>
       </c>
       <c r="C860" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -10127,6 +10136,61 @@
         <v>33</v>
       </c>
       <c r="C861" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="A862" s="1">
+        <v>860</v>
+      </c>
+      <c r="B862" t="s">
+        <v>33</v>
+      </c>
+      <c r="C862" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3">
+      <c r="A863" s="1">
+        <v>861</v>
+      </c>
+      <c r="B863" t="s">
+        <v>33</v>
+      </c>
+      <c r="C863" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3">
+      <c r="A864" s="1">
+        <v>862</v>
+      </c>
+      <c r="B864" t="s">
+        <v>33</v>
+      </c>
+      <c r="C864" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3">
+      <c r="A865" s="1">
+        <v>863</v>
+      </c>
+      <c r="B865" t="s">
+        <v>33</v>
+      </c>
+      <c r="C865" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3">
+      <c r="A866" s="1">
+        <v>864</v>
+      </c>
+      <c r="B866" t="s">
+        <v>33</v>
+      </c>
+      <c r="C866" t="s">
         <v>68</v>
       </c>
     </row>

--- a/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
+++ b/KaryotypingPinnacle/CNN/theWholePatientID_unique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="99">
   <si>
     <t>Chromosome</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>193067</t>
+  </si>
+  <si>
+    <t>W12813</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C866"/>
+  <dimension ref="A1:C872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9894,7 +9897,7 @@
         <v>33</v>
       </c>
       <c r="C839" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9905,7 +9908,7 @@
         <v>33</v>
       </c>
       <c r="C840" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9916,7 +9919,7 @@
         <v>33</v>
       </c>
       <c r="C841" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9927,7 +9930,7 @@
         <v>33</v>
       </c>
       <c r="C842" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="843" spans="1:3">
@@ -9938,7 +9941,7 @@
         <v>33</v>
       </c>
       <c r="C843" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="844" spans="1:3">
@@ -9949,7 +9952,7 @@
         <v>33</v>
       </c>
       <c r="C844" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="845" spans="1:3">
@@ -9960,7 +9963,7 @@
         <v>33</v>
       </c>
       <c r="C845" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="846" spans="1:3">
@@ -9971,7 +9974,7 @@
         <v>33</v>
       </c>
       <c r="C846" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9982,7 +9985,7 @@
         <v>33</v>
       </c>
       <c r="C847" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="848" spans="1:3">
@@ -9993,7 +9996,7 @@
         <v>33</v>
       </c>
       <c r="C848" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="849" spans="1:3">
@@ -10004,7 +10007,7 @@
         <v>33</v>
       </c>
       <c r="C849" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="850" spans="1:3">
@@ -10015,7 +10018,7 @@
         <v>33</v>
       </c>
       <c r="C850" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -10026,7 +10029,7 @@
         <v>33</v>
       </c>
       <c r="C851" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="852" spans="1:3">
@@ -10037,7 +10040,7 @@
         <v>33</v>
       </c>
       <c r="C852" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -10048,7 +10051,7 @@
         <v>33</v>
       </c>
       <c r="C853" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="854" spans="1:3">
@@ -10059,7 +10062,7 @@
         <v>33</v>
       </c>
       <c r="C854" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -10070,7 +10073,7 @@
         <v>33</v>
       </c>
       <c r="C855" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="856" spans="1:3">
@@ -10081,7 +10084,7 @@
         <v>33</v>
       </c>
       <c r="C856" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -10092,7 +10095,7 @@
         <v>33</v>
       </c>
       <c r="C857" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="858" spans="1:3">
@@ -10103,7 +10106,7 @@
         <v>33</v>
       </c>
       <c r="C858" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -10114,7 +10117,7 @@
         <v>33</v>
       </c>
       <c r="C859" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="860" spans="1:3">
@@ -10125,7 +10128,7 @@
         <v>33</v>
       </c>
       <c r="C860" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="861" spans="1:3">
@@ -10136,7 +10139,7 @@
         <v>33</v>
       </c>
       <c r="C861" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="862" spans="1:3">
@@ -10147,7 +10150,7 @@
         <v>33</v>
       </c>
       <c r="C862" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="863" spans="1:3">
@@ -10158,7 +10161,7 @@
         <v>33</v>
       </c>
       <c r="C863" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -10169,7 +10172,7 @@
         <v>33</v>
       </c>
       <c r="C864" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -10180,7 +10183,7 @@
         <v>33</v>
       </c>
       <c r="C865" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="866" spans="1:3">
@@ -10191,6 +10194,72 @@
         <v>33</v>
       </c>
       <c r="C866" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="A867" s="1">
+        <v>865</v>
+      </c>
+      <c r="B867" t="s">
+        <v>33</v>
+      </c>
+      <c r="C867" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3">
+      <c r="A868" s="1">
+        <v>866</v>
+      </c>
+      <c r="B868" t="s">
+        <v>33</v>
+      </c>
+      <c r="C868" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3">
+      <c r="A869" s="1">
+        <v>867</v>
+      </c>
+      <c r="B869" t="s">
+        <v>33</v>
+      </c>
+      <c r="C869" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3">
+      <c r="A870" s="1">
+        <v>868</v>
+      </c>
+      <c r="B870" t="s">
+        <v>33</v>
+      </c>
+      <c r="C870" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3">
+      <c r="A871" s="1">
+        <v>869</v>
+      </c>
+      <c r="B871" t="s">
+        <v>33</v>
+      </c>
+      <c r="C871" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3">
+      <c r="A872" s="1">
+        <v>870</v>
+      </c>
+      <c r="B872" t="s">
+        <v>33</v>
+      </c>
+      <c r="C872" t="s">
         <v>68</v>
       </c>
     </row>
